--- a/waist_Data_Variable.xlsx
+++ b/waist_Data_Variable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HU4"/>
+  <dimension ref="A1:NM4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1121,2072 +1121,3848 @@
       <c r="HU1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ML1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ND1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NM1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>262.6197814941406</v>
+        <v>350.0032958984375</v>
       </c>
       <c r="B2" t="n">
-        <v>265.9135131835938</v>
+        <v>354.6502990722656</v>
       </c>
       <c r="C2" t="n">
-        <v>267.8061828613281</v>
+        <v>359.2767028808594</v>
       </c>
       <c r="D2" t="n">
-        <v>269.1814575195312</v>
+        <v>362.5824584960938</v>
       </c>
       <c r="E2" t="n">
-        <v>271.8552551269531</v>
+        <v>366.7690734863281</v>
       </c>
       <c r="F2" t="n">
-        <v>275.7404174804688</v>
+        <v>372.150146484375</v>
       </c>
       <c r="G2" t="n">
-        <v>279.1988830566406</v>
+        <v>378.8240051269531</v>
       </c>
       <c r="H2" t="n">
-        <v>282.7506408691406</v>
+        <v>386.5326538085938</v>
       </c>
       <c r="I2" t="n">
-        <v>286.2788391113281</v>
+        <v>394.3128967285156</v>
       </c>
       <c r="J2" t="n">
-        <v>290.8411560058594</v>
+        <v>399.8718566894531</v>
       </c>
       <c r="K2" t="n">
-        <v>298.8344116210938</v>
+        <v>405.3525085449219</v>
       </c>
       <c r="L2" t="n">
-        <v>303.9864196777344</v>
+        <v>409.7444152832031</v>
       </c>
       <c r="M2" t="n">
-        <v>307.0665893554688</v>
+        <v>429.9830322265625</v>
       </c>
       <c r="N2" t="n">
-        <v>309.6141662597656</v>
+        <v>430.995849609375</v>
       </c>
       <c r="O2" t="n">
-        <v>314.7044982910156</v>
+        <v>431.0906372070312</v>
       </c>
       <c r="P2" t="n">
-        <v>320.0350341796875</v>
+        <v>429.4567565917969</v>
       </c>
       <c r="Q2" t="n">
-        <v>323.9013366699219</v>
+        <v>428.5812683105469</v>
       </c>
       <c r="R2" t="n">
-        <v>326.5730285644531</v>
+        <v>427.8778076171875</v>
       </c>
       <c r="S2" t="n">
-        <v>327.6587524414062</v>
+        <v>427.3492736816406</v>
       </c>
       <c r="T2" t="n">
-        <v>328.09716796875</v>
+        <v>425.6375732421875</v>
       </c>
       <c r="U2" t="n">
-        <v>328.2886352539062</v>
+        <v>421.9941711425781</v>
       </c>
       <c r="V2" t="n">
-        <v>328.2844848632812</v>
+        <v>417.4246826171875</v>
       </c>
       <c r="W2" t="n">
-        <v>328.4686584472656</v>
+        <v>412.447998046875</v>
       </c>
       <c r="X2" t="n">
-        <v>328.6814880371094</v>
+        <v>408.1292724609375</v>
       </c>
       <c r="Y2" t="n">
-        <v>329.2123413085938</v>
+        <v>403.48486328125</v>
       </c>
       <c r="Z2" t="n">
-        <v>330.0350341796875</v>
+        <v>399.4640808105469</v>
       </c>
       <c r="AA2" t="n">
-        <v>330.8584289550781</v>
+        <v>395.4644470214844</v>
       </c>
       <c r="AB2" t="n">
-        <v>331.1485595703125</v>
+        <v>392.6410522460938</v>
       </c>
       <c r="AC2" t="n">
-        <v>331.1474304199219</v>
+        <v>390.0533447265625</v>
       </c>
       <c r="AD2" t="n">
-        <v>331.0065307617188</v>
+        <v>387.3356323242188</v>
       </c>
       <c r="AE2" t="n">
-        <v>330.8124084472656</v>
+        <v>385.8419494628906</v>
       </c>
       <c r="AF2" t="n">
-        <v>330.6182556152344</v>
+        <v>384.6014404296875</v>
       </c>
       <c r="AG2" t="n">
-        <v>330.4180297851562</v>
+        <v>383.9561767578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>330.2846984863281</v>
+        <v>383.4654235839844</v>
       </c>
       <c r="AI2" t="n">
-        <v>330.3493041992188</v>
+        <v>382.7467346191406</v>
       </c>
       <c r="AJ2" t="n">
-        <v>330.544677734375</v>
+        <v>382.2431945800781</v>
       </c>
       <c r="AK2" t="n">
-        <v>330.7150573730469</v>
+        <v>381.3240356445312</v>
       </c>
       <c r="AL2" t="n">
-        <v>330.942626953125</v>
+        <v>379.7703857421875</v>
       </c>
       <c r="AM2" t="n">
-        <v>331.2090454101562</v>
+        <v>378.0244140625</v>
       </c>
       <c r="AN2" t="n">
-        <v>332.0441284179688</v>
+        <v>376.7859497070312</v>
       </c>
       <c r="AO2" t="n">
-        <v>334.6753540039062</v>
+        <v>375.7366638183594</v>
       </c>
       <c r="AP2" t="n">
-        <v>335.3013305664062</v>
+        <v>374.4845886230469</v>
       </c>
       <c r="AQ2" t="n">
-        <v>335.4520263671875</v>
+        <v>374.1029663085938</v>
       </c>
       <c r="AR2" t="n">
-        <v>335.2990112304688</v>
+        <v>374.0033569335938</v>
       </c>
       <c r="AS2" t="n">
-        <v>335.1993408203125</v>
+        <v>374.1043090820312</v>
       </c>
       <c r="AT2" t="n">
-        <v>335.5550537109375</v>
+        <v>374.3367919921875</v>
       </c>
       <c r="AU2" t="n">
-        <v>336.193115234375</v>
+        <v>374.5826721191406</v>
       </c>
       <c r="AV2" t="n">
-        <v>336.8920288085938</v>
+        <v>374.8617858886719</v>
       </c>
       <c r="AW2" t="n">
-        <v>337.29541015625</v>
+        <v>375.0539855957031</v>
       </c>
       <c r="AX2" t="n">
-        <v>336.8550109863281</v>
+        <v>374.8999633789062</v>
       </c>
       <c r="AY2" t="n">
-        <v>336.1481018066406</v>
+        <v>373.8945922851562</v>
       </c>
       <c r="AZ2" t="n">
-        <v>335.4970703125</v>
+        <v>372.3419189453125</v>
       </c>
       <c r="BA2" t="n">
-        <v>334.975341796875</v>
+        <v>371.3033447265625</v>
       </c>
       <c r="BB2" t="n">
-        <v>334.4851379394531</v>
+        <v>370.0985412597656</v>
       </c>
       <c r="BC2" t="n">
-        <v>334.1950988769531</v>
+        <v>368.6226806640625</v>
       </c>
       <c r="BD2" t="n">
-        <v>333.5390625</v>
+        <v>367.1969299316406</v>
       </c>
       <c r="BE2" t="n">
-        <v>333.0465698242188</v>
+        <v>365.4429321289062</v>
       </c>
       <c r="BF2" t="n">
-        <v>332.5813293457031</v>
+        <v>362.99072265625</v>
       </c>
       <c r="BG2" t="n">
-        <v>332.061279296875</v>
+        <v>360.9500122070312</v>
       </c>
       <c r="BH2" t="n">
-        <v>331.4463806152344</v>
+        <v>358.7016296386719</v>
       </c>
       <c r="BI2" t="n">
-        <v>330.4703063964844</v>
+        <v>356.0908508300781</v>
       </c>
       <c r="BJ2" t="n">
-        <v>329.0489196777344</v>
+        <v>353.6079406738281</v>
       </c>
       <c r="BK2" t="n">
-        <v>327.2186889648438</v>
+        <v>350.4241333007812</v>
       </c>
       <c r="BL2" t="n">
-        <v>324.9697265625</v>
+        <v>346.0535278320312</v>
       </c>
       <c r="BM2" t="n">
-        <v>323.42529296875</v>
+        <v>341.9997863769531</v>
       </c>
       <c r="BN2" t="n">
-        <v>322.2499084472656</v>
+        <v>337.5297241210938</v>
       </c>
       <c r="BO2" t="n">
-        <v>321.594482421875</v>
+        <v>330.6762084960938</v>
       </c>
       <c r="BP2" t="n">
-        <v>321.1782531738281</v>
+        <v>327.5088195800781</v>
       </c>
       <c r="BQ2" t="n">
-        <v>320.8984069824219</v>
+        <v>324.9265747070312</v>
       </c>
       <c r="BR2" t="n">
-        <v>320.4194641113281</v>
+        <v>322.5482177734375</v>
       </c>
       <c r="BS2" t="n">
-        <v>319.7033996582031</v>
+        <v>320.2431640625</v>
       </c>
       <c r="BT2" t="n">
-        <v>319.2572326660156</v>
+        <v>318.4672241210938</v>
       </c>
       <c r="BU2" t="n">
-        <v>318.9114074707031</v>
+        <v>317.3973388671875</v>
       </c>
       <c r="BV2" t="n">
-        <v>318.1980590820312</v>
+        <v>316.7936401367188</v>
       </c>
       <c r="BW2" t="n">
-        <v>317.8633117675781</v>
+        <v>316.4847412109375</v>
       </c>
       <c r="BX2" t="n">
-        <v>318.07373046875</v>
+        <v>316.4681701660156</v>
       </c>
       <c r="BY2" t="n">
-        <v>317.9871215820312</v>
+        <v>317.5450439453125</v>
       </c>
       <c r="BZ2" t="n">
-        <v>317.9946899414062</v>
+        <v>318.9510498046875</v>
       </c>
       <c r="CA2" t="n">
-        <v>317.9779357910156</v>
+        <v>321.6184997558594</v>
       </c>
       <c r="CB2" t="n">
-        <v>317.9947509765625</v>
+        <v>324.7232666015625</v>
       </c>
       <c r="CC2" t="n">
-        <v>318.0167236328125</v>
+        <v>328.25439453125</v>
       </c>
       <c r="CD2" t="n">
-        <v>318.0665283203125</v>
+        <v>331.6100463867188</v>
       </c>
       <c r="CE2" t="n">
-        <v>318.0362243652344</v>
+        <v>337.9967041015625</v>
       </c>
       <c r="CF2" t="n">
-        <v>318.1466979980469</v>
+        <v>342.096923828125</v>
       </c>
       <c r="CG2" t="n">
-        <v>318.2635803222656</v>
+        <v>345.9856872558594</v>
       </c>
       <c r="CH2" t="n">
-        <v>318.3707885742188</v>
+        <v>350.161376953125</v>
       </c>
       <c r="CI2" t="n">
-        <v>318.4948120117188</v>
+        <v>354.9466552734375</v>
       </c>
       <c r="CJ2" t="n">
-        <v>318.5258178710938</v>
+        <v>358.2633056640625</v>
       </c>
       <c r="CK2" t="n">
-        <v>318.54443359375</v>
+        <v>361.5296020507812</v>
       </c>
       <c r="CL2" t="n">
-        <v>318.5504455566406</v>
+        <v>364.2680358886719</v>
       </c>
       <c r="CM2" t="n">
-        <v>318.5518798828125</v>
+        <v>366.966552734375</v>
       </c>
       <c r="CN2" t="n">
-        <v>318.471923828125</v>
+        <v>370.4010620117188</v>
       </c>
       <c r="CO2" t="n">
-        <v>318.0109558105469</v>
+        <v>371.6197509765625</v>
       </c>
       <c r="CP2" t="n">
-        <v>317.1810607910156</v>
+        <v>373.0115966796875</v>
       </c>
       <c r="CQ2" t="n">
-        <v>316.1514282226562</v>
+        <v>374.3377380371094</v>
       </c>
       <c r="CR2" t="n">
-        <v>315.238037109375</v>
+        <v>375.2233581542969</v>
       </c>
       <c r="CS2" t="n">
-        <v>314.73095703125</v>
+        <v>375.7688903808594</v>
       </c>
       <c r="CT2" t="n">
-        <v>313.9253234863281</v>
+        <v>375.8983764648438</v>
       </c>
       <c r="CU2" t="n">
-        <v>313.3455810546875</v>
+        <v>375.9396362304688</v>
       </c>
       <c r="CV2" t="n">
-        <v>312.7862854003906</v>
+        <v>374.8448181152344</v>
       </c>
       <c r="CW2" t="n">
-        <v>312.0159912109375</v>
+        <v>373.5164184570312</v>
       </c>
       <c r="CX2" t="n">
-        <v>310.4914245605469</v>
+        <v>369.7527465820312</v>
       </c>
       <c r="CY2" t="n">
-        <v>307.8174438476562</v>
+        <v>366.2975463867188</v>
       </c>
       <c r="CZ2" t="n">
-        <v>304.0751953125</v>
+        <v>358.5375366210938</v>
       </c>
       <c r="DA2" t="n">
-        <v>302.2044067382812</v>
+        <v>355.9541015625</v>
       </c>
       <c r="DB2" t="n">
-        <v>300.8926086425781</v>
+        <v>353.8995971679688</v>
       </c>
       <c r="DC2" t="n">
-        <v>301.19970703125</v>
+        <v>350.7742004394531</v>
       </c>
       <c r="DD2" t="n">
-        <v>301.9090270996094</v>
+        <v>346.5955810546875</v>
       </c>
       <c r="DE2" t="n">
-        <v>302.8168029785156</v>
+        <v>340.1325073242188</v>
       </c>
       <c r="DF2" t="n">
-        <v>302.8141479492188</v>
+        <v>335.6555786132812</v>
       </c>
       <c r="DG2" t="n">
-        <v>302.5968017578125</v>
+        <v>334.4613952636719</v>
       </c>
       <c r="DH2" t="n">
-        <v>302.5132141113281</v>
+        <v>331.8716735839844</v>
       </c>
       <c r="DI2" t="n">
-        <v>302.4678649902344</v>
+        <v>330.810791015625</v>
       </c>
       <c r="DJ2" t="n">
-        <v>302.431640625</v>
+        <v>329.5379028320312</v>
       </c>
       <c r="DK2" t="n">
-        <v>303.8194274902344</v>
+        <v>328.4214782714844</v>
       </c>
       <c r="DL2" t="n">
-        <v>305.74365234375</v>
+        <v>327.7357482910156</v>
       </c>
       <c r="DM2" t="n">
-        <v>308.2564086914062</v>
+        <v>326.8667297363281</v>
       </c>
       <c r="DN2" t="n">
-        <v>310.3916015625</v>
+        <v>325.2731018066406</v>
       </c>
       <c r="DO2" t="n">
-        <v>313.2127380371094</v>
+        <v>322.8079223632812</v>
       </c>
       <c r="DP2" t="n">
-        <v>314.80615234375</v>
+        <v>320.2855224609375</v>
       </c>
       <c r="DQ2" t="n">
-        <v>316.0711669921875</v>
+        <v>317.2582702636719</v>
       </c>
       <c r="DR2" t="n">
-        <v>317.7338256835938</v>
+        <v>316.5355529785156</v>
       </c>
       <c r="DS2" t="n">
-        <v>320.9966430664062</v>
+        <v>316.3814392089844</v>
       </c>
       <c r="DT2" t="n">
-        <v>322.8851623535156</v>
+        <v>316.2313232421875</v>
       </c>
       <c r="DU2" t="n">
-        <v>326.4794311523438</v>
+        <v>315.5692138671875</v>
       </c>
       <c r="DV2" t="n">
-        <v>329.5638427734375</v>
+        <v>315.5111389160156</v>
       </c>
       <c r="DW2" t="n">
-        <v>332.6586303710938</v>
+        <v>319.4142456054688</v>
       </c>
       <c r="DX2" t="n">
-        <v>334.7320556640625</v>
+        <v>323.6113891601562</v>
       </c>
       <c r="DY2" t="n">
-        <v>336.7517395019531</v>
+        <v>327.5257568359375</v>
       </c>
       <c r="DZ2" t="n">
-        <v>338.3653259277344</v>
+        <v>333.3984375</v>
       </c>
       <c r="EA2" t="n">
-        <v>338.8040466308594</v>
+        <v>337.4795532226562</v>
       </c>
       <c r="EB2" t="n">
-        <v>339.1244812011719</v>
+        <v>349.2455749511719</v>
       </c>
       <c r="EC2" t="n">
-        <v>339.156982421875</v>
+        <v>356.6419067382812</v>
       </c>
       <c r="ED2" t="n">
-        <v>339.203125</v>
+        <v>362.7661437988281</v>
       </c>
       <c r="EE2" t="n">
-        <v>337.5381164550781</v>
+        <v>375.82666015625</v>
       </c>
       <c r="EF2" t="n">
-        <v>334.2705078125</v>
+        <v>392.8962707519531</v>
       </c>
       <c r="EG2" t="n">
-        <v>331.6572570800781</v>
+        <v>408.454345703125</v>
       </c>
       <c r="EH2" t="n">
-        <v>330.23779296875</v>
+        <v>414.2739562988281</v>
       </c>
       <c r="EI2" t="n">
-        <v>329.5867614746094</v>
+        <v>424.3977661132812</v>
       </c>
       <c r="EJ2" t="n">
-        <v>329.3261108398438</v>
+        <v>427.8578186035156</v>
       </c>
       <c r="EK2" t="n">
-        <v>328.5845336914062</v>
+        <v>433.2626647949219</v>
       </c>
       <c r="EL2" t="n">
-        <v>326.1035766601562</v>
+        <v>436.2477111816406</v>
       </c>
       <c r="EM2" t="n">
-        <v>323.0543823242188</v>
+        <v>442.87841796875</v>
       </c>
       <c r="EN2" t="n">
-        <v>322.0235900878906</v>
+        <v>446.3164672851562</v>
       </c>
       <c r="EO2" t="n">
-        <v>320.1809692382812</v>
+        <v>450.7055969238281</v>
       </c>
       <c r="EP2" t="n">
-        <v>319.0018005371094</v>
+        <v>451.8991088867188</v>
       </c>
       <c r="EQ2" t="n">
-        <v>316.2592468261719</v>
+        <v>458.0938110351562</v>
       </c>
       <c r="ER2" t="n">
-        <v>314.7726135253906</v>
+        <v>459.1659851074219</v>
       </c>
       <c r="ES2" t="n">
-        <v>313.7080993652344</v>
+        <v>458.6041870117188</v>
       </c>
       <c r="ET2" t="n">
-        <v>313.606201171875</v>
+        <v>459.1815490722656</v>
       </c>
       <c r="EU2" t="n">
-        <v>313.5782470703125</v>
+        <v>460.5082397460938</v>
       </c>
       <c r="EV2" t="n">
-        <v>314.0984802246094</v>
+        <v>460.63037109375</v>
       </c>
       <c r="EW2" t="n">
-        <v>317.1428527832031</v>
+        <v>459.528564453125</v>
       </c>
       <c r="EX2" t="n">
-        <v>317.5703430175781</v>
+        <v>458.9813842773438</v>
       </c>
       <c r="EY2" t="n">
-        <v>316.8659362792969</v>
+        <v>457.474365234375</v>
       </c>
       <c r="EZ2" t="n">
-        <v>316.0533447265625</v>
+        <v>455.700439453125</v>
       </c>
       <c r="FA2" t="n">
-        <v>315.1112365722656</v>
+        <v>453.0036926269531</v>
       </c>
       <c r="FB2" t="n">
-        <v>315.0934448242188</v>
+        <v>452.5383911132812</v>
       </c>
       <c r="FC2" t="n">
-        <v>315.0443420410156</v>
+        <v>452.0457763671875</v>
       </c>
       <c r="FD2" t="n">
-        <v>314.8379516601562</v>
+        <v>450.3764038085938</v>
       </c>
       <c r="FE2" t="n">
-        <v>314.8110046386719</v>
+        <v>449.4121704101562</v>
       </c>
       <c r="FF2" t="n">
-        <v>315.1580200195312</v>
+        <v>448.2229309082031</v>
       </c>
       <c r="FG2" t="n">
-        <v>316.2154235839844</v>
+        <v>446.03369140625</v>
       </c>
       <c r="FH2" t="n">
-        <v>316.6602783203125</v>
+        <v>445.4585571289062</v>
       </c>
       <c r="FI2" t="n">
-        <v>316.6406860351562</v>
+        <v>444.685546875</v>
       </c>
       <c r="FJ2" t="n">
-        <v>316.5140075683594</v>
+        <v>443.9973754882812</v>
       </c>
       <c r="FK2" t="n">
-        <v>315.8770446777344</v>
+        <v>442.7269897460938</v>
       </c>
       <c r="FL2" t="n">
-        <v>313.852294921875</v>
+        <v>441.661376953125</v>
       </c>
       <c r="FM2" t="n">
-        <v>312.627197265625</v>
+        <v>438.86328125</v>
       </c>
       <c r="FN2" t="n">
-        <v>312.7111511230469</v>
+        <v>437.5802001953125</v>
       </c>
       <c r="FO2" t="n">
-        <v>312.1941223144531</v>
+        <v>436.4376525878906</v>
       </c>
       <c r="FP2" t="n">
-        <v>310.5737609863281</v>
+        <v>433.7420043945312</v>
       </c>
       <c r="FQ2" t="n">
-        <v>310.0708923339844</v>
+        <v>431.2298889160156</v>
       </c>
       <c r="FR2" t="n">
-        <v>309.6988525390625</v>
+        <v>429.13330078125</v>
       </c>
       <c r="FS2" t="n">
-        <v>309.3655090332031</v>
+        <v>427.2345275878906</v>
       </c>
       <c r="FT2" t="n">
-        <v>308.0021362304688</v>
+        <v>423.1643981933594</v>
       </c>
       <c r="FU2" t="n">
-        <v>305.9678955078125</v>
+        <v>420.7699584960938</v>
       </c>
       <c r="FV2" t="n">
-        <v>304.5643310546875</v>
+        <v>414.4993591308594</v>
       </c>
       <c r="FW2" t="n">
-        <v>304.1678161621094</v>
+        <v>411.6146545410156</v>
       </c>
       <c r="FX2" t="n">
-        <v>304.0947570800781</v>
+        <v>411.1883544921875</v>
       </c>
       <c r="FY2" t="n">
-        <v>304.0419006347656</v>
+        <v>410.736083984375</v>
       </c>
       <c r="FZ2" t="n">
-        <v>303.7231140136719</v>
+        <v>407.7677612304688</v>
       </c>
       <c r="GA2" t="n">
-        <v>303.3927307128906</v>
+        <v>405.8128356933594</v>
       </c>
       <c r="GB2" t="n">
-        <v>303.2210693359375</v>
+        <v>400.5688781738281</v>
       </c>
       <c r="GC2" t="n">
-        <v>303.0105895996094</v>
+        <v>399.177001953125</v>
       </c>
       <c r="GD2" t="n">
-        <v>302.9169921875</v>
+        <v>398.2180786132812</v>
       </c>
       <c r="GE2" t="n">
-        <v>303.5520935058594</v>
+        <v>397.9580383300781</v>
       </c>
       <c r="GF2" t="n">
-        <v>304.2323608398438</v>
+        <v>396.5486145019531</v>
       </c>
       <c r="GG2" t="n">
-        <v>304.7815856933594</v>
+        <v>395.0847778320312</v>
       </c>
       <c r="GH2" t="n">
-        <v>304.9462890625</v>
+        <v>391.8885803222656</v>
       </c>
       <c r="GI2" t="n">
-        <v>304.3730773925781</v>
+        <v>387.9124450683594</v>
       </c>
       <c r="GJ2" t="n">
-        <v>303.9993286132812</v>
+        <v>385.1539306640625</v>
       </c>
       <c r="GK2" t="n">
-        <v>304.5389404296875</v>
+        <v>383.0208129882812</v>
       </c>
       <c r="GL2" t="n">
-        <v>305.1173095703125</v>
+        <v>378.3966674804688</v>
       </c>
       <c r="GM2" t="n">
-        <v>305.4420166015625</v>
+        <v>374.5858154296875</v>
       </c>
       <c r="GN2" t="n">
-        <v>305.7762451171875</v>
+        <v>372.2434692382812</v>
       </c>
       <c r="GO2" t="n">
-        <v>305.5998229980469</v>
+        <v>368.7845153808594</v>
       </c>
       <c r="GP2" t="n">
-        <v>305.3246154785156</v>
+        <v>363.8343505859375</v>
       </c>
       <c r="GQ2" t="n">
-        <v>305.1799926757812</v>
+        <v>357.5029296875</v>
       </c>
       <c r="GR2" t="n">
-        <v>304.9042053222656</v>
+        <v>354.1394653320312</v>
       </c>
       <c r="GS2" t="n">
-        <v>304.2003784179688</v>
+        <v>351.8456420898438</v>
       </c>
       <c r="GT2" t="n">
-        <v>303.7310485839844</v>
+        <v>349.6799926757812</v>
       </c>
       <c r="GU2" t="n">
-        <v>301.271484375</v>
+        <v>344.2893981933594</v>
       </c>
       <c r="GV2" t="n">
-        <v>298.5502014160156</v>
+        <v>341.6054992675781</v>
       </c>
       <c r="GW2" t="n">
-        <v>296.8242797851562</v>
+        <v>340.439697265625</v>
       </c>
       <c r="GX2" t="n">
-        <v>295.9019470214844</v>
+        <v>340.5128479003906</v>
       </c>
       <c r="GY2" t="n">
-        <v>295.1088256835938</v>
+        <v>339.8583374023438</v>
       </c>
       <c r="GZ2" t="n">
-        <v>294.2340393066406</v>
+        <v>337.9173278808594</v>
       </c>
       <c r="HA2" t="n">
-        <v>293.4984436035156</v>
+        <v>336.609375</v>
       </c>
       <c r="HB2" t="n">
-        <v>292.7150573730469</v>
+        <v>336.4351806640625</v>
       </c>
       <c r="HC2" t="n">
-        <v>291.5237121582031</v>
+        <v>336.32470703125</v>
       </c>
       <c r="HD2" t="n">
-        <v>290.7585754394531</v>
+        <v>336.2031860351562</v>
       </c>
       <c r="HE2" t="n">
-        <v>290.4541320800781</v>
+        <v>333.9331665039062</v>
       </c>
       <c r="HF2" t="n">
-        <v>289.6044616699219</v>
+        <v>331.92431640625</v>
       </c>
       <c r="HG2" t="n">
-        <v>288.7093505859375</v>
+        <v>332.9473266601562</v>
       </c>
       <c r="HH2" t="n">
-        <v>287.7066345214844</v>
+        <v>336.0523071289062</v>
       </c>
       <c r="HI2" t="n">
-        <v>286.5980224609375</v>
+        <v>338.4163208007812</v>
       </c>
       <c r="HJ2" t="n">
-        <v>285.2423706054688</v>
+        <v>344.3113708496094</v>
       </c>
       <c r="HK2" t="n">
-        <v>282.4788208007812</v>
+        <v>347.5325927734375</v>
       </c>
       <c r="HL2" t="n">
-        <v>277.2491760253906</v>
+        <v>354.4916381835938</v>
       </c>
       <c r="HM2" t="n">
-        <v>270.0350646972656</v>
+        <v>362.2429809570312</v>
       </c>
       <c r="HN2" t="n">
-        <v>257.9197387695312</v>
+        <v>371.9774780273438</v>
       </c>
       <c r="HO2" t="n">
-        <v>251.6463623046875</v>
+        <v>385.1165161132812</v>
       </c>
       <c r="HP2" t="n">
-        <v>248.6835021972656</v>
+        <v>395.5997924804688</v>
       </c>
       <c r="HQ2" t="n">
-        <v>249.5654602050781</v>
+        <v>399.1139221191406</v>
       </c>
       <c r="HR2" t="n">
-        <v>250.2110595703125</v>
+        <v>407.7605895996094</v>
       </c>
       <c r="HS2" t="n">
-        <v>247.3735809326172</v>
+        <v>412.4975280761719</v>
       </c>
       <c r="HT2" t="n">
-        <v>244.4372253417969</v>
+        <v>417.4639282226562</v>
       </c>
       <c r="HU2" t="n">
-        <v>239.0294494628906</v>
+        <v>420.6947326660156</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>421.7300720214844</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>422.2415466308594</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>422.7901611328125</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>423.0325927734375</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>423.6070251464844</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>423.6459045410156</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>423.630859375</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>423.5941772460938</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>422.2454833984375</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>419.2561645507812</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>416.7039184570312</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>412.8434753417969</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>407.4535522460938</v>
+      </c>
+      <c r="II2" t="n">
+        <v>403.7188110351562</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>397.1187744140625</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>384.8095092773438</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>380.4985961914062</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>372.1990661621094</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>363.5303344726562</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>356.4241027832031</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>353.7742614746094</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>350.4189758300781</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>348.5216674804688</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>347.91357421875</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>346.0284118652344</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>345.0274963378906</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>344.423583984375</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>344.170654296875</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>343.2674560546875</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>343.2225036621094</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>343.6201477050781</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>346.3245239257812</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>349.4039611816406</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>351.0548400878906</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>353.7138061523438</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>358.3529663085938</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>362.4241638183594</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>369.3476867675781</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>374.3290405273438</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>379.4808349609375</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>383.9612426757812</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>388.5958862304688</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>395.2543640136719</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>397.322021484375</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>399.238037109375</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>401.3804321289062</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>404.0886840820312</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>406.3298950195312</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>407.5771484375</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>409.4104614257812</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>411.4596557617188</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>412.466796875</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>412.7112121582031</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>412.905517578125</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>413.1652526855469</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>413.4320373535156</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>413.47265625</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>413.46044921875</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>412.8323059082031</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>410.9835815429688</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>408.8527221679688</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>408.524658203125</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>408.4631042480469</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>407.9651489257812</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>407.82373046875</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>407.7862243652344</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>407.7206115722656</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>407.6761169433594</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>407.6334228515625</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>407.5917053222656</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>407.6002502441406</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>407.753662109375</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>408.1896362304688</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>408.5977172851562</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>408.8257141113281</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>410.1050415039062</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>411.5018310546875</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>412.5953369140625</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>412.5936279296875</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>412.5903930664062</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>412.5943603515625</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>413.5093688964844</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>414.8738098144531</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>416.3393859863281</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>417.1730041503906</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>417.8932189941406</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>418.4085693359375</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>420.0964660644531</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>424.695556640625</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>426.9432067871094</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>429.6978759765625</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>434.3278503417969</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>439.6496887207031</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>444.6438293457031</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>447.1229858398438</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>449.8515014648438</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>450.89697265625</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>451.4871826171875</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>457.3040466308594</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>472.5990600585938</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>481.8571472167969</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>487.0523681640625</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>497.7461547851562</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>504.2803344726562</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>504.211669921875</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>494.5361328125</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>490.8056335449219</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>483.0780639648438</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>465.0887451171875</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>441.3734741210938</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>416.935791015625</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>393.5919799804688</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>368.1062316894531</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>357.0184631347656</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>354.8018798828125</v>
+      </c>
+      <c r="MG2" t="n">
+        <v>353.2005615234375</v>
+      </c>
+      <c r="MH2" t="n">
+        <v>356.8826293945312</v>
+      </c>
+      <c r="MI2" t="n">
+        <v>362.9465942382812</v>
+      </c>
+      <c r="MJ2" t="n">
+        <v>369.453369140625</v>
+      </c>
+      <c r="MK2" t="n">
+        <v>380.6853942871094</v>
+      </c>
+      <c r="ML2" t="n">
+        <v>385.3231201171875</v>
+      </c>
+      <c r="MM2" t="n">
+        <v>402.3273010253906</v>
+      </c>
+      <c r="MN2" t="n">
+        <v>407.5184326171875</v>
+      </c>
+      <c r="MO2" t="n">
+        <v>411.9686279296875</v>
+      </c>
+      <c r="MP2" t="n">
+        <v>414.1697692871094</v>
+      </c>
+      <c r="MQ2" t="n">
+        <v>413.3712158203125</v>
+      </c>
+      <c r="MR2" t="n">
+        <v>389.9118347167969</v>
+      </c>
+      <c r="MS2" t="n">
+        <v>388.6111450195312</v>
+      </c>
+      <c r="MT2" t="n">
+        <v>413.2901611328125</v>
+      </c>
+      <c r="MU2" t="n">
+        <v>366.66650390625</v>
+      </c>
+      <c r="MV2" t="n">
+        <v>355.2293701171875</v>
+      </c>
+      <c r="MW2" t="n">
+        <v>357.9743041992188</v>
+      </c>
+      <c r="MX2" t="n">
+        <v>359.5567016601562</v>
+      </c>
+      <c r="MY2" t="n">
+        <v>360.2790832519531</v>
+      </c>
+      <c r="MZ2" t="n">
+        <v>360.5863037109375</v>
+      </c>
+      <c r="NA2" t="n">
+        <v>359.691650390625</v>
+      </c>
+      <c r="NB2" t="n">
+        <v>354.86083984375</v>
+      </c>
+      <c r="NC2" t="n">
+        <v>346.3329467773438</v>
+      </c>
+      <c r="ND2" t="n">
+        <v>343.6047973632812</v>
+      </c>
+      <c r="NE2" t="n">
+        <v>346.5391845703125</v>
+      </c>
+      <c r="NF2" t="n">
+        <v>351.7901306152344</v>
+      </c>
+      <c r="NG2" t="n">
+        <v>358.5958557128906</v>
+      </c>
+      <c r="NH2" t="n">
+        <v>358.7261657714844</v>
+      </c>
+      <c r="NI2" t="n">
+        <v>356.0526733398438</v>
+      </c>
+      <c r="NJ2" t="n">
+        <v>354.7229614257812</v>
+      </c>
+      <c r="NK2" t="n">
+        <v>354.6306762695312</v>
+      </c>
+      <c r="NL2" t="n">
+        <v>354.9075012207031</v>
+      </c>
+      <c r="NM2" t="n">
+        <v>360.650634765625</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>390.9380493164062</v>
+        <v>359.8558349609375</v>
       </c>
       <c r="B3" t="n">
-        <v>385.9226989746094</v>
+        <v>355.8921508789062</v>
       </c>
       <c r="C3" t="n">
-        <v>382.260009765625</v>
+        <v>353.5804748535156</v>
       </c>
       <c r="D3" t="n">
-        <v>379.4662475585938</v>
+        <v>352.0566101074219</v>
       </c>
       <c r="E3" t="n">
-        <v>376.9609680175781</v>
+        <v>354.1329345703125</v>
       </c>
       <c r="F3" t="n">
-        <v>374.3043212890625</v>
+        <v>356.1692810058594</v>
       </c>
       <c r="G3" t="n">
-        <v>370.9873657226562</v>
+        <v>357.7749938964844</v>
       </c>
       <c r="H3" t="n">
-        <v>370.6547546386719</v>
+        <v>358.7536315917969</v>
       </c>
       <c r="I3" t="n">
-        <v>369.7059631347656</v>
+        <v>358.9786987304688</v>
       </c>
       <c r="J3" t="n">
-        <v>369.503173828125</v>
+        <v>358.2209777832031</v>
       </c>
       <c r="K3" t="n">
-        <v>371.7076110839844</v>
+        <v>355.3527221679688</v>
       </c>
       <c r="L3" t="n">
-        <v>372.0964050292969</v>
+        <v>351.0066833496094</v>
       </c>
       <c r="M3" t="n">
-        <v>370.9386596679688</v>
+        <v>344.6514282226562</v>
       </c>
       <c r="N3" t="n">
-        <v>368.9283142089844</v>
+        <v>339.10302734375</v>
       </c>
       <c r="O3" t="n">
-        <v>356.4728698730469</v>
+        <v>340.0350341796875</v>
       </c>
       <c r="P3" t="n">
-        <v>338.6172485351562</v>
+        <v>337.409423828125</v>
       </c>
       <c r="Q3" t="n">
-        <v>321.3019409179688</v>
+        <v>336.0237731933594</v>
       </c>
       <c r="R3" t="n">
-        <v>312.2692565917969</v>
+        <v>335.1439208984375</v>
       </c>
       <c r="S3" t="n">
-        <v>307.2860107421875</v>
+        <v>334.6589965820312</v>
       </c>
       <c r="T3" t="n">
-        <v>305.6078491210938</v>
+        <v>333.9384765625</v>
       </c>
       <c r="U3" t="n">
-        <v>304.6631469726562</v>
+        <v>333.5833129882812</v>
       </c>
       <c r="V3" t="n">
-        <v>305.5762939453125</v>
+        <v>336.1855163574219</v>
       </c>
       <c r="W3" t="n">
-        <v>306.6523742675781</v>
+        <v>337.6286926269531</v>
       </c>
       <c r="X3" t="n">
-        <v>306.7188110351562</v>
+        <v>338.8040466308594</v>
       </c>
       <c r="Y3" t="n">
-        <v>306.4060974121094</v>
+        <v>341.189208984375</v>
       </c>
       <c r="Z3" t="n">
-        <v>305.5345764160156</v>
+        <v>343.5663452148438</v>
       </c>
       <c r="AA3" t="n">
-        <v>304.5058288574219</v>
+        <v>345.1047668457031</v>
       </c>
       <c r="AB3" t="n">
-        <v>303.0234680175781</v>
+        <v>346.0325927734375</v>
       </c>
       <c r="AC3" t="n">
-        <v>301.8885498046875</v>
+        <v>346.4836730957031</v>
       </c>
       <c r="AD3" t="n">
-        <v>300.4312438964844</v>
+        <v>346.5183410644531</v>
       </c>
       <c r="AE3" t="n">
-        <v>297.7559814453125</v>
+        <v>346.1717224121094</v>
       </c>
       <c r="AF3" t="n">
-        <v>293.7878723144531</v>
+        <v>345.4484558105469</v>
       </c>
       <c r="AG3" t="n">
-        <v>289.4079895019531</v>
+        <v>344.9313659667969</v>
       </c>
       <c r="AH3" t="n">
-        <v>285.98291015625</v>
+        <v>342.9024353027344</v>
       </c>
       <c r="AI3" t="n">
-        <v>283.7369689941406</v>
+        <v>341.0195007324219</v>
       </c>
       <c r="AJ3" t="n">
-        <v>282.8760070800781</v>
+        <v>339.2294616699219</v>
       </c>
       <c r="AK3" t="n">
-        <v>283.3926696777344</v>
+        <v>338.8508911132812</v>
       </c>
       <c r="AL3" t="n">
-        <v>284.9979248046875</v>
+        <v>339.451904296875</v>
       </c>
       <c r="AM3" t="n">
-        <v>286.520263671875</v>
+        <v>340.5584411621094</v>
       </c>
       <c r="AN3" t="n">
-        <v>287.3094177246094</v>
+        <v>341.4848022460938</v>
       </c>
       <c r="AO3" t="n">
-        <v>288.1474609375</v>
+        <v>342.2537841796875</v>
       </c>
       <c r="AP3" t="n">
-        <v>289.1699829101562</v>
+        <v>343.0108032226562</v>
       </c>
       <c r="AQ3" t="n">
-        <v>289.4425048828125</v>
+        <v>343.5438842773438</v>
       </c>
       <c r="AR3" t="n">
-        <v>288.6941528320312</v>
+        <v>343.9124145507812</v>
       </c>
       <c r="AS3" t="n">
-        <v>287.6866760253906</v>
+        <v>344.2194519042969</v>
       </c>
       <c r="AT3" t="n">
-        <v>286.8131103515625</v>
+        <v>344.5158386230469</v>
       </c>
       <c r="AU3" t="n">
-        <v>286.3921813964844</v>
+        <v>344.8090515136719</v>
       </c>
       <c r="AV3" t="n">
-        <v>285.8226013183594</v>
+        <v>344.8763732910156</v>
       </c>
       <c r="AW3" t="n">
-        <v>284.3649597167969</v>
+        <v>344.9539489746094</v>
       </c>
       <c r="AX3" t="n">
-        <v>281.2366638183594</v>
+        <v>345.1045532226562</v>
       </c>
       <c r="AY3" t="n">
-        <v>277.8335876464844</v>
+        <v>345.4247131347656</v>
       </c>
       <c r="AZ3" t="n">
-        <v>275.3168640136719</v>
+        <v>345.9319152832031</v>
       </c>
       <c r="BA3" t="n">
-        <v>274.3901672363281</v>
+        <v>346.6475830078125</v>
       </c>
       <c r="BB3" t="n">
-        <v>274.6328735351562</v>
+        <v>347.2870788574219</v>
       </c>
       <c r="BC3" t="n">
-        <v>275.4911804199219</v>
+        <v>347.7780456542969</v>
       </c>
       <c r="BD3" t="n">
-        <v>278.0129699707031</v>
+        <v>347.6431579589844</v>
       </c>
       <c r="BE3" t="n">
-        <v>279.3838500976562</v>
+        <v>347.3998718261719</v>
       </c>
       <c r="BF3" t="n">
-        <v>279.7386169433594</v>
+        <v>347.1767883300781</v>
       </c>
       <c r="BG3" t="n">
-        <v>280.2754516601562</v>
+        <v>346.4256896972656</v>
       </c>
       <c r="BH3" t="n">
-        <v>280.1968688964844</v>
+        <v>345.1227722167969</v>
       </c>
       <c r="BI3" t="n">
-        <v>279.4300842285156</v>
+        <v>343.6059265136719</v>
       </c>
       <c r="BJ3" t="n">
-        <v>278.6279602050781</v>
+        <v>342.3252258300781</v>
       </c>
       <c r="BK3" t="n">
-        <v>277.9704895019531</v>
+        <v>341.8168334960938</v>
       </c>
       <c r="BL3" t="n">
-        <v>277.2945251464844</v>
+        <v>341.8088073730469</v>
       </c>
       <c r="BM3" t="n">
-        <v>276.8949279785156</v>
+        <v>342.0810852050781</v>
       </c>
       <c r="BN3" t="n">
-        <v>276.7853393554688</v>
+        <v>342.4395751953125</v>
       </c>
       <c r="BO3" t="n">
-        <v>276.3536682128906</v>
+        <v>342.6284790039062</v>
       </c>
       <c r="BP3" t="n">
-        <v>275.250244140625</v>
+        <v>342.4254150390625</v>
       </c>
       <c r="BQ3" t="n">
-        <v>273.0577697753906</v>
+        <v>342.3334045410156</v>
       </c>
       <c r="BR3" t="n">
-        <v>270.9405822753906</v>
+        <v>342.1189270019531</v>
       </c>
       <c r="BS3" t="n">
-        <v>269.8955078125</v>
+        <v>341.7077941894531</v>
       </c>
       <c r="BT3" t="n">
-        <v>269.8272094726562</v>
+        <v>341.4408874511719</v>
       </c>
       <c r="BU3" t="n">
-        <v>270.9636840820312</v>
+        <v>341.3709411621094</v>
       </c>
       <c r="BV3" t="n">
-        <v>271.8695068359375</v>
+        <v>341.3487854003906</v>
       </c>
       <c r="BW3" t="n">
-        <v>272.0172729492188</v>
+        <v>341.3460388183594</v>
       </c>
       <c r="BX3" t="n">
-        <v>272.0020141601562</v>
+        <v>341.3217468261719</v>
       </c>
       <c r="BY3" t="n">
-        <v>271.7611389160156</v>
+        <v>341.8255004882812</v>
       </c>
       <c r="BZ3" t="n">
-        <v>272.789794921875</v>
+        <v>342.7411193847656</v>
       </c>
       <c r="CA3" t="n">
-        <v>274.5652160644531</v>
+        <v>343.7157592773438</v>
       </c>
       <c r="CB3" t="n">
-        <v>275.535888671875</v>
+        <v>344.7067565917969</v>
       </c>
       <c r="CC3" t="n">
-        <v>275.7982482910156</v>
+        <v>345.6993713378906</v>
       </c>
       <c r="CD3" t="n">
-        <v>274.7876586914062</v>
+        <v>346.5706176757812</v>
       </c>
       <c r="CE3" t="n">
-        <v>273.488525390625</v>
+        <v>347.6899108886719</v>
       </c>
       <c r="CF3" t="n">
-        <v>272.2521057128906</v>
+        <v>347.9703979492188</v>
       </c>
       <c r="CG3" t="n">
-        <v>271.6123046875</v>
+        <v>348.4219970703125</v>
       </c>
       <c r="CH3" t="n">
-        <v>271.2481079101562</v>
+        <v>348.8710327148438</v>
       </c>
       <c r="CI3" t="n">
-        <v>271.102294921875</v>
+        <v>347.659912109375</v>
       </c>
       <c r="CJ3" t="n">
-        <v>270.6344909667969</v>
+        <v>346.7472229003906</v>
       </c>
       <c r="CK3" t="n">
-        <v>270.0270080566406</v>
+        <v>346.0089111328125</v>
       </c>
       <c r="CL3" t="n">
-        <v>270.0084533691406</v>
+        <v>345.3086853027344</v>
       </c>
       <c r="CM3" t="n">
-        <v>270.1120910644531</v>
+        <v>344.768310546875</v>
       </c>
       <c r="CN3" t="n">
-        <v>270.5809020996094</v>
+        <v>343.7444458007812</v>
       </c>
       <c r="CO3" t="n">
-        <v>271.1886901855469</v>
+        <v>343.3328552246094</v>
       </c>
       <c r="CP3" t="n">
-        <v>271.6542053222656</v>
+        <v>342.9163818359375</v>
       </c>
       <c r="CQ3" t="n">
-        <v>272.0120544433594</v>
+        <v>342.5717468261719</v>
       </c>
       <c r="CR3" t="n">
-        <v>272.2527160644531</v>
+        <v>342.2501220703125</v>
       </c>
       <c r="CS3" t="n">
-        <v>272.2646789550781</v>
+        <v>341.9186096191406</v>
       </c>
       <c r="CT3" t="n">
-        <v>271.9886474609375</v>
+        <v>341.8992614746094</v>
       </c>
       <c r="CU3" t="n">
-        <v>271.7509155273438</v>
+        <v>341.9258422851562</v>
       </c>
       <c r="CV3" t="n">
-        <v>272.8429260253906</v>
+        <v>341.955322265625</v>
       </c>
       <c r="CW3" t="n">
-        <v>274.0697021484375</v>
+        <v>342.0140075683594</v>
       </c>
       <c r="CX3" t="n">
-        <v>273.8788757324219</v>
+        <v>341.9988403320312</v>
       </c>
       <c r="CY3" t="n">
-        <v>270.9928894042969</v>
+        <v>341.8880920410156</v>
       </c>
       <c r="CZ3" t="n">
-        <v>271.1823120117188</v>
+        <v>341.3907470703125</v>
       </c>
       <c r="DA3" t="n">
-        <v>272.0838012695312</v>
+        <v>341.3567504882812</v>
       </c>
       <c r="DB3" t="n">
-        <v>273.1246948242188</v>
+        <v>341.4828491210938</v>
       </c>
       <c r="DC3" t="n">
-        <v>273.4407043457031</v>
+        <v>341.4524536132812</v>
       </c>
       <c r="DD3" t="n">
-        <v>273.8827209472656</v>
+        <v>341.4706115722656</v>
       </c>
       <c r="DE3" t="n">
-        <v>273.7588806152344</v>
+        <v>341.3859558105469</v>
       </c>
       <c r="DF3" t="n">
-        <v>275.2690124511719</v>
+        <v>341.3389892578125</v>
       </c>
       <c r="DG3" t="n">
-        <v>274.7705078125</v>
+        <v>341.1820373535156</v>
       </c>
       <c r="DH3" t="n">
-        <v>275.4073486328125</v>
+        <v>340.947998046875</v>
       </c>
       <c r="DI3" t="n">
-        <v>277.3063354492188</v>
+        <v>340.940673828125</v>
       </c>
       <c r="DJ3" t="n">
-        <v>278.0092468261719</v>
+        <v>341.1686706542969</v>
       </c>
       <c r="DK3" t="n">
-        <v>276.6623840332031</v>
+        <v>341.4222412109375</v>
       </c>
       <c r="DL3" t="n">
-        <v>275.5182189941406</v>
+        <v>341.4857482910156</v>
       </c>
       <c r="DM3" t="n">
-        <v>274.1734008789062</v>
+        <v>341.5608825683594</v>
       </c>
       <c r="DN3" t="n">
-        <v>273.5724182128906</v>
+        <v>341.6905517578125</v>
       </c>
       <c r="DO3" t="n">
-        <v>274.9854431152344</v>
+        <v>341.8766479492188</v>
       </c>
       <c r="DP3" t="n">
-        <v>275.8852233886719</v>
+        <v>342.0519714355469</v>
       </c>
       <c r="DQ3" t="n">
-        <v>276.2018432617188</v>
+        <v>342.1705322265625</v>
       </c>
       <c r="DR3" t="n">
-        <v>275.4378967285156</v>
+        <v>342.1153259277344</v>
       </c>
       <c r="DS3" t="n">
-        <v>272.6086120605469</v>
+        <v>342.0193481445312</v>
       </c>
       <c r="DT3" t="n">
-        <v>271.6087951660156</v>
+        <v>341.3101501464844</v>
       </c>
       <c r="DU3" t="n">
-        <v>269.5873413085938</v>
+        <v>340.5001220703125</v>
       </c>
       <c r="DV3" t="n">
-        <v>269.7482299804688</v>
+        <v>340.8548583984375</v>
       </c>
       <c r="DW3" t="n">
-        <v>269.8076171875</v>
+        <v>342.8491821289062</v>
       </c>
       <c r="DX3" t="n">
-        <v>269.4015502929688</v>
+        <v>343.2408752441406</v>
       </c>
       <c r="DY3" t="n">
-        <v>268.1983032226562</v>
+        <v>343.4463806152344</v>
       </c>
       <c r="DZ3" t="n">
-        <v>267.5109558105469</v>
+        <v>344.5433349609375</v>
       </c>
       <c r="EA3" t="n">
-        <v>267.4517822265625</v>
+        <v>345.2684020996094</v>
       </c>
       <c r="EB3" t="n">
-        <v>267.5827941894531</v>
+        <v>347.2944030761719</v>
       </c>
       <c r="EC3" t="n">
-        <v>267.6152038574219</v>
+        <v>348.6030578613281</v>
       </c>
       <c r="ED3" t="n">
-        <v>268.001220703125</v>
+        <v>349.9727783203125</v>
       </c>
       <c r="EE3" t="n">
-        <v>268.0537719726562</v>
+        <v>351.6024169921875</v>
       </c>
       <c r="EF3" t="n">
-        <v>268.1525573730469</v>
+        <v>354.69091796875</v>
       </c>
       <c r="EG3" t="n">
-        <v>269.5226135253906</v>
+        <v>354.6282653808594</v>
       </c>
       <c r="EH3" t="n">
-        <v>271.0523376464844</v>
+        <v>353.8012084960938</v>
       </c>
       <c r="EI3" t="n">
-        <v>271.9644165039062</v>
+        <v>352.5923767089844</v>
       </c>
       <c r="EJ3" t="n">
-        <v>274.09326171875</v>
+        <v>351.8659973144531</v>
       </c>
       <c r="EK3" t="n">
-        <v>274.5960388183594</v>
+        <v>349.04296875</v>
       </c>
       <c r="EL3" t="n">
-        <v>275.12841796875</v>
+        <v>347.2335510253906</v>
       </c>
       <c r="EM3" t="n">
-        <v>278.5368347167969</v>
+        <v>344.6941528320312</v>
       </c>
       <c r="EN3" t="n">
-        <v>280.6422119140625</v>
+        <v>343.3473205566406</v>
       </c>
       <c r="EO3" t="n">
-        <v>280.5552673339844</v>
+        <v>342.12353515625</v>
       </c>
       <c r="EP3" t="n">
-        <v>279.55517578125</v>
+        <v>342.5661926269531</v>
       </c>
       <c r="EQ3" t="n">
-        <v>277.1397399902344</v>
+        <v>346.3743591308594</v>
       </c>
       <c r="ER3" t="n">
-        <v>276.0573425292969</v>
+        <v>347.291259765625</v>
       </c>
       <c r="ES3" t="n">
-        <v>275.2116088867188</v>
+        <v>349.8831176757812</v>
       </c>
       <c r="ET3" t="n">
-        <v>274.5885620117188</v>
+        <v>351.5652770996094</v>
       </c>
       <c r="EU3" t="n">
-        <v>274.0609436035156</v>
+        <v>351.358154296875</v>
       </c>
       <c r="EV3" t="n">
-        <v>273.4322509765625</v>
+        <v>351.7779541015625</v>
       </c>
       <c r="EW3" t="n">
-        <v>273.5321655273438</v>
+        <v>349.7992858886719</v>
       </c>
       <c r="EX3" t="n">
-        <v>275.0782470703125</v>
+        <v>348.6272888183594</v>
       </c>
       <c r="EY3" t="n">
-        <v>275.6560974121094</v>
+        <v>347.8289794921875</v>
       </c>
       <c r="EZ3" t="n">
-        <v>275.8547058105469</v>
+        <v>346.4720458984375</v>
       </c>
       <c r="FA3" t="n">
-        <v>279.8381958007812</v>
+        <v>345.0862121582031</v>
       </c>
       <c r="FB3" t="n">
-        <v>280.1831665039062</v>
+        <v>346.3045349121094</v>
       </c>
       <c r="FC3" t="n">
-        <v>278.2607421875</v>
+        <v>346.8609008789062</v>
       </c>
       <c r="FD3" t="n">
-        <v>276.3474426269531</v>
+        <v>346.0054931640625</v>
       </c>
       <c r="FE3" t="n">
-        <v>275.3691711425781</v>
+        <v>345.8388977050781</v>
       </c>
       <c r="FF3" t="n">
-        <v>274.6390686035156</v>
+        <v>346.0437316894531</v>
       </c>
       <c r="FG3" t="n">
-        <v>273.85302734375</v>
+        <v>348.49365234375</v>
       </c>
       <c r="FH3" t="n">
-        <v>273.9364318847656</v>
+        <v>349.2618408203125</v>
       </c>
       <c r="FI3" t="n">
-        <v>273.8610534667969</v>
+        <v>350.7259826660156</v>
       </c>
       <c r="FJ3" t="n">
-        <v>273.6794738769531</v>
+        <v>352.1709899902344</v>
       </c>
       <c r="FK3" t="n">
-        <v>274.2384643554688</v>
+        <v>353.1348876953125</v>
       </c>
       <c r="FL3" t="n">
-        <v>276.0064392089844</v>
+        <v>352.5126037597656</v>
       </c>
       <c r="FM3" t="n">
-        <v>276.5789184570312</v>
+        <v>349.585205078125</v>
       </c>
       <c r="FN3" t="n">
-        <v>276.6828918457031</v>
+        <v>348.2218017578125</v>
       </c>
       <c r="FO3" t="n">
-        <v>279.8599243164062</v>
+        <v>347.0894165039062</v>
       </c>
       <c r="FP3" t="n">
-        <v>283.1946716308594</v>
+        <v>345.7333984375</v>
       </c>
       <c r="FQ3" t="n">
-        <v>286.0055847167969</v>
+        <v>345.7833251953125</v>
       </c>
       <c r="FR3" t="n">
-        <v>290.4444274902344</v>
+        <v>346.4202575683594</v>
       </c>
       <c r="FS3" t="n">
-        <v>288.2332763671875</v>
+        <v>346.3884582519531</v>
       </c>
       <c r="FT3" t="n">
-        <v>282.2316589355469</v>
+        <v>345.9644470214844</v>
       </c>
       <c r="FU3" t="n">
-        <v>275.7022399902344</v>
+        <v>345.8477172851562</v>
       </c>
       <c r="FV3" t="n">
-        <v>274.3132019042969</v>
+        <v>348.0877075195312</v>
       </c>
       <c r="FW3" t="n">
-        <v>274.3728942871094</v>
+        <v>351.3453369140625</v>
       </c>
       <c r="FX3" t="n">
-        <v>274.5997009277344</v>
+        <v>351.9677429199219</v>
       </c>
       <c r="FY3" t="n">
-        <v>275.2210998535156</v>
+        <v>352.2664184570312</v>
       </c>
       <c r="FZ3" t="n">
-        <v>277.2420959472656</v>
+        <v>351.6863403320312</v>
       </c>
       <c r="GA3" t="n">
-        <v>276.9969177246094</v>
+        <v>351.2782287597656</v>
       </c>
       <c r="GB3" t="n">
-        <v>276.3974914550781</v>
+        <v>349.7450561523438</v>
       </c>
       <c r="GC3" t="n">
-        <v>276.2132873535156</v>
+        <v>348.6225280761719</v>
       </c>
       <c r="GD3" t="n">
-        <v>276.543212890625</v>
+        <v>346.6455688476562</v>
       </c>
       <c r="GE3" t="n">
-        <v>278.8009948730469</v>
+        <v>346.3501281738281</v>
       </c>
       <c r="GF3" t="n">
-        <v>279.423095703125</v>
+        <v>345.8167419433594</v>
       </c>
       <c r="GG3" t="n">
-        <v>279.7080688476562</v>
+        <v>345.6189575195312</v>
       </c>
       <c r="GH3" t="n">
-        <v>280.2825317382812</v>
+        <v>345.3401794433594</v>
       </c>
       <c r="GI3" t="n">
-        <v>278.9710998535156</v>
+        <v>345.220703125</v>
       </c>
       <c r="GJ3" t="n">
-        <v>276.2776794433594</v>
+        <v>345.1932678222656</v>
       </c>
       <c r="GK3" t="n">
-        <v>278.3164672851562</v>
+        <v>345.089111328125</v>
       </c>
       <c r="GL3" t="n">
-        <v>280.070556640625</v>
+        <v>344.5084838867188</v>
       </c>
       <c r="GM3" t="n">
-        <v>279.6566162109375</v>
+        <v>344.3927307128906</v>
       </c>
       <c r="GN3" t="n">
-        <v>278.6022033691406</v>
+        <v>344.4678344726562</v>
       </c>
       <c r="GO3" t="n">
-        <v>277.7479248046875</v>
+        <v>345.0318908691406</v>
       </c>
       <c r="GP3" t="n">
-        <v>277.3450622558594</v>
+        <v>345.2879638671875</v>
       </c>
       <c r="GQ3" t="n">
-        <v>277.8075256347656</v>
+        <v>345.8106994628906</v>
       </c>
       <c r="GR3" t="n">
-        <v>278.9077758789062</v>
+        <v>345.9893493652344</v>
       </c>
       <c r="GS3" t="n">
-        <v>281.1032409667969</v>
+        <v>345.3382263183594</v>
       </c>
       <c r="GT3" t="n">
-        <v>281.6198120117188</v>
+        <v>344.5621337890625</v>
       </c>
       <c r="GU3" t="n">
-        <v>282.5116882324219</v>
+        <v>342.8559875488281</v>
       </c>
       <c r="GV3" t="n">
-        <v>284.594482421875</v>
+        <v>341.5613708496094</v>
       </c>
       <c r="GW3" t="n">
-        <v>286.8905639648438</v>
+        <v>341.4053649902344</v>
       </c>
       <c r="GX3" t="n">
-        <v>288.1431579589844</v>
+        <v>340.9283142089844</v>
       </c>
       <c r="GY3" t="n">
-        <v>288.9710998535156</v>
+        <v>340.3355102539062</v>
       </c>
       <c r="GZ3" t="n">
-        <v>290.5511169433594</v>
+        <v>340.2133178710938</v>
       </c>
       <c r="HA3" t="n">
-        <v>292.1781616210938</v>
+        <v>340.1202087402344</v>
       </c>
       <c r="HB3" t="n">
-        <v>294.6476745605469</v>
+        <v>339.836669921875</v>
       </c>
       <c r="HC3" t="n">
-        <v>298.8495483398438</v>
+        <v>339.6184997558594</v>
       </c>
       <c r="HD3" t="n">
-        <v>302.7637634277344</v>
+        <v>339.4032592773438</v>
       </c>
       <c r="HE3" t="n">
-        <v>304.445556640625</v>
+        <v>338.7945251464844</v>
       </c>
       <c r="HF3" t="n">
-        <v>308.5105895996094</v>
+        <v>338.5470275878906</v>
       </c>
       <c r="HG3" t="n">
-        <v>311.027099609375</v>
+        <v>338.1322326660156</v>
       </c>
       <c r="HH3" t="n">
-        <v>312.7355041503906</v>
+        <v>337.5146179199219</v>
       </c>
       <c r="HI3" t="n">
-        <v>314.4742126464844</v>
+        <v>337.2171630859375</v>
       </c>
       <c r="HJ3" t="n">
-        <v>318.1083068847656</v>
+        <v>338.2072448730469</v>
       </c>
       <c r="HK3" t="n">
-        <v>324.6686401367188</v>
+        <v>339.5856628417969</v>
       </c>
       <c r="HL3" t="n">
-        <v>331.0552978515625</v>
+        <v>342.3156433105469</v>
       </c>
       <c r="HM3" t="n">
-        <v>336.4208374023438</v>
+        <v>343.9473266601562</v>
       </c>
       <c r="HN3" t="n">
-        <v>342.7078552246094</v>
+        <v>345.68212890625</v>
       </c>
       <c r="HO3" t="n">
-        <v>345.8152160644531</v>
+        <v>346.2527160644531</v>
       </c>
       <c r="HP3" t="n">
-        <v>348.3705444335938</v>
+        <v>345.4119873046875</v>
       </c>
       <c r="HQ3" t="n">
-        <v>352.9047546386719</v>
+        <v>345.0603332519531</v>
       </c>
       <c r="HR3" t="n">
-        <v>360.8907775878906</v>
+        <v>343.6668701171875</v>
       </c>
       <c r="HS3" t="n">
-        <v>373.3595581054688</v>
+        <v>343.4336853027344</v>
       </c>
       <c r="HT3" t="n">
-        <v>384.6859130859375</v>
+        <v>343.7319641113281</v>
       </c>
       <c r="HU3" t="n">
-        <v>395.6552734375</v>
+        <v>344.0963134765625</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>344.1528930664062</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>344.1181030273438</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>344.0737915039062</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>344.0723876953125</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>344.0965270996094</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>344.2982788085938</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>344.4383239746094</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>344.9072265625</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>345.8799743652344</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>347.412841796875</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>348.1309204101562</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>347.509521484375</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>347.1072998046875</v>
+      </c>
+      <c r="II3" t="n">
+        <v>346.8003540039062</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>346.6292114257812</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>345.9004516601562</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>346.2200927734375</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>346.9036865234375</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>347.5494384765625</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>347.3326721191406</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>347.1636657714844</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>345.3694152832031</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>343.6871643066406</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>343.0314025878906</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>342.8286437988281</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>342.9139709472656</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>343.2137756347656</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>343.3273315429688</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>343.6492919921875</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>343.8074340820312</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>344.5607604980469</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>345.8903198242188</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>346.4023742675781</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>347.8195190429688</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>347.5217895507812</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>347.4930725097656</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>346.6669311523438</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>346.1632995605469</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>345.7592468261719</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>345.6064453125</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>345.5086059570312</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>345.2110900878906</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>345.499755859375</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>345.5561828613281</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>345.2742614746094</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>345.1015625</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>345.2951354980469</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>345.4807434082031</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>345.5155334472656</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>345.6802978515625</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>345.7980346679688</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>345.8955078125</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>345.9296569824219</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>346.0325622558594</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>346.1138916015625</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>346.4331359863281</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>346.6463928222656</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>346.8709411621094</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>347.028564453125</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>346.9933166503906</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>347.4826354980469</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>346.5862426757812</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>345.1771850585938</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>343.9349060058594</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>343.5508422851562</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>343.4840698242188</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>343.851318359375</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>344.2296447753906</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>344.5047607421875</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>344.7254638671875</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>344.8621826171875</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>344.8370666503906</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>344.9482116699219</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>344.9371948242188</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>344.7472839355469</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>344.416015625</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>344.6883239746094</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>345.1414794921875</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>345.5218200683594</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>345.7142944335938</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>345.8525390625</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>346.0071716308594</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>345.982421875</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>346.5493774414062</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>347.4988708496094</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>348.4780578613281</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>349.4286193847656</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>350.2817687988281</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>349.5750427246094</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>351.3089904785156</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>353.943359375</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>356.0880126953125</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>356.5623779296875</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>353.9833679199219</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>353.300048828125</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>355.06591796875</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>354.3550415039062</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>354.1902160644531</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>354.5136108398438</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>359.2728881835938</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>362.6203308105469</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>365.6996154785156</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>367.2383422851562</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>363.6759643554688</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>354.9391479492188</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>354.5253601074219</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>357.4491882324219</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>361.4789428710938</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>367.2143859863281</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>376.0322265625</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>386.0396118164062</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>391.3194580078125</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>378.6980590820312</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>360.4124145507812</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>357.6056518554688</v>
+      </c>
+      <c r="MG3" t="n">
+        <v>364.2416381835938</v>
+      </c>
+      <c r="MH3" t="n">
+        <v>377.02734375</v>
+      </c>
+      <c r="MI3" t="n">
+        <v>389.89990234375</v>
+      </c>
+      <c r="MJ3" t="n">
+        <v>427.1506042480469</v>
+      </c>
+      <c r="MK3" t="n">
+        <v>467.5696411132812</v>
+      </c>
+      <c r="ML3" t="n">
+        <v>486.4217529296875</v>
+      </c>
+      <c r="MM3" t="n">
+        <v>515.2838745117188</v>
+      </c>
+      <c r="MN3" t="n">
+        <v>509.9391784667969</v>
+      </c>
+      <c r="MO3" t="n">
+        <v>507.7694396972656</v>
+      </c>
+      <c r="MP3" t="n">
+        <v>509.0979309082031</v>
+      </c>
+      <c r="MQ3" t="n">
+        <v>513.4534301757812</v>
+      </c>
+      <c r="MR3" t="n">
+        <v>533.5802001953125</v>
+      </c>
+      <c r="MS3" t="n">
+        <v>547.9739990234375</v>
+      </c>
+      <c r="MT3" t="n">
+        <v>584.4615478515625</v>
+      </c>
+      <c r="MU3" t="n">
+        <v>577.5603637695312</v>
+      </c>
+      <c r="MV3" t="n">
+        <v>591.5453491210938</v>
+      </c>
+      <c r="MW3" t="n">
+        <v>571.667236328125</v>
+      </c>
+      <c r="MX3" t="n">
+        <v>575.1862182617188</v>
+      </c>
+      <c r="MY3" t="n">
+        <v>579.3591918945312</v>
+      </c>
+      <c r="MZ3" t="n">
+        <v>582.552001953125</v>
+      </c>
+      <c r="NA3" t="n">
+        <v>591.5624389648438</v>
+      </c>
+      <c r="NB3" t="n">
+        <v>593.1471557617188</v>
+      </c>
+      <c r="NC3" t="n">
+        <v>590.4310913085938</v>
+      </c>
+      <c r="ND3" t="n">
+        <v>590.534912109375</v>
+      </c>
+      <c r="NE3" t="n">
+        <v>595.6588134765625</v>
+      </c>
+      <c r="NF3" t="n">
+        <v>606.1257934570312</v>
+      </c>
+      <c r="NG3" t="n">
+        <v>616.531005859375</v>
+      </c>
+      <c r="NH3" t="n">
+        <v>616.9649047851562</v>
+      </c>
+      <c r="NI3" t="n">
+        <v>611.0579833984375</v>
+      </c>
+      <c r="NJ3" t="n">
+        <v>606.640625</v>
+      </c>
+      <c r="NK3" t="n">
+        <v>606.3259887695312</v>
+      </c>
+      <c r="NL3" t="n">
+        <v>606.8905639648438</v>
+      </c>
+      <c r="NM3" t="n">
+        <v>614.8212280273438</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>868.5413208007812</v>
+        <v>1030.408447265625</v>
       </c>
       <c r="B4" t="n">
-        <v>888.1945190429688</v>
+        <v>1034.825073242188</v>
       </c>
       <c r="C4" t="n">
-        <v>902.2548828125</v>
+        <v>1037.362915039062</v>
       </c>
       <c r="D4" t="n">
-        <v>916.0995483398438</v>
+        <v>1040.755737304688</v>
       </c>
       <c r="E4" t="n">
-        <v>932.2364501953125</v>
+        <v>1044.321899414062</v>
       </c>
       <c r="F4" t="n">
-        <v>954.6558837890625</v>
+        <v>1048.232543945312</v>
       </c>
       <c r="G4" t="n">
-        <v>982.1209716796875</v>
+        <v>1053.277709960938</v>
       </c>
       <c r="H4" t="n">
-        <v>1013.634155273438</v>
+        <v>1059.807861328125</v>
       </c>
       <c r="I4" t="n">
-        <v>1046.471435546875</v>
+        <v>1069.773681640625</v>
       </c>
       <c r="J4" t="n">
-        <v>1079.5615234375</v>
+        <v>1084.762939453125</v>
       </c>
       <c r="K4" t="n">
-        <v>1112.013305664062</v>
+        <v>1104.05810546875</v>
       </c>
       <c r="L4" t="n">
-        <v>1148.3974609375</v>
+        <v>1120.0625</v>
       </c>
       <c r="M4" t="n">
-        <v>1186.546508789062</v>
+        <v>1166.251831054688</v>
       </c>
       <c r="N4" t="n">
-        <v>1223.685913085938</v>
+        <v>1181.597045898438</v>
       </c>
       <c r="O4" t="n">
-        <v>1280.036865234375</v>
+        <v>1210.432739257812</v>
       </c>
       <c r="P4" t="n">
-        <v>1329.381103515625</v>
+        <v>1220.801391601562</v>
       </c>
       <c r="Q4" t="n">
-        <v>1371.781494140625</v>
+        <v>1226.984741210938</v>
       </c>
       <c r="R4" t="n">
-        <v>1414.382080078125</v>
+        <v>1234.075561523438</v>
       </c>
       <c r="S4" t="n">
-        <v>1455.121704101562</v>
+        <v>1240.896728515625</v>
       </c>
       <c r="T4" t="n">
-        <v>1490.8642578125</v>
+        <v>1254.063232421875</v>
       </c>
       <c r="U4" t="n">
-        <v>1525.29638671875</v>
+        <v>1267.449096679688</v>
       </c>
       <c r="V4" t="n">
-        <v>1560.718505859375</v>
+        <v>1276.104614257812</v>
       </c>
       <c r="W4" t="n">
-        <v>1598.296630859375</v>
+        <v>1284.07275390625</v>
       </c>
       <c r="X4" t="n">
-        <v>1638.814331054688</v>
+        <v>1291.098999023438</v>
       </c>
       <c r="Y4" t="n">
-        <v>1684.318725585938</v>
+        <v>1293.17822265625</v>
       </c>
       <c r="Z4" t="n">
-        <v>1730.628784179688</v>
+        <v>1296.198608398438</v>
       </c>
       <c r="AA4" t="n">
-        <v>1780.722045898438</v>
+        <v>1298.381713867188</v>
       </c>
       <c r="AB4" t="n">
-        <v>1833.25341796875</v>
+        <v>1303.130615234375</v>
       </c>
       <c r="AC4" t="n">
-        <v>1885.607666015625</v>
+        <v>1317.328125</v>
       </c>
       <c r="AD4" t="n">
-        <v>1930.567016601562</v>
+        <v>1334.341552734375</v>
       </c>
       <c r="AE4" t="n">
-        <v>1969.585693359375</v>
+        <v>1345.368286132812</v>
       </c>
       <c r="AF4" t="n">
-        <v>2003.925903320312</v>
+        <v>1356.922729492188</v>
       </c>
       <c r="AG4" t="n">
-        <v>2041.458984375</v>
+        <v>1363.691772460938</v>
       </c>
       <c r="AH4" t="n">
-        <v>2076.75244140625</v>
+        <v>1372.315307617188</v>
       </c>
       <c r="AI4" t="n">
-        <v>2109.448974609375</v>
+        <v>1378.352905273438</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2137.58935546875</v>
+        <v>1381.855224609375</v>
       </c>
       <c r="AK4" t="n">
-        <v>2165.812744140625</v>
+        <v>1384.068481445312</v>
       </c>
       <c r="AL4" t="n">
-        <v>2199.206787109375</v>
+        <v>1385.540893554688</v>
       </c>
       <c r="AM4" t="n">
-        <v>2236.67236328125</v>
+        <v>1385.261474609375</v>
       </c>
       <c r="AN4" t="n">
-        <v>2278.802734375</v>
+        <v>1382.971313476562</v>
       </c>
       <c r="AO4" t="n">
-        <v>2344.753662109375</v>
+        <v>1378.203369140625</v>
       </c>
       <c r="AP4" t="n">
-        <v>2377.506591796875</v>
+        <v>1370.784057617188</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2419.54248046875</v>
+        <v>1361.877319335938</v>
       </c>
       <c r="AR4" t="n">
-        <v>2475.57373046875</v>
+        <v>1355.465209960938</v>
       </c>
       <c r="AS4" t="n">
-        <v>2527.087646484375</v>
+        <v>1349.525268554688</v>
       </c>
       <c r="AT4" t="n">
-        <v>2568.10400390625</v>
+        <v>1342.21826171875</v>
       </c>
       <c r="AU4" t="n">
-        <v>2597.741455078125</v>
+        <v>1335.982666015625</v>
       </c>
       <c r="AV4" t="n">
-        <v>2622.048583984375</v>
+        <v>1329.528442382812</v>
       </c>
       <c r="AW4" t="n">
-        <v>2650.543701171875</v>
+        <v>1324.542846679688</v>
       </c>
       <c r="AX4" t="n">
-        <v>2698.71044921875</v>
+        <v>1318.8466796875</v>
       </c>
       <c r="AY4" t="n">
-        <v>2750.0869140625</v>
+        <v>1311.919189453125</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2789.0361328125</v>
+        <v>1302.203247070312</v>
       </c>
       <c r="BA4" t="n">
-        <v>2811.857421875</v>
+        <v>1289.199584960938</v>
       </c>
       <c r="BB4" t="n">
-        <v>2828.876220703125</v>
+        <v>1279.014404296875</v>
       </c>
       <c r="BC4" t="n">
-        <v>2839.078369140625</v>
+        <v>1268.429443359375</v>
       </c>
       <c r="BD4" t="n">
-        <v>2859.744384765625</v>
+        <v>1261.889038085938</v>
       </c>
       <c r="BE4" t="n">
-        <v>2885.451904296875</v>
+        <v>1258.429077148438</v>
       </c>
       <c r="BF4" t="n">
-        <v>2921.280517578125</v>
+        <v>1256.66650390625</v>
       </c>
       <c r="BG4" t="n">
-        <v>2952.7646484375</v>
+        <v>1255.7841796875</v>
       </c>
       <c r="BH4" t="n">
-        <v>2988.065185546875</v>
+        <v>1255.044799804688</v>
       </c>
       <c r="BI4" t="n">
-        <v>3041.168701171875</v>
+        <v>1253.160888671875</v>
       </c>
       <c r="BJ4" t="n">
-        <v>3095.551513671875</v>
+        <v>1247.471313476562</v>
       </c>
       <c r="BK4" t="n">
-        <v>3142.950439453125</v>
+        <v>1239.513793945312</v>
       </c>
       <c r="BL4" t="n">
-        <v>3173.03271484375</v>
+        <v>1230.1044921875</v>
       </c>
       <c r="BM4" t="n">
-        <v>3195.19189453125</v>
+        <v>1220.490600585938</v>
       </c>
       <c r="BN4" t="n">
-        <v>3209.222412109375</v>
+        <v>1212.81201171875</v>
       </c>
       <c r="BO4" t="n">
-        <v>3217.851806640625</v>
+        <v>1203.17822265625</v>
       </c>
       <c r="BP4" t="n">
-        <v>3226.985595703125</v>
+        <v>1201.33642578125</v>
       </c>
       <c r="BQ4" t="n">
-        <v>3242.833251953125</v>
+        <v>1199.904174804688</v>
       </c>
       <c r="BR4" t="n">
-        <v>3263.671142578125</v>
+        <v>1198.318359375</v>
       </c>
       <c r="BS4" t="n">
-        <v>3278.196044921875</v>
+        <v>1196.918701171875</v>
       </c>
       <c r="BT4" t="n">
-        <v>3287.8681640625</v>
+        <v>1194.804077148438</v>
       </c>
       <c r="BU4" t="n">
-        <v>3300.3916015625</v>
+        <v>1191.546630859375</v>
       </c>
       <c r="BV4" t="n">
-        <v>3315.6083984375</v>
+        <v>1187.390625</v>
       </c>
       <c r="BW4" t="n">
-        <v>3334.3408203125</v>
+        <v>1183.652099609375</v>
       </c>
       <c r="BX4" t="n">
-        <v>3362.37890625</v>
+        <v>1178.70751953125</v>
       </c>
       <c r="BY4" t="n">
-        <v>3391.92041015625</v>
+        <v>1165.981201171875</v>
       </c>
       <c r="BZ4" t="n">
-        <v>3408.533203125</v>
+        <v>1157.957397460938</v>
       </c>
       <c r="CA4" t="n">
-        <v>3417.445068359375</v>
+        <v>1152.320678710938</v>
       </c>
       <c r="CB4" t="n">
-        <v>3455.830322265625</v>
+        <v>1148.038452148438</v>
       </c>
       <c r="CC4" t="n">
-        <v>3492.035400390625</v>
+        <v>1144.356079101562</v>
       </c>
       <c r="CD4" t="n">
-        <v>3531.790771484375</v>
+        <v>1140.808227539062</v>
       </c>
       <c r="CE4" t="n">
-        <v>3562.56005859375</v>
+        <v>1136.282348632812</v>
       </c>
       <c r="CF4" t="n">
-        <v>3589.373291015625</v>
+        <v>1134.913940429688</v>
       </c>
       <c r="CG4" t="n">
-        <v>3603.08056640625</v>
+        <v>1133.439575195312</v>
       </c>
       <c r="CH4" t="n">
-        <v>3613.92431640625</v>
+        <v>1131.287963867188</v>
       </c>
       <c r="CI4" t="n">
-        <v>3623.700927734375</v>
+        <v>1130.215209960938</v>
       </c>
       <c r="CJ4" t="n">
-        <v>3631.93505859375</v>
+        <v>1129.8193359375</v>
       </c>
       <c r="CK4" t="n">
-        <v>3639.279296875</v>
+        <v>1129.397094726562</v>
       </c>
       <c r="CL4" t="n">
-        <v>3648.472412109375</v>
+        <v>1128.703125</v>
       </c>
       <c r="CM4" t="n">
-        <v>3653.06884765625</v>
+        <v>1128.130615234375</v>
       </c>
       <c r="CN4" t="n">
-        <v>3653.864501953125</v>
+        <v>1127.317138671875</v>
       </c>
       <c r="CO4" t="n">
-        <v>3655.219482421875</v>
+        <v>1126.752319335938</v>
       </c>
       <c r="CP4" t="n">
-        <v>3656.506591796875</v>
+        <v>1126.216552734375</v>
       </c>
       <c r="CQ4" t="n">
-        <v>3659.336669921875</v>
+        <v>1125.648559570312</v>
       </c>
       <c r="CR4" t="n">
-        <v>3665.12939453125</v>
+        <v>1125.1494140625</v>
       </c>
       <c r="CS4" t="n">
-        <v>3677.01708984375</v>
+        <v>1123.61083984375</v>
       </c>
       <c r="CT4" t="n">
-        <v>3683.644287109375</v>
+        <v>1121.870971679688</v>
       </c>
       <c r="CU4" t="n">
-        <v>3683.387451171875</v>
+        <v>1121.0498046875</v>
       </c>
       <c r="CV4" t="n">
-        <v>3681.60693359375</v>
+        <v>1120.560791015625</v>
       </c>
       <c r="CW4" t="n">
-        <v>3681.554443359375</v>
+        <v>1120.71044921875</v>
       </c>
       <c r="CX4" t="n">
-        <v>3685.728515625</v>
+        <v>1122.756103515625</v>
       </c>
       <c r="CY4" t="n">
-        <v>3682.65283203125</v>
+        <v>1125.268798828125</v>
       </c>
       <c r="CZ4" t="n">
-        <v>3691.725341796875</v>
+        <v>1136.639038085938</v>
       </c>
       <c r="DA4" t="n">
-        <v>3693.425048828125</v>
+        <v>1140.975708007812</v>
       </c>
       <c r="DB4" t="n">
-        <v>3694.296142578125</v>
+        <v>1143.56591796875</v>
       </c>
       <c r="DC4" t="n">
-        <v>3694.5029296875</v>
+        <v>1145.1259765625</v>
       </c>
       <c r="DD4" t="n">
-        <v>3691.136962890625</v>
+        <v>1145.983764648438</v>
       </c>
       <c r="DE4" t="n">
-        <v>3682.4580078125</v>
+        <v>1147.439819335938</v>
       </c>
       <c r="DF4" t="n">
-        <v>3675.321044921875</v>
+        <v>1149.8427734375</v>
       </c>
       <c r="DG4" t="n">
-        <v>3676.165283203125</v>
+        <v>1152.484497070312</v>
       </c>
       <c r="DH4" t="n">
-        <v>3684.599365234375</v>
+        <v>1158.518432617188</v>
       </c>
       <c r="DI4" t="n">
-        <v>3683.7744140625</v>
+        <v>1162.29931640625</v>
       </c>
       <c r="DJ4" t="n">
-        <v>3678.730712890625</v>
+        <v>1170.466430664062</v>
       </c>
       <c r="DK4" t="n">
-        <v>3666.097900390625</v>
+        <v>1174.36572265625</v>
       </c>
       <c r="DL4" t="n">
-        <v>3669.914794921875</v>
+        <v>1176.65087890625</v>
       </c>
       <c r="DM4" t="n">
-        <v>3668.169921875</v>
+        <v>1179.125244140625</v>
       </c>
       <c r="DN4" t="n">
-        <v>3667.87255859375</v>
+        <v>1180.43359375</v>
       </c>
       <c r="DO4" t="n">
-        <v>3652.80517578125</v>
+        <v>1180.870971679688</v>
       </c>
       <c r="DP4" t="n">
-        <v>3639.864501953125</v>
+        <v>1180.883666992188</v>
       </c>
       <c r="DQ4" t="n">
-        <v>3630.419189453125</v>
+        <v>1180.740234375</v>
       </c>
       <c r="DR4" t="n">
-        <v>3618.340576171875</v>
+        <v>1180.718627929688</v>
       </c>
       <c r="DS4" t="n">
-        <v>3611.40234375</v>
+        <v>1180.72216796875</v>
       </c>
       <c r="DT4" t="n">
-        <v>3615.330078125</v>
+        <v>1182.514770507812</v>
       </c>
       <c r="DU4" t="n">
-        <v>3610.605712890625</v>
+        <v>1192.318725585938</v>
       </c>
       <c r="DV4" t="n">
-        <v>3605.95166015625</v>
+        <v>1196.238403320312</v>
       </c>
       <c r="DW4" t="n">
-        <v>3590.48876953125</v>
+        <v>1203.06201171875</v>
       </c>
       <c r="DX4" t="n">
-        <v>3578.611572265625</v>
+        <v>1207.47314453125</v>
       </c>
       <c r="DY4" t="n">
-        <v>3570.146484375</v>
+        <v>1211.465209960938</v>
       </c>
       <c r="DZ4" t="n">
-        <v>3565.997802734375</v>
+        <v>1220.518798828125</v>
       </c>
       <c r="EA4" t="n">
-        <v>3564.63720703125</v>
+        <v>1226.26904296875</v>
       </c>
       <c r="EB4" t="n">
-        <v>3563.46923828125</v>
+        <v>1240.109741210938</v>
       </c>
       <c r="EC4" t="n">
-        <v>3562.962890625</v>
+        <v>1246.073364257812</v>
       </c>
       <c r="ED4" t="n">
-        <v>3561.127685546875</v>
+        <v>1251.811279296875</v>
       </c>
       <c r="EE4" t="n">
-        <v>3557.693603515625</v>
+        <v>1262.089233398438</v>
       </c>
       <c r="EF4" t="n">
-        <v>3546.228515625</v>
+        <v>1279.988403320312</v>
       </c>
       <c r="EG4" t="n">
-        <v>3544.38916015625</v>
+        <v>1316.360229492188</v>
       </c>
       <c r="EH4" t="n">
-        <v>3534.99169921875</v>
+        <v>1337.391723632812</v>
       </c>
       <c r="EI4" t="n">
-        <v>3517.74267578125</v>
+        <v>1364.77001953125</v>
       </c>
       <c r="EJ4" t="n">
-        <v>3456.30908203125</v>
+        <v>1373.394287109375</v>
       </c>
       <c r="EK4" t="n">
-        <v>3436.5927734375</v>
+        <v>1396.60888671875</v>
       </c>
       <c r="EL4" t="n">
-        <v>3417.548095703125</v>
+        <v>1407.40087890625</v>
       </c>
       <c r="EM4" t="n">
-        <v>3387.28662109375</v>
+        <v>1425.31982421875</v>
       </c>
       <c r="EN4" t="n">
-        <v>3380.23388671875</v>
+        <v>1435.067626953125</v>
       </c>
       <c r="EO4" t="n">
-        <v>3369.440185546875</v>
+        <v>1451.713989257812</v>
       </c>
       <c r="EP4" t="n">
-        <v>3351.43115234375</v>
+        <v>1459.510131835938</v>
       </c>
       <c r="EQ4" t="n">
-        <v>3343.8203125</v>
+        <v>1481.607299804688</v>
       </c>
       <c r="ER4" t="n">
-        <v>3344.6142578125</v>
+        <v>1500.1298828125</v>
       </c>
       <c r="ES4" t="n">
-        <v>3339.836669921875</v>
+        <v>1535.537475585938</v>
       </c>
       <c r="ET4" t="n">
-        <v>3338.1201171875</v>
+        <v>1565.994140625</v>
       </c>
       <c r="EU4" t="n">
-        <v>3337.61474609375</v>
+        <v>1585.164794921875</v>
       </c>
       <c r="EV4" t="n">
-        <v>3339.153076171875</v>
+        <v>1610.475219726562</v>
       </c>
       <c r="EW4" t="n">
-        <v>3352.298828125</v>
+        <v>1673.021118164062</v>
       </c>
       <c r="EX4" t="n">
-        <v>3373.44970703125</v>
+        <v>1716.583129882812</v>
       </c>
       <c r="EY4" t="n">
-        <v>3371.26513671875</v>
+        <v>1743.649291992188</v>
       </c>
       <c r="EZ4" t="n">
-        <v>3366.30908203125</v>
+        <v>1773.700439453125</v>
       </c>
       <c r="FA4" t="n">
-        <v>3362.27880859375</v>
+        <v>1816.910400390625</v>
       </c>
       <c r="FB4" t="n">
-        <v>3367.295166015625</v>
+        <v>1828.5927734375</v>
       </c>
       <c r="FC4" t="n">
-        <v>3414.23388671875</v>
+        <v>1859.212646484375</v>
       </c>
       <c r="FD4" t="n">
-        <v>3428.446044921875</v>
+        <v>1901.517700195312</v>
       </c>
       <c r="FE4" t="n">
-        <v>3434.0068359375</v>
+        <v>1919.93212890625</v>
       </c>
       <c r="FF4" t="n">
-        <v>3435.8818359375</v>
+        <v>1938.822998046875</v>
       </c>
       <c r="FG4" t="n">
-        <v>3438.82763671875</v>
+        <v>1972.595458984375</v>
       </c>
       <c r="FH4" t="n">
-        <v>3439.164306640625</v>
+        <v>1990.035888671875</v>
       </c>
       <c r="FI4" t="n">
-        <v>3439.0244140625</v>
+        <v>2034.160888671875</v>
       </c>
       <c r="FJ4" t="n">
-        <v>3436.13818359375</v>
+        <v>2057.767578125</v>
       </c>
       <c r="FK4" t="n">
-        <v>3435.546142578125</v>
+        <v>2096.281982421875</v>
       </c>
       <c r="FL4" t="n">
-        <v>3427.970947265625</v>
+        <v>2118.18603515625</v>
       </c>
       <c r="FM4" t="n">
-        <v>3427.40673828125</v>
+        <v>2169.97705078125</v>
       </c>
       <c r="FN4" t="n">
-        <v>3412.10107421875</v>
+        <v>2191.122802734375</v>
       </c>
       <c r="FO4" t="n">
-        <v>3406.633544921875</v>
+        <v>2209.3291015625</v>
       </c>
       <c r="FP4" t="n">
-        <v>3395.384521484375</v>
+        <v>2230.75927734375</v>
       </c>
       <c r="FQ4" t="n">
-        <v>3393.383544921875</v>
+        <v>2248.875</v>
       </c>
       <c r="FR4" t="n">
-        <v>3379.682373046875</v>
+        <v>2266.97509765625</v>
       </c>
       <c r="FS4" t="n">
-        <v>3366.791015625</v>
+        <v>2286.34619140625</v>
       </c>
       <c r="FT4" t="n">
-        <v>3373.541259765625</v>
+        <v>2302.557861328125</v>
       </c>
       <c r="FU4" t="n">
-        <v>3376.173095703125</v>
+        <v>2306.2177734375</v>
       </c>
       <c r="FV4" t="n">
-        <v>3352.547607421875</v>
+        <v>2309.37939453125</v>
       </c>
       <c r="FW4" t="n">
-        <v>3337.03857421875</v>
+        <v>2299.14453125</v>
       </c>
       <c r="FX4" t="n">
-        <v>3338.603271484375</v>
+        <v>2293.990478515625</v>
       </c>
       <c r="FY4" t="n">
-        <v>3338.587646484375</v>
+        <v>2288.07373046875</v>
       </c>
       <c r="FZ4" t="n">
-        <v>3326.7158203125</v>
+        <v>2291.803955078125</v>
       </c>
       <c r="GA4" t="n">
-        <v>3297.378662109375</v>
+        <v>2296.18359375</v>
       </c>
       <c r="GB4" t="n">
-        <v>3288.643310546875</v>
+        <v>2310.2041015625</v>
       </c>
       <c r="GC4" t="n">
-        <v>3282.00830078125</v>
+        <v>2316.424072265625</v>
       </c>
       <c r="GD4" t="n">
-        <v>3270.557861328125</v>
+        <v>2326.40771484375</v>
       </c>
       <c r="GE4" t="n">
-        <v>3223.5556640625</v>
+        <v>2326.774169921875</v>
       </c>
       <c r="GF4" t="n">
-        <v>3202.367431640625</v>
+        <v>2327.885498046875</v>
       </c>
       <c r="GG4" t="n">
-        <v>3163.293701171875</v>
+        <v>2327.550048828125</v>
       </c>
       <c r="GH4" t="n">
-        <v>3140.130615234375</v>
+        <v>2327.49169921875</v>
       </c>
       <c r="GI4" t="n">
-        <v>3058.415283203125</v>
+        <v>2327.7265625</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2970.176513671875</v>
+        <v>2327.765380859375</v>
       </c>
       <c r="GK4" t="n">
-        <v>2897.933349609375</v>
+        <v>2327.87890625</v>
       </c>
       <c r="GL4" t="n">
-        <v>2858.8134765625</v>
+        <v>2328.47509765625</v>
       </c>
       <c r="GM4" t="n">
-        <v>2840.32666015625</v>
+        <v>2328.126220703125</v>
       </c>
       <c r="GN4" t="n">
-        <v>2817.971435546875</v>
+        <v>2327.601806640625</v>
       </c>
       <c r="GO4" t="n">
-        <v>2770.264892578125</v>
+        <v>2315.5673828125</v>
       </c>
       <c r="GP4" t="n">
-        <v>2731.933837890625</v>
+        <v>2299.95703125</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2696.117431640625</v>
+        <v>2292.185791015625</v>
       </c>
       <c r="GR4" t="n">
-        <v>2645.519287109375</v>
+        <v>2285.949951171875</v>
       </c>
       <c r="GS4" t="n">
-        <v>2546.333984375</v>
+        <v>2283.132080078125</v>
       </c>
       <c r="GT4" t="n">
-        <v>2517.7216796875</v>
+        <v>2282.677978515625</v>
       </c>
       <c r="GU4" t="n">
-        <v>2471.14404296875</v>
+        <v>2273.3759765625</v>
       </c>
       <c r="GV4" t="n">
-        <v>2376.54931640625</v>
+        <v>2264.719482421875</v>
       </c>
       <c r="GW4" t="n">
-        <v>2277.5576171875</v>
+        <v>2259.94384765625</v>
       </c>
       <c r="GX4" t="n">
-        <v>2234.385986328125</v>
+        <v>2261.587158203125</v>
       </c>
       <c r="GY4" t="n">
-        <v>2182.927490234375</v>
+        <v>2262.054443359375</v>
       </c>
       <c r="GZ4" t="n">
-        <v>2113.075439453125</v>
+        <v>2262.200927734375</v>
       </c>
       <c r="HA4" t="n">
-        <v>2054.7939453125</v>
+        <v>2262.2216796875</v>
       </c>
       <c r="HB4" t="n">
-        <v>1993.95947265625</v>
+        <v>2261.06640625</v>
       </c>
       <c r="HC4" t="n">
-        <v>1904.9599609375</v>
+        <v>2259.108154296875</v>
       </c>
       <c r="HD4" t="n">
-        <v>1831.668212890625</v>
+        <v>2258.496337890625</v>
       </c>
       <c r="HE4" t="n">
-        <v>1796.520385742188</v>
+        <v>2255.8857421875</v>
       </c>
       <c r="HF4" t="n">
-        <v>1690.271484375</v>
+        <v>2251.729248046875</v>
       </c>
       <c r="HG4" t="n">
-        <v>1626.075561523438</v>
+        <v>2249.529541015625</v>
       </c>
       <c r="HH4" t="n">
-        <v>1545.433715820312</v>
+        <v>2251.864013671875</v>
       </c>
       <c r="HI4" t="n">
-        <v>1485.8388671875</v>
+        <v>2253.415771484375</v>
       </c>
       <c r="HJ4" t="n">
-        <v>1422.060546875</v>
+        <v>2253.933837890625</v>
       </c>
       <c r="HK4" t="n">
-        <v>1355.39111328125</v>
+        <v>2252.426513671875</v>
       </c>
       <c r="HL4" t="n">
-        <v>1278.719482421875</v>
+        <v>2238.763427734375</v>
       </c>
       <c r="HM4" t="n">
-        <v>1201.272216796875</v>
+        <v>2219.526611328125</v>
       </c>
       <c r="HN4" t="n">
-        <v>1102.881958007812</v>
+        <v>2204.9951171875</v>
       </c>
       <c r="HO4" t="n">
-        <v>1052.1953125</v>
+        <v>2186.149658203125</v>
       </c>
       <c r="HP4" t="n">
-        <v>1013.002685546875</v>
+        <v>2183.023681640625</v>
       </c>
       <c r="HQ4" t="n">
-        <v>966.863037109375</v>
+        <v>2181.66455078125</v>
       </c>
       <c r="HR4" t="n">
-        <v>903.5848388671875</v>
+        <v>2178.52392578125</v>
       </c>
       <c r="HS4" t="n">
-        <v>848.5299682617188</v>
+        <v>2175.634033203125</v>
       </c>
       <c r="HT4" t="n">
-        <v>804.793701171875</v>
+        <v>2165.943359375</v>
       </c>
       <c r="HU4" t="n">
-        <v>761.9217529296875</v>
+        <v>2155.14794921875</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>2152.5185546875</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>2152.66796875</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>2152.81982421875</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>2152.7958984375</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>2152.693603515625</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>2152.35546875</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>2152.218017578125</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>2151.9150390625</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>2150.809814453125</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>2148.5517578125</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>2147.30322265625</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>2148.175048828125</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>2148.702392578125</v>
+      </c>
+      <c r="II4" t="n">
+        <v>2150.7490234375</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>2161.970458984375</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>2178.466552734375</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>2180.223876953125</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>2181.921630859375</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>2183.40087890625</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>2184.2509765625</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>2188.00634765625</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>2206.7353515625</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>2207.531982421875</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>2205.468994140625</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>2201.3017578125</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>2197.56689453125</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>2196.824951171875</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>2196.38916015625</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>2195.4306640625</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>2194.962158203125</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>2193.039306640625</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>2190.1455078125</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>2189.247802734375</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>2186.38916015625</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>2186.099853515625</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>2184.337890625</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>2185.427001953125</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>2184.349609375</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>2180.8115234375</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>2175.629150390625</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>2173.08935546875</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>2171.387451171875</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>2163.093017578125</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>2156.068115234375</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>2152.843505859375</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>2149.145751953125</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>2141.778076171875</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>2138.369384765625</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>2137.83056640625</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>2136.927734375</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>2135.825927734375</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>2134.385986328125</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>2132.77685546875</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>2129.656982421875</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>2124.7177734375</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>2118.87109375</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>2117.919189453125</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>2117.684326171875</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>2117.43701171875</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>2114.115478515625</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>2096.996337890625</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>2094.096435546875</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>2095.128662109375</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>2107.813720703125</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>2111.290283203125</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>2111.96484375</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>2112.007080078125</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>2111.73583984375</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>2111.642822265625</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>2111.66748046875</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>2111.81591796875</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>2117.888916015625</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>2119.3232421875</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>2120.86328125</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>2122.706298828125</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>2134.810302734375</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>2140.734375</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>2141.55419921875</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>2141.396240234375</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>2141.188232421875</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>2140.99560546875</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>2140.2568359375</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>2133.611328125</v>
+      </c>
+      <c r="LA4" t="n">
+        <v>2105.947509765625</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>2088.064453125</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>2072.390869140625</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>2060.92919921875</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>2049.727294921875</v>
+      </c>
+      <c r="LF4" t="n">
+        <v>2015.580932617188</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>1972.64892578125</v>
+      </c>
+      <c r="LH4" t="n">
+        <v>1921.374145507812</v>
+      </c>
+      <c r="LI4" t="n">
+        <v>1842.53076171875</v>
+      </c>
+      <c r="LJ4" t="n">
+        <v>1753.02197265625</v>
+      </c>
+      <c r="LK4" t="n">
+        <v>1671.177734375</v>
+      </c>
+      <c r="LL4" t="n">
+        <v>1623.045776367188</v>
+      </c>
+      <c r="LM4" t="n">
+        <v>1572.478881835938</v>
+      </c>
+      <c r="LN4" t="n">
+        <v>1505.255126953125</v>
+      </c>
+      <c r="LO4" t="n">
+        <v>1465.53662109375</v>
+      </c>
+      <c r="LP4" t="n">
+        <v>1392.993774414062</v>
+      </c>
+      <c r="LQ4" t="n">
+        <v>1281.897827148438</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>1213.480834960938</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>1141.722290039062</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>1009.820373535156</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>941.7353515625</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>880.16845703125</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>819.879150390625</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>787.2202758789062</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>747.8737182617188</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>709.2427978515625</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>701.4786376953125</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>695.911865234375</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>696.151123046875</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>753.92919921875</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>815.7576904296875</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>836.5431518554688</v>
+      </c>
+      <c r="MG4" t="n">
+        <v>869.9453125</v>
+      </c>
+      <c r="MH4" t="n">
+        <v>882.1398315429688</v>
+      </c>
+      <c r="MI4" t="n">
+        <v>894.7350463867188</v>
+      </c>
+      <c r="MJ4" t="n">
+        <v>916.3480224609375</v>
+      </c>
+      <c r="MK4" t="n">
+        <v>927.1378784179688</v>
+      </c>
+      <c r="ML4" t="n">
+        <v>928.9815063476562</v>
+      </c>
+      <c r="MM4" t="n">
+        <v>932.032958984375</v>
+      </c>
+      <c r="MN4" t="n">
+        <v>970.5084228515625</v>
+      </c>
+      <c r="MO4" t="n">
+        <v>979.5323486328125</v>
+      </c>
+      <c r="MP4" t="n">
+        <v>978.9445190429688</v>
+      </c>
+      <c r="MQ4" t="n">
+        <v>970.5262451171875</v>
+      </c>
+      <c r="MR4" t="n">
+        <v>914.8677978515625</v>
+      </c>
+      <c r="MS4" t="n">
+        <v>862.4976196289062</v>
+      </c>
+      <c r="MT4" t="n">
+        <v>689.3690795898438</v>
+      </c>
+      <c r="MU4" t="n">
+        <v>611.6585083007812</v>
+      </c>
+      <c r="MV4" t="n">
+        <v>661.14111328125</v>
+      </c>
+      <c r="MW4" t="n">
+        <v>743.0433349609375</v>
+      </c>
+      <c r="MX4" t="n">
+        <v>719.5223999023438</v>
+      </c>
+      <c r="MY4" t="n">
+        <v>700.9208984375</v>
+      </c>
+      <c r="MZ4" t="n">
+        <v>668.5037841796875</v>
+      </c>
+      <c r="NA4" t="n">
+        <v>633.5882568359375</v>
+      </c>
+      <c r="NB4" t="n">
+        <v>619.42578125</v>
+      </c>
+      <c r="NC4" t="n">
+        <v>615.2066650390625</v>
+      </c>
+      <c r="ND4" t="n">
+        <v>611.1318359375</v>
+      </c>
+      <c r="NE4" t="n">
+        <v>605.6348876953125</v>
+      </c>
+      <c r="NF4" t="n">
+        <v>598.7251586914062</v>
+      </c>
+      <c r="NG4" t="n">
+        <v>593.4955444335938</v>
+      </c>
+      <c r="NH4" t="n">
+        <v>596.021240234375</v>
+      </c>
+      <c r="NI4" t="n">
+        <v>616.7203369140625</v>
+      </c>
+      <c r="NJ4" t="n">
+        <v>632.381591796875</v>
+      </c>
+      <c r="NK4" t="n">
+        <v>634.8385620117188</v>
+      </c>
+      <c r="NL4" t="n">
+        <v>634.2805786132812</v>
+      </c>
+      <c r="NM4" t="n">
+        <v>619.3942260742188</v>
       </c>
     </row>
   </sheetData>

--- a/waist_Data_Variable.xlsx
+++ b/waist_Data_Variable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:NM4"/>
+  <dimension ref="A1:IX4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1208,3761 +1208,2333 @@
       <c r="IX1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ME1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ML1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ND1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NM1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>350.0032958984375</v>
+        <v>296.488525390625</v>
       </c>
       <c r="B2" t="n">
-        <v>354.6502990722656</v>
+        <v>298.1006469726562</v>
       </c>
       <c r="C2" t="n">
-        <v>359.2767028808594</v>
+        <v>299.796875</v>
       </c>
       <c r="D2" t="n">
-        <v>362.5824584960938</v>
+        <v>301.9120788574219</v>
       </c>
       <c r="E2" t="n">
-        <v>366.7690734863281</v>
+        <v>303.2224731445312</v>
       </c>
       <c r="F2" t="n">
-        <v>372.150146484375</v>
+        <v>304.1244812011719</v>
       </c>
       <c r="G2" t="n">
-        <v>378.8240051269531</v>
+        <v>304.7005615234375</v>
       </c>
       <c r="H2" t="n">
-        <v>386.5326538085938</v>
+        <v>306.1024780273438</v>
       </c>
       <c r="I2" t="n">
-        <v>394.3128967285156</v>
+        <v>307.1417236328125</v>
       </c>
       <c r="J2" t="n">
-        <v>399.8718566894531</v>
+        <v>309.5042724609375</v>
       </c>
       <c r="K2" t="n">
-        <v>405.3525085449219</v>
+        <v>312.281494140625</v>
       </c>
       <c r="L2" t="n">
-        <v>409.7444152832031</v>
+        <v>315.2258605957031</v>
       </c>
       <c r="M2" t="n">
-        <v>429.9830322265625</v>
+        <v>318.8251037597656</v>
       </c>
       <c r="N2" t="n">
-        <v>430.995849609375</v>
+        <v>323.0268859863281</v>
       </c>
       <c r="O2" t="n">
-        <v>431.0906372070312</v>
+        <v>351.3931579589844</v>
       </c>
       <c r="P2" t="n">
-        <v>429.4567565917969</v>
+        <v>351.3323669433594</v>
       </c>
       <c r="Q2" t="n">
-        <v>428.5812683105469</v>
+        <v>351.1801147460938</v>
       </c>
       <c r="R2" t="n">
-        <v>427.8778076171875</v>
+        <v>350.9608764648438</v>
       </c>
       <c r="S2" t="n">
-        <v>427.3492736816406</v>
+        <v>350.6717529296875</v>
       </c>
       <c r="T2" t="n">
-        <v>425.6375732421875</v>
+        <v>350.2640075683594</v>
       </c>
       <c r="U2" t="n">
-        <v>421.9941711425781</v>
+        <v>349.7686462402344</v>
       </c>
       <c r="V2" t="n">
-        <v>417.4246826171875</v>
+        <v>349.3235778808594</v>
       </c>
       <c r="W2" t="n">
-        <v>412.447998046875</v>
+        <v>348.7405700683594</v>
       </c>
       <c r="X2" t="n">
-        <v>408.1292724609375</v>
+        <v>348.3458862304688</v>
       </c>
       <c r="Y2" t="n">
-        <v>403.48486328125</v>
+        <v>347.9729919433594</v>
       </c>
       <c r="Z2" t="n">
-        <v>399.4640808105469</v>
+        <v>347.3355102539062</v>
       </c>
       <c r="AA2" t="n">
-        <v>395.4644470214844</v>
+        <v>346.6683349609375</v>
       </c>
       <c r="AB2" t="n">
-        <v>392.6410522460938</v>
+        <v>346.0623779296875</v>
       </c>
       <c r="AC2" t="n">
-        <v>390.0533447265625</v>
+        <v>345.5364685058594</v>
       </c>
       <c r="AD2" t="n">
-        <v>387.3356323242188</v>
+        <v>344.82080078125</v>
       </c>
       <c r="AE2" t="n">
-        <v>385.8419494628906</v>
+        <v>344.0401000976562</v>
       </c>
       <c r="AF2" t="n">
-        <v>384.6014404296875</v>
+        <v>342.8860168457031</v>
       </c>
       <c r="AG2" t="n">
-        <v>383.9561767578125</v>
+        <v>341.8529968261719</v>
       </c>
       <c r="AH2" t="n">
-        <v>383.4654235839844</v>
+        <v>341.1987915039062</v>
       </c>
       <c r="AI2" t="n">
-        <v>382.7467346191406</v>
+        <v>340.7603759765625</v>
       </c>
       <c r="AJ2" t="n">
-        <v>382.2431945800781</v>
+        <v>340.4989624023438</v>
       </c>
       <c r="AK2" t="n">
-        <v>381.3240356445312</v>
+        <v>340.3064575195312</v>
       </c>
       <c r="AL2" t="n">
-        <v>379.7703857421875</v>
+        <v>339.96240234375</v>
       </c>
       <c r="AM2" t="n">
-        <v>378.0244140625</v>
+        <v>339.7301025390625</v>
       </c>
       <c r="AN2" t="n">
-        <v>376.7859497070312</v>
+        <v>339.575439453125</v>
       </c>
       <c r="AO2" t="n">
-        <v>375.7366638183594</v>
+        <v>339.4872436523438</v>
       </c>
       <c r="AP2" t="n">
-        <v>374.4845886230469</v>
+        <v>340.0013427734375</v>
       </c>
       <c r="AQ2" t="n">
-        <v>374.1029663085938</v>
+        <v>340.8734741210938</v>
       </c>
       <c r="AR2" t="n">
-        <v>374.0033569335938</v>
+        <v>341.9482421875</v>
       </c>
       <c r="AS2" t="n">
-        <v>374.1043090820312</v>
+        <v>342.8196411132812</v>
       </c>
       <c r="AT2" t="n">
-        <v>374.3367919921875</v>
+        <v>343.2037963867188</v>
       </c>
       <c r="AU2" t="n">
-        <v>374.5826721191406</v>
+        <v>343.2469482421875</v>
       </c>
       <c r="AV2" t="n">
-        <v>374.8617858886719</v>
+        <v>343.2896118164062</v>
       </c>
       <c r="AW2" t="n">
-        <v>375.0539855957031</v>
+        <v>343.3102111816406</v>
       </c>
       <c r="AX2" t="n">
-        <v>374.8999633789062</v>
+        <v>343.3264770507812</v>
       </c>
       <c r="AY2" t="n">
-        <v>373.8945922851562</v>
+        <v>342.7052612304688</v>
       </c>
       <c r="AZ2" t="n">
-        <v>372.3419189453125</v>
+        <v>341.5591430664062</v>
       </c>
       <c r="BA2" t="n">
-        <v>371.3033447265625</v>
+        <v>340.270751953125</v>
       </c>
       <c r="BB2" t="n">
-        <v>370.0985412597656</v>
+        <v>339.6469421386719</v>
       </c>
       <c r="BC2" t="n">
-        <v>368.6226806640625</v>
+        <v>339.3945007324219</v>
       </c>
       <c r="BD2" t="n">
-        <v>367.1969299316406</v>
+        <v>339.3193969726562</v>
       </c>
       <c r="BE2" t="n">
-        <v>365.4429321289062</v>
+        <v>339.3047485351562</v>
       </c>
       <c r="BF2" t="n">
-        <v>362.99072265625</v>
+        <v>339.2954711914062</v>
       </c>
       <c r="BG2" t="n">
-        <v>360.9500122070312</v>
+        <v>339.2880249023438</v>
       </c>
       <c r="BH2" t="n">
-        <v>358.7016296386719</v>
+        <v>339.2778930664062</v>
       </c>
       <c r="BI2" t="n">
-        <v>356.0908508300781</v>
+        <v>339.2501525878906</v>
       </c>
       <c r="BJ2" t="n">
-        <v>353.6079406738281</v>
+        <v>339.2044372558594</v>
       </c>
       <c r="BK2" t="n">
-        <v>350.4241333007812</v>
+        <v>339.1636962890625</v>
       </c>
       <c r="BL2" t="n">
-        <v>346.0535278320312</v>
+        <v>339.2035522460938</v>
       </c>
       <c r="BM2" t="n">
-        <v>341.9997863769531</v>
+        <v>339.293212890625</v>
       </c>
       <c r="BN2" t="n">
-        <v>337.5297241210938</v>
+        <v>339.465576171875</v>
       </c>
       <c r="BO2" t="n">
-        <v>330.6762084960938</v>
+        <v>341.4442749023438</v>
       </c>
       <c r="BP2" t="n">
-        <v>327.5088195800781</v>
+        <v>342.7938232421875</v>
       </c>
       <c r="BQ2" t="n">
-        <v>324.9265747070312</v>
+        <v>343.8800659179688</v>
       </c>
       <c r="BR2" t="n">
-        <v>322.5482177734375</v>
+        <v>344.40234375</v>
       </c>
       <c r="BS2" t="n">
-        <v>320.2431640625</v>
+        <v>344.6509399414062</v>
       </c>
       <c r="BT2" t="n">
-        <v>318.4672241210938</v>
+        <v>344.7716674804688</v>
       </c>
       <c r="BU2" t="n">
-        <v>317.3973388671875</v>
+        <v>344.8318176269531</v>
       </c>
       <c r="BV2" t="n">
-        <v>316.7936401367188</v>
+        <v>344.8615112304688</v>
       </c>
       <c r="BW2" t="n">
-        <v>316.4847412109375</v>
+        <v>344.8819580078125</v>
       </c>
       <c r="BX2" t="n">
-        <v>316.4681701660156</v>
+        <v>344.9032287597656</v>
       </c>
       <c r="BY2" t="n">
-        <v>317.5450439453125</v>
+        <v>344.9262084960938</v>
       </c>
       <c r="BZ2" t="n">
-        <v>318.9510498046875</v>
+        <v>344.950439453125</v>
       </c>
       <c r="CA2" t="n">
-        <v>321.6184997558594</v>
+        <v>344.975830078125</v>
       </c>
       <c r="CB2" t="n">
-        <v>324.7232666015625</v>
+        <v>345.00634765625</v>
       </c>
       <c r="CC2" t="n">
-        <v>328.25439453125</v>
+        <v>345.0383911132812</v>
       </c>
       <c r="CD2" t="n">
-        <v>331.6100463867188</v>
+        <v>345.0738830566406</v>
       </c>
       <c r="CE2" t="n">
-        <v>337.9967041015625</v>
+        <v>345.1067810058594</v>
       </c>
       <c r="CF2" t="n">
-        <v>342.096923828125</v>
+        <v>345.0702514648438</v>
       </c>
       <c r="CG2" t="n">
-        <v>345.9856872558594</v>
+        <v>345.0451049804688</v>
       </c>
       <c r="CH2" t="n">
-        <v>350.161376953125</v>
+        <v>345.0325927734375</v>
       </c>
       <c r="CI2" t="n">
-        <v>354.9466552734375</v>
+        <v>345.0460815429688</v>
       </c>
       <c r="CJ2" t="n">
-        <v>358.2633056640625</v>
+        <v>345.0682983398438</v>
       </c>
       <c r="CK2" t="n">
-        <v>361.5296020507812</v>
+        <v>345.095703125</v>
       </c>
       <c r="CL2" t="n">
-        <v>364.2680358886719</v>
+        <v>345.1209106445312</v>
       </c>
       <c r="CM2" t="n">
-        <v>366.966552734375</v>
+        <v>345.1302490234375</v>
       </c>
       <c r="CN2" t="n">
-        <v>370.4010620117188</v>
+        <v>345.1364440917969</v>
       </c>
       <c r="CO2" t="n">
-        <v>371.6197509765625</v>
+        <v>345.1314697265625</v>
       </c>
       <c r="CP2" t="n">
-        <v>373.0115966796875</v>
+        <v>345.1257629394531</v>
       </c>
       <c r="CQ2" t="n">
-        <v>374.3377380371094</v>
+        <v>345.1280212402344</v>
       </c>
       <c r="CR2" t="n">
-        <v>375.2233581542969</v>
+        <v>345.1299438476562</v>
       </c>
       <c r="CS2" t="n">
-        <v>375.7688903808594</v>
+        <v>345.1340026855469</v>
       </c>
       <c r="CT2" t="n">
-        <v>375.8983764648438</v>
+        <v>345.1364440917969</v>
       </c>
       <c r="CU2" t="n">
-        <v>375.9396362304688</v>
+        <v>345.140625</v>
       </c>
       <c r="CV2" t="n">
-        <v>374.8448181152344</v>
+        <v>345.1439208984375</v>
       </c>
       <c r="CW2" t="n">
-        <v>373.5164184570312</v>
+        <v>345.1473388671875</v>
       </c>
       <c r="CX2" t="n">
-        <v>369.7527465820312</v>
+        <v>345.1482543945312</v>
       </c>
       <c r="CY2" t="n">
-        <v>366.2975463867188</v>
+        <v>345.1492614746094</v>
       </c>
       <c r="CZ2" t="n">
-        <v>358.5375366210938</v>
+        <v>345.1492919921875</v>
       </c>
       <c r="DA2" t="n">
-        <v>355.9541015625</v>
+        <v>345.1454467773438</v>
       </c>
       <c r="DB2" t="n">
-        <v>353.8995971679688</v>
+        <v>345.1384887695312</v>
       </c>
       <c r="DC2" t="n">
-        <v>350.7742004394531</v>
+        <v>345.0617980957031</v>
       </c>
       <c r="DD2" t="n">
-        <v>346.5955810546875</v>
+        <v>344.916259765625</v>
       </c>
       <c r="DE2" t="n">
-        <v>340.1325073242188</v>
+        <v>344.5834045410156</v>
       </c>
       <c r="DF2" t="n">
-        <v>335.6555786132812</v>
+        <v>344.0417785644531</v>
       </c>
       <c r="DG2" t="n">
-        <v>334.4613952636719</v>
+        <v>343.2607421875</v>
       </c>
       <c r="DH2" t="n">
-        <v>331.8716735839844</v>
+        <v>342.6820068359375</v>
       </c>
       <c r="DI2" t="n">
-        <v>330.810791015625</v>
+        <v>341.9338684082031</v>
       </c>
       <c r="DJ2" t="n">
-        <v>329.5379028320312</v>
+        <v>341.1614685058594</v>
       </c>
       <c r="DK2" t="n">
-        <v>328.4214782714844</v>
+        <v>340.3742065429688</v>
       </c>
       <c r="DL2" t="n">
-        <v>327.7357482910156</v>
+        <v>340.245361328125</v>
       </c>
       <c r="DM2" t="n">
-        <v>326.8667297363281</v>
+        <v>340.18212890625</v>
       </c>
       <c r="DN2" t="n">
-        <v>325.2731018066406</v>
+        <v>340.0963745117188</v>
       </c>
       <c r="DO2" t="n">
-        <v>322.8079223632812</v>
+        <v>339.9997253417969</v>
       </c>
       <c r="DP2" t="n">
-        <v>320.2855224609375</v>
+        <v>339.9465637207031</v>
       </c>
       <c r="DQ2" t="n">
-        <v>317.2582702636719</v>
+        <v>339.7664794921875</v>
       </c>
       <c r="DR2" t="n">
-        <v>316.5355529785156</v>
+        <v>339.686279296875</v>
       </c>
       <c r="DS2" t="n">
-        <v>316.3814392089844</v>
+        <v>339.609375</v>
       </c>
       <c r="DT2" t="n">
-        <v>316.2313232421875</v>
+        <v>339.3844299316406</v>
       </c>
       <c r="DU2" t="n">
-        <v>315.5692138671875</v>
+        <v>339.2882690429688</v>
       </c>
       <c r="DV2" t="n">
-        <v>315.5111389160156</v>
+        <v>339.0811157226562</v>
       </c>
       <c r="DW2" t="n">
-        <v>319.4142456054688</v>
+        <v>338.9697570800781</v>
       </c>
       <c r="DX2" t="n">
-        <v>323.6113891601562</v>
+        <v>338.8661499023438</v>
       </c>
       <c r="DY2" t="n">
-        <v>327.5257568359375</v>
+        <v>338.8216552734375</v>
       </c>
       <c r="DZ2" t="n">
-        <v>333.3984375</v>
+        <v>340.7201843261719</v>
       </c>
       <c r="EA2" t="n">
-        <v>337.4795532226562</v>
+        <v>342.2012634277344</v>
       </c>
       <c r="EB2" t="n">
-        <v>349.2455749511719</v>
+        <v>343.995849609375</v>
       </c>
       <c r="EC2" t="n">
-        <v>356.6419067382812</v>
+        <v>344.1675109863281</v>
       </c>
       <c r="ED2" t="n">
-        <v>362.7661437988281</v>
+        <v>343.8898315429688</v>
       </c>
       <c r="EE2" t="n">
-        <v>375.82666015625</v>
+        <v>343.5043640136719</v>
       </c>
       <c r="EF2" t="n">
-        <v>392.8962707519531</v>
+        <v>342.6339721679688</v>
       </c>
       <c r="EG2" t="n">
-        <v>408.454345703125</v>
+        <v>342.1741943359375</v>
       </c>
       <c r="EH2" t="n">
-        <v>414.2739562988281</v>
+        <v>340.9769897460938</v>
       </c>
       <c r="EI2" t="n">
-        <v>424.3977661132812</v>
+        <v>340.3988647460938</v>
       </c>
       <c r="EJ2" t="n">
-        <v>427.8578186035156</v>
+        <v>340.307373046875</v>
       </c>
       <c r="EK2" t="n">
-        <v>433.2626647949219</v>
+        <v>340.3935546875</v>
       </c>
       <c r="EL2" t="n">
-        <v>436.2477111816406</v>
+        <v>340.5115356445312</v>
       </c>
       <c r="EM2" t="n">
-        <v>442.87841796875</v>
+        <v>340.5017700195312</v>
       </c>
       <c r="EN2" t="n">
-        <v>446.3164672851562</v>
+        <v>340.3902587890625</v>
       </c>
       <c r="EO2" t="n">
-        <v>450.7055969238281</v>
+        <v>340.2853088378906</v>
       </c>
       <c r="EP2" t="n">
-        <v>451.8991088867188</v>
+        <v>340.1570129394531</v>
       </c>
       <c r="EQ2" t="n">
-        <v>458.0938110351562</v>
+        <v>340.1683959960938</v>
       </c>
       <c r="ER2" t="n">
-        <v>459.1659851074219</v>
+        <v>338.7140502929688</v>
       </c>
       <c r="ES2" t="n">
-        <v>458.6041870117188</v>
+        <v>337.5938720703125</v>
       </c>
       <c r="ET2" t="n">
-        <v>459.1815490722656</v>
+        <v>336.783203125</v>
       </c>
       <c r="EU2" t="n">
-        <v>460.5082397460938</v>
+        <v>336.2100219726562</v>
       </c>
       <c r="EV2" t="n">
-        <v>460.63037109375</v>
+        <v>336.2411499023438</v>
       </c>
       <c r="EW2" t="n">
-        <v>459.528564453125</v>
+        <v>336.3699035644531</v>
       </c>
       <c r="EX2" t="n">
-        <v>458.9813842773438</v>
+        <v>336.5279541015625</v>
       </c>
       <c r="EY2" t="n">
-        <v>457.474365234375</v>
+        <v>336.9604187011719</v>
       </c>
       <c r="EZ2" t="n">
-        <v>455.700439453125</v>
+        <v>338.8401489257812</v>
       </c>
       <c r="FA2" t="n">
-        <v>453.0036926269531</v>
+        <v>340.0042419433594</v>
       </c>
       <c r="FB2" t="n">
-        <v>452.5383911132812</v>
+        <v>340.6517028808594</v>
       </c>
       <c r="FC2" t="n">
-        <v>452.0457763671875</v>
+        <v>341.5775756835938</v>
       </c>
       <c r="FD2" t="n">
-        <v>450.3764038085938</v>
+        <v>342.1982421875</v>
       </c>
       <c r="FE2" t="n">
-        <v>449.4121704101562</v>
+        <v>342.7673034667969</v>
       </c>
       <c r="FF2" t="n">
-        <v>448.2229309082031</v>
+        <v>344.3516845703125</v>
       </c>
       <c r="FG2" t="n">
-        <v>446.03369140625</v>
+        <v>344.9197998046875</v>
       </c>
       <c r="FH2" t="n">
-        <v>445.4585571289062</v>
+        <v>345.6688842773438</v>
       </c>
       <c r="FI2" t="n">
-        <v>444.685546875</v>
+        <v>345.8681640625</v>
       </c>
       <c r="FJ2" t="n">
-        <v>443.9973754882812</v>
+        <v>346.0703125</v>
       </c>
       <c r="FK2" t="n">
-        <v>442.7269897460938</v>
+        <v>345.7822875976562</v>
       </c>
       <c r="FL2" t="n">
-        <v>441.661376953125</v>
+        <v>345.5218505859375</v>
       </c>
       <c r="FM2" t="n">
-        <v>438.86328125</v>
+        <v>345.3065185546875</v>
       </c>
       <c r="FN2" t="n">
-        <v>437.5802001953125</v>
+        <v>345.4919128417969</v>
       </c>
       <c r="FO2" t="n">
-        <v>436.4376525878906</v>
+        <v>345.7528076171875</v>
       </c>
       <c r="FP2" t="n">
-        <v>433.7420043945312</v>
+        <v>345.5565795898438</v>
       </c>
       <c r="FQ2" t="n">
-        <v>431.2298889160156</v>
+        <v>345.1199340820312</v>
       </c>
       <c r="FR2" t="n">
-        <v>429.13330078125</v>
+        <v>343.81591796875</v>
       </c>
       <c r="FS2" t="n">
-        <v>427.2345275878906</v>
+        <v>343.55859375</v>
       </c>
       <c r="FT2" t="n">
-        <v>423.1643981933594</v>
+        <v>343.5503540039062</v>
       </c>
       <c r="FU2" t="n">
-        <v>420.7699584960938</v>
+        <v>342.6704711914062</v>
       </c>
       <c r="FV2" t="n">
-        <v>414.4993591308594</v>
+        <v>339.9782104492188</v>
       </c>
       <c r="FW2" t="n">
-        <v>411.6146545410156</v>
+        <v>333.3294372558594</v>
       </c>
       <c r="FX2" t="n">
-        <v>411.1883544921875</v>
+        <v>330.9111022949219</v>
       </c>
       <c r="FY2" t="n">
-        <v>410.736083984375</v>
+        <v>326.8182983398438</v>
       </c>
       <c r="FZ2" t="n">
-        <v>407.7677612304688</v>
+        <v>325.7243347167969</v>
       </c>
       <c r="GA2" t="n">
-        <v>405.8128356933594</v>
+        <v>323.8216552734375</v>
       </c>
       <c r="GB2" t="n">
-        <v>400.5688781738281</v>
+        <v>322.5956726074219</v>
       </c>
       <c r="GC2" t="n">
-        <v>399.177001953125</v>
+        <v>318.4822082519531</v>
       </c>
       <c r="GD2" t="n">
-        <v>398.2180786132812</v>
+        <v>317.0938720703125</v>
       </c>
       <c r="GE2" t="n">
-        <v>397.9580383300781</v>
+        <v>315.5893249511719</v>
       </c>
       <c r="GF2" t="n">
-        <v>396.5486145019531</v>
+        <v>314.7493591308594</v>
       </c>
       <c r="GG2" t="n">
-        <v>395.0847778320312</v>
+        <v>311.4970703125</v>
       </c>
       <c r="GH2" t="n">
-        <v>391.8885803222656</v>
+        <v>307.853271484375</v>
       </c>
       <c r="GI2" t="n">
-        <v>387.9124450683594</v>
+        <v>306.3988647460938</v>
       </c>
       <c r="GJ2" t="n">
-        <v>385.1539306640625</v>
+        <v>305.9131164550781</v>
       </c>
       <c r="GK2" t="n">
-        <v>383.0208129882812</v>
+        <v>304.8456420898438</v>
       </c>
       <c r="GL2" t="n">
-        <v>378.3966674804688</v>
+        <v>302.9820861816406</v>
       </c>
       <c r="GM2" t="n">
-        <v>374.5858154296875</v>
+        <v>299.6882019042969</v>
       </c>
       <c r="GN2" t="n">
-        <v>372.2434692382812</v>
+        <v>298.5326232910156</v>
       </c>
       <c r="GO2" t="n">
-        <v>368.7845153808594</v>
+        <v>296.7859802246094</v>
       </c>
       <c r="GP2" t="n">
-        <v>363.8343505859375</v>
+        <v>294.8237915039062</v>
       </c>
       <c r="GQ2" t="n">
-        <v>357.5029296875</v>
+        <v>294.0726928710938</v>
       </c>
       <c r="GR2" t="n">
-        <v>354.1394653320312</v>
+        <v>291.6925048828125</v>
       </c>
       <c r="GS2" t="n">
-        <v>351.8456420898438</v>
+        <v>288.2473449707031</v>
       </c>
       <c r="GT2" t="n">
-        <v>349.6799926757812</v>
+        <v>282.93359375</v>
       </c>
       <c r="GU2" t="n">
-        <v>344.2893981933594</v>
+        <v>271.3869934082031</v>
       </c>
       <c r="GV2" t="n">
-        <v>341.6054992675781</v>
+        <v>264.3154907226562</v>
       </c>
       <c r="GW2" t="n">
-        <v>340.439697265625</v>
+        <v>256.4068603515625</v>
       </c>
       <c r="GX2" t="n">
-        <v>340.5128479003906</v>
+        <v>245.0417785644531</v>
       </c>
       <c r="GY2" t="n">
-        <v>339.8583374023438</v>
+        <v>236.5612640380859</v>
       </c>
       <c r="GZ2" t="n">
-        <v>337.9173278808594</v>
+        <v>223.0763854980469</v>
       </c>
       <c r="HA2" t="n">
-        <v>336.609375</v>
+        <v>183.2100219726562</v>
       </c>
       <c r="HB2" t="n">
-        <v>336.4351806640625</v>
+        <v>158.0571441650391</v>
       </c>
       <c r="HC2" t="n">
-        <v>336.32470703125</v>
+        <v>147.3232879638672</v>
       </c>
       <c r="HD2" t="n">
-        <v>336.2031860351562</v>
+        <v>138.3427276611328</v>
       </c>
       <c r="HE2" t="n">
-        <v>333.9331665039062</v>
+        <v>124.9758224487305</v>
       </c>
       <c r="HF2" t="n">
-        <v>331.92431640625</v>
+        <v>121.3187255859375</v>
       </c>
       <c r="HG2" t="n">
-        <v>332.9473266601562</v>
+        <v>121.3243789672852</v>
       </c>
       <c r="HH2" t="n">
-        <v>336.0523071289062</v>
+        <v>127.3190689086914</v>
       </c>
       <c r="HI2" t="n">
-        <v>338.4163208007812</v>
+        <v>135.6175842285156</v>
       </c>
       <c r="HJ2" t="n">
-        <v>344.3113708496094</v>
+        <v>139.6175384521484</v>
       </c>
       <c r="HK2" t="n">
-        <v>347.5325927734375</v>
+        <v>143.0311889648438</v>
       </c>
       <c r="HL2" t="n">
-        <v>354.4916381835938</v>
+        <v>147.5042419433594</v>
       </c>
       <c r="HM2" t="n">
-        <v>362.2429809570312</v>
+        <v>149.4808197021484</v>
       </c>
       <c r="HN2" t="n">
-        <v>371.9774780273438</v>
+        <v>156.0783233642578</v>
       </c>
       <c r="HO2" t="n">
-        <v>385.1165161132812</v>
+        <v>174.4531402587891</v>
       </c>
       <c r="HP2" t="n">
-        <v>395.5997924804688</v>
+        <v>194.1596221923828</v>
       </c>
       <c r="HQ2" t="n">
-        <v>399.1139221191406</v>
+        <v>204.4141540527344</v>
       </c>
       <c r="HR2" t="n">
-        <v>407.7605895996094</v>
+        <v>192.6156463623047</v>
       </c>
       <c r="HS2" t="n">
-        <v>412.4975280761719</v>
+        <v>182.0997772216797</v>
       </c>
       <c r="HT2" t="n">
-        <v>417.4639282226562</v>
+        <v>188.1347503662109</v>
       </c>
       <c r="HU2" t="n">
-        <v>420.6947326660156</v>
+        <v>204.3567810058594</v>
       </c>
       <c r="HV2" t="n">
-        <v>421.7300720214844</v>
+        <v>222.5280609130859</v>
       </c>
       <c r="HW2" t="n">
-        <v>422.2415466308594</v>
+        <v>237.62255859375</v>
       </c>
       <c r="HX2" t="n">
-        <v>422.7901611328125</v>
+        <v>259.7854919433594</v>
       </c>
       <c r="HY2" t="n">
-        <v>423.0325927734375</v>
+        <v>290.4253540039062</v>
       </c>
       <c r="HZ2" t="n">
-        <v>423.6070251464844</v>
+        <v>302.94677734375</v>
       </c>
       <c r="IA2" t="n">
-        <v>423.6459045410156</v>
+        <v>307.189208984375</v>
       </c>
       <c r="IB2" t="n">
-        <v>423.630859375</v>
+        <v>312.2058410644531</v>
       </c>
       <c r="IC2" t="n">
-        <v>423.5941772460938</v>
+        <v>323.3356018066406</v>
       </c>
       <c r="ID2" t="n">
-        <v>422.2454833984375</v>
+        <v>328.86572265625</v>
       </c>
       <c r="IE2" t="n">
-        <v>419.2561645507812</v>
+        <v>334.1651000976562</v>
       </c>
       <c r="IF2" t="n">
-        <v>416.7039184570312</v>
+        <v>335.3014526367188</v>
       </c>
       <c r="IG2" t="n">
-        <v>412.8434753417969</v>
+        <v>329.5737915039062</v>
       </c>
       <c r="IH2" t="n">
-        <v>407.4535522460938</v>
+        <v>318.3387451171875</v>
       </c>
       <c r="II2" t="n">
-        <v>403.7188110351562</v>
+        <v>313.6845092773438</v>
       </c>
       <c r="IJ2" t="n">
-        <v>397.1187744140625</v>
+        <v>310.2917175292969</v>
       </c>
       <c r="IK2" t="n">
-        <v>384.8095092773438</v>
+        <v>307.0732727050781</v>
       </c>
       <c r="IL2" t="n">
-        <v>380.4985961914062</v>
+        <v>300.6331176757812</v>
       </c>
       <c r="IM2" t="n">
-        <v>372.1990661621094</v>
+        <v>295.9118957519531</v>
       </c>
       <c r="IN2" t="n">
-        <v>363.5303344726562</v>
+        <v>279.1982116699219</v>
       </c>
       <c r="IO2" t="n">
-        <v>356.4241027832031</v>
+        <v>282.9780883789062</v>
       </c>
       <c r="IP2" t="n">
-        <v>353.7742614746094</v>
+        <v>282.9894409179688</v>
       </c>
       <c r="IQ2" t="n">
-        <v>350.4189758300781</v>
+        <v>253.783447265625</v>
       </c>
       <c r="IR2" t="n">
-        <v>348.5216674804688</v>
+        <v>242.8947601318359</v>
       </c>
       <c r="IS2" t="n">
-        <v>347.91357421875</v>
+        <v>237.2573547363281</v>
       </c>
       <c r="IT2" t="n">
-        <v>346.0284118652344</v>
+        <v>231.6261596679688</v>
       </c>
       <c r="IU2" t="n">
-        <v>345.0274963378906</v>
+        <v>230.1924743652344</v>
       </c>
       <c r="IV2" t="n">
-        <v>344.423583984375</v>
+        <v>228.8257141113281</v>
       </c>
       <c r="IW2" t="n">
-        <v>344.170654296875</v>
+        <v>226.1109008789062</v>
       </c>
       <c r="IX2" t="n">
-        <v>343.2674560546875</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>343.2225036621094</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>343.6201477050781</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>346.3245239257812</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>349.4039611816406</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>351.0548400878906</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>353.7138061523438</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>358.3529663085938</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>362.4241638183594</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>369.3476867675781</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>374.3290405273438</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>379.4808349609375</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>383.9612426757812</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>388.5958862304688</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>395.2543640136719</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>397.322021484375</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>399.238037109375</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>401.3804321289062</v>
-      </c>
-      <c r="JP2" t="n">
-        <v>404.0886840820312</v>
-      </c>
-      <c r="JQ2" t="n">
-        <v>406.3298950195312</v>
-      </c>
-      <c r="JR2" t="n">
-        <v>407.5771484375</v>
-      </c>
-      <c r="JS2" t="n">
-        <v>409.4104614257812</v>
-      </c>
-      <c r="JT2" t="n">
-        <v>411.4596557617188</v>
-      </c>
-      <c r="JU2" t="n">
-        <v>412.466796875</v>
-      </c>
-      <c r="JV2" t="n">
-        <v>412.7112121582031</v>
-      </c>
-      <c r="JW2" t="n">
-        <v>412.905517578125</v>
-      </c>
-      <c r="JX2" t="n">
-        <v>413.1652526855469</v>
-      </c>
-      <c r="JY2" t="n">
-        <v>413.4320373535156</v>
-      </c>
-      <c r="JZ2" t="n">
-        <v>413.47265625</v>
-      </c>
-      <c r="KA2" t="n">
-        <v>413.46044921875</v>
-      </c>
-      <c r="KB2" t="n">
-        <v>412.8323059082031</v>
-      </c>
-      <c r="KC2" t="n">
-        <v>410.9835815429688</v>
-      </c>
-      <c r="KD2" t="n">
-        <v>408.8527221679688</v>
-      </c>
-      <c r="KE2" t="n">
-        <v>408.524658203125</v>
-      </c>
-      <c r="KF2" t="n">
-        <v>408.4631042480469</v>
-      </c>
-      <c r="KG2" t="n">
-        <v>407.9651489257812</v>
-      </c>
-      <c r="KH2" t="n">
-        <v>407.82373046875</v>
-      </c>
-      <c r="KI2" t="n">
-        <v>407.7862243652344</v>
-      </c>
-      <c r="KJ2" t="n">
-        <v>407.7206115722656</v>
-      </c>
-      <c r="KK2" t="n">
-        <v>407.6761169433594</v>
-      </c>
-      <c r="KL2" t="n">
-        <v>407.6334228515625</v>
-      </c>
-      <c r="KM2" t="n">
-        <v>407.5917053222656</v>
-      </c>
-      <c r="KN2" t="n">
-        <v>407.6002502441406</v>
-      </c>
-      <c r="KO2" t="n">
-        <v>407.753662109375</v>
-      </c>
-      <c r="KP2" t="n">
-        <v>408.1896362304688</v>
-      </c>
-      <c r="KQ2" t="n">
-        <v>408.5977172851562</v>
-      </c>
-      <c r="KR2" t="n">
-        <v>408.8257141113281</v>
-      </c>
-      <c r="KS2" t="n">
-        <v>410.1050415039062</v>
-      </c>
-      <c r="KT2" t="n">
-        <v>411.5018310546875</v>
-      </c>
-      <c r="KU2" t="n">
-        <v>412.5953369140625</v>
-      </c>
-      <c r="KV2" t="n">
-        <v>412.5936279296875</v>
-      </c>
-      <c r="KW2" t="n">
-        <v>412.5903930664062</v>
-      </c>
-      <c r="KX2" t="n">
-        <v>412.5943603515625</v>
-      </c>
-      <c r="KY2" t="n">
-        <v>413.5093688964844</v>
-      </c>
-      <c r="KZ2" t="n">
-        <v>414.8738098144531</v>
-      </c>
-      <c r="LA2" t="n">
-        <v>416.3393859863281</v>
-      </c>
-      <c r="LB2" t="n">
-        <v>417.1730041503906</v>
-      </c>
-      <c r="LC2" t="n">
-        <v>417.8932189941406</v>
-      </c>
-      <c r="LD2" t="n">
-        <v>418.4085693359375</v>
-      </c>
-      <c r="LE2" t="n">
-        <v>420.0964660644531</v>
-      </c>
-      <c r="LF2" t="n">
-        <v>424.695556640625</v>
-      </c>
-      <c r="LG2" t="n">
-        <v>426.9432067871094</v>
-      </c>
-      <c r="LH2" t="n">
-        <v>429.6978759765625</v>
-      </c>
-      <c r="LI2" t="n">
-        <v>434.3278503417969</v>
-      </c>
-      <c r="LJ2" t="n">
-        <v>439.6496887207031</v>
-      </c>
-      <c r="LK2" t="n">
-        <v>444.6438293457031</v>
-      </c>
-      <c r="LL2" t="n">
-        <v>447.1229858398438</v>
-      </c>
-      <c r="LM2" t="n">
-        <v>449.8515014648438</v>
-      </c>
-      <c r="LN2" t="n">
-        <v>450.89697265625</v>
-      </c>
-      <c r="LO2" t="n">
-        <v>451.4871826171875</v>
-      </c>
-      <c r="LP2" t="n">
-        <v>457.3040466308594</v>
-      </c>
-      <c r="LQ2" t="n">
-        <v>472.5990600585938</v>
-      </c>
-      <c r="LR2" t="n">
-        <v>481.8571472167969</v>
-      </c>
-      <c r="LS2" t="n">
-        <v>487.0523681640625</v>
-      </c>
-      <c r="LT2" t="n">
-        <v>497.7461547851562</v>
-      </c>
-      <c r="LU2" t="n">
-        <v>504.2803344726562</v>
-      </c>
-      <c r="LV2" t="n">
-        <v>504.211669921875</v>
-      </c>
-      <c r="LW2" t="n">
-        <v>494.5361328125</v>
-      </c>
-      <c r="LX2" t="n">
-        <v>490.8056335449219</v>
-      </c>
-      <c r="LY2" t="n">
-        <v>483.0780639648438</v>
-      </c>
-      <c r="LZ2" t="n">
-        <v>465.0887451171875</v>
-      </c>
-      <c r="MA2" t="n">
-        <v>441.3734741210938</v>
-      </c>
-      <c r="MB2" t="n">
-        <v>416.935791015625</v>
-      </c>
-      <c r="MC2" t="n">
-        <v>393.5919799804688</v>
-      </c>
-      <c r="MD2" t="n">
-        <v>368.1062316894531</v>
-      </c>
-      <c r="ME2" t="n">
-        <v>357.0184631347656</v>
-      </c>
-      <c r="MF2" t="n">
-        <v>354.8018798828125</v>
-      </c>
-      <c r="MG2" t="n">
-        <v>353.2005615234375</v>
-      </c>
-      <c r="MH2" t="n">
-        <v>356.8826293945312</v>
-      </c>
-      <c r="MI2" t="n">
-        <v>362.9465942382812</v>
-      </c>
-      <c r="MJ2" t="n">
-        <v>369.453369140625</v>
-      </c>
-      <c r="MK2" t="n">
-        <v>380.6853942871094</v>
-      </c>
-      <c r="ML2" t="n">
-        <v>385.3231201171875</v>
-      </c>
-      <c r="MM2" t="n">
-        <v>402.3273010253906</v>
-      </c>
-      <c r="MN2" t="n">
-        <v>407.5184326171875</v>
-      </c>
-      <c r="MO2" t="n">
-        <v>411.9686279296875</v>
-      </c>
-      <c r="MP2" t="n">
-        <v>414.1697692871094</v>
-      </c>
-      <c r="MQ2" t="n">
-        <v>413.3712158203125</v>
-      </c>
-      <c r="MR2" t="n">
-        <v>389.9118347167969</v>
-      </c>
-      <c r="MS2" t="n">
-        <v>388.6111450195312</v>
-      </c>
-      <c r="MT2" t="n">
-        <v>413.2901611328125</v>
-      </c>
-      <c r="MU2" t="n">
-        <v>366.66650390625</v>
-      </c>
-      <c r="MV2" t="n">
-        <v>355.2293701171875</v>
-      </c>
-      <c r="MW2" t="n">
-        <v>357.9743041992188</v>
-      </c>
-      <c r="MX2" t="n">
-        <v>359.5567016601562</v>
-      </c>
-      <c r="MY2" t="n">
-        <v>360.2790832519531</v>
-      </c>
-      <c r="MZ2" t="n">
-        <v>360.5863037109375</v>
-      </c>
-      <c r="NA2" t="n">
-        <v>359.691650390625</v>
-      </c>
-      <c r="NB2" t="n">
-        <v>354.86083984375</v>
-      </c>
-      <c r="NC2" t="n">
-        <v>346.3329467773438</v>
-      </c>
-      <c r="ND2" t="n">
-        <v>343.6047973632812</v>
-      </c>
-      <c r="NE2" t="n">
-        <v>346.5391845703125</v>
-      </c>
-      <c r="NF2" t="n">
-        <v>351.7901306152344</v>
-      </c>
-      <c r="NG2" t="n">
-        <v>358.5958557128906</v>
-      </c>
-      <c r="NH2" t="n">
-        <v>358.7261657714844</v>
-      </c>
-      <c r="NI2" t="n">
-        <v>356.0526733398438</v>
-      </c>
-      <c r="NJ2" t="n">
-        <v>354.7229614257812</v>
-      </c>
-      <c r="NK2" t="n">
-        <v>354.6306762695312</v>
-      </c>
-      <c r="NL2" t="n">
-        <v>354.9075012207031</v>
-      </c>
-      <c r="NM2" t="n">
-        <v>360.650634765625</v>
+        <v>222.736328125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>359.8558349609375</v>
+        <v>378.2749938964844</v>
       </c>
       <c r="B3" t="n">
-        <v>355.8921508789062</v>
+        <v>376.5798645019531</v>
       </c>
       <c r="C3" t="n">
-        <v>353.5804748535156</v>
+        <v>374.9521789550781</v>
       </c>
       <c r="D3" t="n">
-        <v>352.0566101074219</v>
+        <v>373.7992553710938</v>
       </c>
       <c r="E3" t="n">
-        <v>354.1329345703125</v>
+        <v>373.5680541992188</v>
       </c>
       <c r="F3" t="n">
-        <v>356.1692810058594</v>
+        <v>373.4101867675781</v>
       </c>
       <c r="G3" t="n">
-        <v>357.7749938964844</v>
+        <v>372.8138122558594</v>
       </c>
       <c r="H3" t="n">
-        <v>358.7536315917969</v>
+        <v>372.2294921875</v>
       </c>
       <c r="I3" t="n">
-        <v>358.9786987304688</v>
+        <v>372.3517150878906</v>
       </c>
       <c r="J3" t="n">
-        <v>358.2209777832031</v>
+        <v>372.7808837890625</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3527221679688</v>
+        <v>373.5619812011719</v>
       </c>
       <c r="L3" t="n">
-        <v>351.0066833496094</v>
+        <v>374.013671875</v>
       </c>
       <c r="M3" t="n">
-        <v>344.6514282226562</v>
+        <v>373.2870788574219</v>
       </c>
       <c r="N3" t="n">
-        <v>339.10302734375</v>
+        <v>370.1804504394531</v>
       </c>
       <c r="O3" t="n">
-        <v>340.0350341796875</v>
+        <v>368.9004211425781</v>
       </c>
       <c r="P3" t="n">
-        <v>337.409423828125</v>
+        <v>366.8902282714844</v>
       </c>
       <c r="Q3" t="n">
-        <v>336.0237731933594</v>
+        <v>364.739501953125</v>
       </c>
       <c r="R3" t="n">
-        <v>335.1439208984375</v>
+        <v>366.417724609375</v>
       </c>
       <c r="S3" t="n">
-        <v>334.6589965820312</v>
+        <v>367.1838073730469</v>
       </c>
       <c r="T3" t="n">
-        <v>333.9384765625</v>
+        <v>367.4329833984375</v>
       </c>
       <c r="U3" t="n">
-        <v>333.5833129882812</v>
+        <v>366.8272705078125</v>
       </c>
       <c r="V3" t="n">
-        <v>336.1855163574219</v>
+        <v>366.7905883789062</v>
       </c>
       <c r="W3" t="n">
-        <v>337.6286926269531</v>
+        <v>368.2112426757812</v>
       </c>
       <c r="X3" t="n">
-        <v>338.8040466308594</v>
+        <v>369.9980163574219</v>
       </c>
       <c r="Y3" t="n">
-        <v>341.189208984375</v>
+        <v>370.7439880371094</v>
       </c>
       <c r="Z3" t="n">
-        <v>343.5663452148438</v>
+        <v>370.3736572265625</v>
       </c>
       <c r="AA3" t="n">
-        <v>345.1047668457031</v>
+        <v>369.7463073730469</v>
       </c>
       <c r="AB3" t="n">
-        <v>346.0325927734375</v>
+        <v>367.7142639160156</v>
       </c>
       <c r="AC3" t="n">
-        <v>346.4836730957031</v>
+        <v>366.6024475097656</v>
       </c>
       <c r="AD3" t="n">
-        <v>346.5183410644531</v>
+        <v>366.4139709472656</v>
       </c>
       <c r="AE3" t="n">
-        <v>346.1717224121094</v>
+        <v>366.4527587890625</v>
       </c>
       <c r="AF3" t="n">
-        <v>345.4484558105469</v>
+        <v>365.896240234375</v>
       </c>
       <c r="AG3" t="n">
-        <v>344.9313659667969</v>
+        <v>365.2843322753906</v>
       </c>
       <c r="AH3" t="n">
-        <v>342.9024353027344</v>
+        <v>364.2205810546875</v>
       </c>
       <c r="AI3" t="n">
-        <v>341.0195007324219</v>
+        <v>363.0939331054688</v>
       </c>
       <c r="AJ3" t="n">
-        <v>339.2294616699219</v>
+        <v>362.212890625</v>
       </c>
       <c r="AK3" t="n">
-        <v>338.8508911132812</v>
+        <v>361.5592041015625</v>
       </c>
       <c r="AL3" t="n">
-        <v>339.451904296875</v>
+        <v>361.1258544921875</v>
       </c>
       <c r="AM3" t="n">
-        <v>340.5584411621094</v>
+        <v>361.1423950195312</v>
       </c>
       <c r="AN3" t="n">
-        <v>341.4848022460938</v>
+        <v>361.6696472167969</v>
       </c>
       <c r="AO3" t="n">
-        <v>342.2537841796875</v>
+        <v>362.2606201171875</v>
       </c>
       <c r="AP3" t="n">
-        <v>343.0108032226562</v>
+        <v>362.7437438964844</v>
       </c>
       <c r="AQ3" t="n">
-        <v>343.5438842773438</v>
+        <v>362.81005859375</v>
       </c>
       <c r="AR3" t="n">
-        <v>343.9124145507812</v>
+        <v>362.8482666015625</v>
       </c>
       <c r="AS3" t="n">
-        <v>344.2194519042969</v>
+        <v>362.9988403320312</v>
       </c>
       <c r="AT3" t="n">
-        <v>344.5158386230469</v>
+        <v>363.1663208007812</v>
       </c>
       <c r="AU3" t="n">
-        <v>344.8090515136719</v>
+        <v>363.2735900878906</v>
       </c>
       <c r="AV3" t="n">
-        <v>344.8763732910156</v>
+        <v>363.4837341308594</v>
       </c>
       <c r="AW3" t="n">
-        <v>344.9539489746094</v>
+        <v>363.6077880859375</v>
       </c>
       <c r="AX3" t="n">
-        <v>345.1045532226562</v>
+        <v>363.8034362792969</v>
       </c>
       <c r="AY3" t="n">
-        <v>345.4247131347656</v>
+        <v>364.1935729980469</v>
       </c>
       <c r="AZ3" t="n">
-        <v>345.9319152832031</v>
+        <v>364.8433837890625</v>
       </c>
       <c r="BA3" t="n">
-        <v>346.6475830078125</v>
+        <v>365.1066284179688</v>
       </c>
       <c r="BB3" t="n">
-        <v>347.2870788574219</v>
+        <v>365.2072448730469</v>
       </c>
       <c r="BC3" t="n">
-        <v>347.7780456542969</v>
+        <v>366.0559387207031</v>
       </c>
       <c r="BD3" t="n">
-        <v>347.6431579589844</v>
+        <v>366.5345153808594</v>
       </c>
       <c r="BE3" t="n">
-        <v>347.3998718261719</v>
+        <v>366.9379272460938</v>
       </c>
       <c r="BF3" t="n">
-        <v>347.1767883300781</v>
+        <v>367.1669921875</v>
       </c>
       <c r="BG3" t="n">
-        <v>346.4256896972656</v>
+        <v>367.3185424804688</v>
       </c>
       <c r="BH3" t="n">
-        <v>345.1227722167969</v>
+        <v>367.5297241210938</v>
       </c>
       <c r="BI3" t="n">
-        <v>343.6059265136719</v>
+        <v>367.6419067382812</v>
       </c>
       <c r="BJ3" t="n">
-        <v>342.3252258300781</v>
+        <v>367.556884765625</v>
       </c>
       <c r="BK3" t="n">
-        <v>341.8168334960938</v>
+        <v>367.3570251464844</v>
       </c>
       <c r="BL3" t="n">
-        <v>341.8088073730469</v>
+        <v>367.2828979492188</v>
       </c>
       <c r="BM3" t="n">
-        <v>342.0810852050781</v>
+        <v>367.1321716308594</v>
       </c>
       <c r="BN3" t="n">
-        <v>342.4395751953125</v>
+        <v>367.0023193359375</v>
       </c>
       <c r="BO3" t="n">
-        <v>342.6284790039062</v>
+        <v>366.7100524902344</v>
       </c>
       <c r="BP3" t="n">
-        <v>342.4254150390625</v>
+        <v>366.5473022460938</v>
       </c>
       <c r="BQ3" t="n">
-        <v>342.3334045410156</v>
+        <v>366.4391784667969</v>
       </c>
       <c r="BR3" t="n">
-        <v>342.1189270019531</v>
+        <v>366.4001770019531</v>
       </c>
       <c r="BS3" t="n">
-        <v>341.7077941894531</v>
+        <v>366.3780517578125</v>
       </c>
       <c r="BT3" t="n">
-        <v>341.4408874511719</v>
+        <v>366.3606262207031</v>
       </c>
       <c r="BU3" t="n">
-        <v>341.3709411621094</v>
+        <v>366.3475036621094</v>
       </c>
       <c r="BV3" t="n">
-        <v>341.3487854003906</v>
+        <v>366.3390808105469</v>
       </c>
       <c r="BW3" t="n">
-        <v>341.3460388183594</v>
+        <v>366.3348388671875</v>
       </c>
       <c r="BX3" t="n">
-        <v>341.3217468261719</v>
+        <v>366.3637084960938</v>
       </c>
       <c r="BY3" t="n">
-        <v>341.8255004882812</v>
+        <v>366.3821716308594</v>
       </c>
       <c r="BZ3" t="n">
-        <v>342.7411193847656</v>
+        <v>366.3961181640625</v>
       </c>
       <c r="CA3" t="n">
-        <v>343.7157592773438</v>
+        <v>366.3965759277344</v>
       </c>
       <c r="CB3" t="n">
-        <v>344.7067565917969</v>
+        <v>366.4701843261719</v>
       </c>
       <c r="CC3" t="n">
-        <v>345.6993713378906</v>
+        <v>366.5533752441406</v>
       </c>
       <c r="CD3" t="n">
-        <v>346.5706176757812</v>
+        <v>366.6642456054688</v>
       </c>
       <c r="CE3" t="n">
-        <v>347.6899108886719</v>
+        <v>366.7535095214844</v>
       </c>
       <c r="CF3" t="n">
-        <v>347.9703979492188</v>
+        <v>365.8345031738281</v>
       </c>
       <c r="CG3" t="n">
-        <v>348.4219970703125</v>
+        <v>365.1206970214844</v>
       </c>
       <c r="CH3" t="n">
-        <v>348.8710327148438</v>
+        <v>364.5503845214844</v>
       </c>
       <c r="CI3" t="n">
-        <v>347.659912109375</v>
+        <v>363.7612915039062</v>
       </c>
       <c r="CJ3" t="n">
-        <v>346.7472229003906</v>
+        <v>363.5048828125</v>
       </c>
       <c r="CK3" t="n">
-        <v>346.0089111328125</v>
+        <v>363.3341064453125</v>
       </c>
       <c r="CL3" t="n">
-        <v>345.3086853027344</v>
+        <v>363.1977233886719</v>
       </c>
       <c r="CM3" t="n">
-        <v>344.768310546875</v>
+        <v>363.0733642578125</v>
       </c>
       <c r="CN3" t="n">
-        <v>343.7444458007812</v>
+        <v>362.96630859375</v>
       </c>
       <c r="CO3" t="n">
-        <v>343.3328552246094</v>
+        <v>362.9104309082031</v>
       </c>
       <c r="CP3" t="n">
-        <v>342.9163818359375</v>
+        <v>362.8983154296875</v>
       </c>
       <c r="CQ3" t="n">
-        <v>342.5717468261719</v>
+        <v>362.9150085449219</v>
       </c>
       <c r="CR3" t="n">
-        <v>342.2501220703125</v>
+        <v>362.9500427246094</v>
       </c>
       <c r="CS3" t="n">
-        <v>341.9186096191406</v>
+        <v>363.0055236816406</v>
       </c>
       <c r="CT3" t="n">
-        <v>341.8992614746094</v>
+        <v>363.060546875</v>
       </c>
       <c r="CU3" t="n">
-        <v>341.9258422851562</v>
+        <v>363.1138916015625</v>
       </c>
       <c r="CV3" t="n">
-        <v>341.955322265625</v>
+        <v>363.1631164550781</v>
       </c>
       <c r="CW3" t="n">
-        <v>342.0140075683594</v>
+        <v>363.2143859863281</v>
       </c>
       <c r="CX3" t="n">
-        <v>341.9988403320312</v>
+        <v>363.2411804199219</v>
       </c>
       <c r="CY3" t="n">
-        <v>341.8880920410156</v>
+        <v>363.2886047363281</v>
       </c>
       <c r="CZ3" t="n">
-        <v>341.3907470703125</v>
+        <v>363.3108825683594</v>
       </c>
       <c r="DA3" t="n">
-        <v>341.3567504882812</v>
+        <v>363.331298828125</v>
       </c>
       <c r="DB3" t="n">
-        <v>341.4828491210938</v>
+        <v>363.35546875</v>
       </c>
       <c r="DC3" t="n">
-        <v>341.4524536132812</v>
+        <v>363.3818664550781</v>
       </c>
       <c r="DD3" t="n">
-        <v>341.4706115722656</v>
+        <v>363.411376953125</v>
       </c>
       <c r="DE3" t="n">
-        <v>341.3859558105469</v>
+        <v>363.5104064941406</v>
       </c>
       <c r="DF3" t="n">
-        <v>341.3389892578125</v>
+        <v>363.548095703125</v>
       </c>
       <c r="DG3" t="n">
-        <v>341.1820373535156</v>
+        <v>363.731201171875</v>
       </c>
       <c r="DH3" t="n">
-        <v>340.947998046875</v>
+        <v>364.81201171875</v>
       </c>
       <c r="DI3" t="n">
-        <v>340.940673828125</v>
+        <v>365.7143859863281</v>
       </c>
       <c r="DJ3" t="n">
-        <v>341.1686706542969</v>
+        <v>366.4144897460938</v>
       </c>
       <c r="DK3" t="n">
-        <v>341.4222412109375</v>
+        <v>366.4320373535156</v>
       </c>
       <c r="DL3" t="n">
-        <v>341.4857482910156</v>
+        <v>365.9510498046875</v>
       </c>
       <c r="DM3" t="n">
-        <v>341.5608825683594</v>
+        <v>365.5458068847656</v>
       </c>
       <c r="DN3" t="n">
-        <v>341.6905517578125</v>
+        <v>364.918701171875</v>
       </c>
       <c r="DO3" t="n">
-        <v>341.8766479492188</v>
+        <v>364.4224243164062</v>
       </c>
       <c r="DP3" t="n">
-        <v>342.0519714355469</v>
+        <v>364.1760559082031</v>
       </c>
       <c r="DQ3" t="n">
-        <v>342.1705322265625</v>
+        <v>363.7727355957031</v>
       </c>
       <c r="DR3" t="n">
-        <v>342.1153259277344</v>
+        <v>363.639404296875</v>
       </c>
       <c r="DS3" t="n">
-        <v>342.0193481445312</v>
+        <v>363.539794921875</v>
       </c>
       <c r="DT3" t="n">
-        <v>341.3101501464844</v>
+        <v>363.3647155761719</v>
       </c>
       <c r="DU3" t="n">
-        <v>340.5001220703125</v>
+        <v>363.2713928222656</v>
       </c>
       <c r="DV3" t="n">
-        <v>340.8548583984375</v>
+        <v>362.8793640136719</v>
       </c>
       <c r="DW3" t="n">
-        <v>342.8491821289062</v>
+        <v>362.6723327636719</v>
       </c>
       <c r="DX3" t="n">
-        <v>343.2408752441406</v>
+        <v>362.4678344726562</v>
       </c>
       <c r="DY3" t="n">
-        <v>343.4463806152344</v>
+        <v>362.2234191894531</v>
       </c>
       <c r="DZ3" t="n">
-        <v>344.5433349609375</v>
+        <v>362.1084289550781</v>
       </c>
       <c r="EA3" t="n">
-        <v>345.2684020996094</v>
+        <v>362.0641479492188</v>
       </c>
       <c r="EB3" t="n">
-        <v>347.2944030761719</v>
+        <v>362.0913391113281</v>
       </c>
       <c r="EC3" t="n">
-        <v>348.6030578613281</v>
+        <v>362.152099609375</v>
       </c>
       <c r="ED3" t="n">
-        <v>349.9727783203125</v>
+        <v>362.2844543457031</v>
       </c>
       <c r="EE3" t="n">
-        <v>351.6024169921875</v>
+        <v>362.3224487304688</v>
       </c>
       <c r="EF3" t="n">
-        <v>354.69091796875</v>
+        <v>362.1457824707031</v>
       </c>
       <c r="EG3" t="n">
-        <v>354.6282653808594</v>
+        <v>361.8124694824219</v>
       </c>
       <c r="EH3" t="n">
-        <v>353.8012084960938</v>
+        <v>361.7518005371094</v>
       </c>
       <c r="EI3" t="n">
-        <v>352.5923767089844</v>
+        <v>362.098388671875</v>
       </c>
       <c r="EJ3" t="n">
-        <v>351.8659973144531</v>
+        <v>362.3161010742188</v>
       </c>
       <c r="EK3" t="n">
-        <v>349.04296875</v>
+        <v>363.5655822753906</v>
       </c>
       <c r="EL3" t="n">
-        <v>347.2335510253906</v>
+        <v>366.11865234375</v>
       </c>
       <c r="EM3" t="n">
-        <v>344.6941528320312</v>
+        <v>367.3262329101562</v>
       </c>
       <c r="EN3" t="n">
-        <v>343.3473205566406</v>
+        <v>367.0673828125</v>
       </c>
       <c r="EO3" t="n">
-        <v>342.12353515625</v>
+        <v>366.5438232421875</v>
       </c>
       <c r="EP3" t="n">
-        <v>342.5661926269531</v>
+        <v>365.376220703125</v>
       </c>
       <c r="EQ3" t="n">
-        <v>346.3743591308594</v>
+        <v>365.5682983398438</v>
       </c>
       <c r="ER3" t="n">
-        <v>347.291259765625</v>
+        <v>365.4549865722656</v>
       </c>
       <c r="ES3" t="n">
-        <v>349.8831176757812</v>
+        <v>365.4042053222656</v>
       </c>
       <c r="ET3" t="n">
-        <v>351.5652770996094</v>
+        <v>365.33935546875</v>
       </c>
       <c r="EU3" t="n">
-        <v>351.358154296875</v>
+        <v>365.1166076660156</v>
       </c>
       <c r="EV3" t="n">
-        <v>351.7779541015625</v>
+        <v>364.5042724609375</v>
       </c>
       <c r="EW3" t="n">
-        <v>349.7992858886719</v>
+        <v>364.2981567382812</v>
       </c>
       <c r="EX3" t="n">
-        <v>348.6272888183594</v>
+        <v>363.8595581054688</v>
       </c>
       <c r="EY3" t="n">
-        <v>347.8289794921875</v>
+        <v>363.7225952148438</v>
       </c>
       <c r="EZ3" t="n">
-        <v>346.4720458984375</v>
+        <v>363.5641174316406</v>
       </c>
       <c r="FA3" t="n">
-        <v>345.0862121582031</v>
+        <v>363.7838439941406</v>
       </c>
       <c r="FB3" t="n">
-        <v>346.3045349121094</v>
+        <v>363.9699401855469</v>
       </c>
       <c r="FC3" t="n">
-        <v>346.8609008789062</v>
+        <v>365.6151123046875</v>
       </c>
       <c r="FD3" t="n">
-        <v>346.0054931640625</v>
+        <v>366.94921875</v>
       </c>
       <c r="FE3" t="n">
-        <v>345.8388977050781</v>
+        <v>367.501953125</v>
       </c>
       <c r="FF3" t="n">
-        <v>346.0437316894531</v>
+        <v>367.314697265625</v>
       </c>
       <c r="FG3" t="n">
-        <v>348.49365234375</v>
+        <v>366.1000671386719</v>
       </c>
       <c r="FH3" t="n">
-        <v>349.2618408203125</v>
+        <v>364.8963928222656</v>
       </c>
       <c r="FI3" t="n">
-        <v>350.7259826660156</v>
+        <v>364.953857421875</v>
       </c>
       <c r="FJ3" t="n">
-        <v>352.1709899902344</v>
+        <v>365.8366088867188</v>
       </c>
       <c r="FK3" t="n">
-        <v>353.1348876953125</v>
+        <v>366.8149719238281</v>
       </c>
       <c r="FL3" t="n">
-        <v>352.5126037597656</v>
+        <v>367.9967346191406</v>
       </c>
       <c r="FM3" t="n">
-        <v>349.585205078125</v>
+        <v>368.7650146484375</v>
       </c>
       <c r="FN3" t="n">
-        <v>348.2218017578125</v>
+        <v>366.7016906738281</v>
       </c>
       <c r="FO3" t="n">
-        <v>347.0894165039062</v>
+        <v>364.5167846679688</v>
       </c>
       <c r="FP3" t="n">
-        <v>345.7333984375</v>
+        <v>366.3634643554688</v>
       </c>
       <c r="FQ3" t="n">
-        <v>345.7833251953125</v>
+        <v>367.6187744140625</v>
       </c>
       <c r="FR3" t="n">
-        <v>346.4202575683594</v>
+        <v>369.3439025878906</v>
       </c>
       <c r="FS3" t="n">
-        <v>346.3884582519531</v>
+        <v>370.1230773925781</v>
       </c>
       <c r="FT3" t="n">
-        <v>345.9644470214844</v>
+        <v>372.9640197753906</v>
       </c>
       <c r="FU3" t="n">
-        <v>345.8477172851562</v>
+        <v>376.2852783203125</v>
       </c>
       <c r="FV3" t="n">
-        <v>348.0877075195312</v>
+        <v>378.0357971191406</v>
       </c>
       <c r="FW3" t="n">
-        <v>351.3453369140625</v>
+        <v>376.1265869140625</v>
       </c>
       <c r="FX3" t="n">
-        <v>351.9677429199219</v>
+        <v>374.7640075683594</v>
       </c>
       <c r="FY3" t="n">
-        <v>352.2664184570312</v>
+        <v>374.4080810546875</v>
       </c>
       <c r="FZ3" t="n">
-        <v>351.6863403320312</v>
+        <v>374.3505554199219</v>
       </c>
       <c r="GA3" t="n">
-        <v>351.2782287597656</v>
+        <v>375.3398742675781</v>
       </c>
       <c r="GB3" t="n">
-        <v>349.7450561523438</v>
+        <v>376.3018188476562</v>
       </c>
       <c r="GC3" t="n">
-        <v>348.6225280761719</v>
+        <v>377.8993530273438</v>
       </c>
       <c r="GD3" t="n">
-        <v>346.6455688476562</v>
+        <v>378.0029907226562</v>
       </c>
       <c r="GE3" t="n">
-        <v>346.3501281738281</v>
+        <v>377.0578308105469</v>
       </c>
       <c r="GF3" t="n">
-        <v>345.8167419433594</v>
+        <v>377.2490539550781</v>
       </c>
       <c r="GG3" t="n">
-        <v>345.6189575195312</v>
+        <v>377.4768981933594</v>
       </c>
       <c r="GH3" t="n">
-        <v>345.3401794433594</v>
+        <v>379.6495666503906</v>
       </c>
       <c r="GI3" t="n">
-        <v>345.220703125</v>
+        <v>382.8601989746094</v>
       </c>
       <c r="GJ3" t="n">
-        <v>345.1932678222656</v>
+        <v>384.2071533203125</v>
       </c>
       <c r="GK3" t="n">
-        <v>345.089111328125</v>
+        <v>386.89501953125</v>
       </c>
       <c r="GL3" t="n">
-        <v>344.5084838867188</v>
+        <v>390.6882019042969</v>
       </c>
       <c r="GM3" t="n">
-        <v>344.3927307128906</v>
+        <v>393.9075927734375</v>
       </c>
       <c r="GN3" t="n">
-        <v>344.4678344726562</v>
+        <v>394.6764221191406</v>
       </c>
       <c r="GO3" t="n">
-        <v>345.0318908691406</v>
+        <v>392.9635009765625</v>
       </c>
       <c r="GP3" t="n">
-        <v>345.2879638671875</v>
+        <v>391.1733703613281</v>
       </c>
       <c r="GQ3" t="n">
-        <v>345.8106994628906</v>
+        <v>389.6910095214844</v>
       </c>
       <c r="GR3" t="n">
-        <v>345.9893493652344</v>
+        <v>387.753173828125</v>
       </c>
       <c r="GS3" t="n">
-        <v>345.3382263183594</v>
+        <v>388.0311279296875</v>
       </c>
       <c r="GT3" t="n">
-        <v>344.5621337890625</v>
+        <v>388.5194702148438</v>
       </c>
       <c r="GU3" t="n">
-        <v>342.8559875488281</v>
+        <v>388.2878112792969</v>
       </c>
       <c r="GV3" t="n">
-        <v>341.5613708496094</v>
+        <v>385.3282470703125</v>
       </c>
       <c r="GW3" t="n">
-        <v>341.4053649902344</v>
+        <v>380.6706237792969</v>
       </c>
       <c r="GX3" t="n">
-        <v>340.9283142089844</v>
+        <v>377.0034790039062</v>
       </c>
       <c r="GY3" t="n">
-        <v>340.3355102539062</v>
+        <v>375.1635131835938</v>
       </c>
       <c r="GZ3" t="n">
-        <v>340.2133178710938</v>
+        <v>374.9581909179688</v>
       </c>
       <c r="HA3" t="n">
-        <v>340.1202087402344</v>
+        <v>384.9571838378906</v>
       </c>
       <c r="HB3" t="n">
-        <v>339.836669921875</v>
+        <v>392.1036071777344</v>
       </c>
       <c r="HC3" t="n">
-        <v>339.6184997558594</v>
+        <v>401.5396423339844</v>
       </c>
       <c r="HD3" t="n">
-        <v>339.4032592773438</v>
+        <v>410.1996154785156</v>
       </c>
       <c r="HE3" t="n">
-        <v>338.7945251464844</v>
+        <v>415.6523742675781</v>
       </c>
       <c r="HF3" t="n">
-        <v>338.5470275878906</v>
+        <v>420.3202209472656</v>
       </c>
       <c r="HG3" t="n">
-        <v>338.1322326660156</v>
+        <v>428.8299255371094</v>
       </c>
       <c r="HH3" t="n">
-        <v>337.5146179199219</v>
+        <v>430.8988342285156</v>
       </c>
       <c r="HI3" t="n">
-        <v>337.2171630859375</v>
+        <v>428.4348449707031</v>
       </c>
       <c r="HJ3" t="n">
-        <v>338.2072448730469</v>
+        <v>436.2466125488281</v>
       </c>
       <c r="HK3" t="n">
-        <v>339.5856628417969</v>
+        <v>445.644775390625</v>
       </c>
       <c r="HL3" t="n">
-        <v>342.3156433105469</v>
+        <v>454.0455627441406</v>
       </c>
       <c r="HM3" t="n">
-        <v>343.9473266601562</v>
+        <v>456.6328735351562</v>
       </c>
       <c r="HN3" t="n">
-        <v>345.68212890625</v>
+        <v>456.9007568359375</v>
       </c>
       <c r="HO3" t="n">
-        <v>346.2527160644531</v>
+        <v>458.2098999023438</v>
       </c>
       <c r="HP3" t="n">
-        <v>345.4119873046875</v>
+        <v>472.3014526367188</v>
       </c>
       <c r="HQ3" t="n">
-        <v>345.0603332519531</v>
+        <v>486.7724914550781</v>
       </c>
       <c r="HR3" t="n">
-        <v>343.6668701171875</v>
+        <v>502.6937561035156</v>
       </c>
       <c r="HS3" t="n">
-        <v>343.4336853027344</v>
+        <v>520.1549682617188</v>
       </c>
       <c r="HT3" t="n">
-        <v>343.7319641113281</v>
+        <v>542.2791748046875</v>
       </c>
       <c r="HU3" t="n">
-        <v>344.0963134765625</v>
+        <v>575.9724731445312</v>
       </c>
       <c r="HV3" t="n">
-        <v>344.1528930664062</v>
+        <v>598.9061279296875</v>
       </c>
       <c r="HW3" t="n">
-        <v>344.1181030273438</v>
+        <v>621.92724609375</v>
       </c>
       <c r="HX3" t="n">
-        <v>344.0737915039062</v>
+        <v>626.8809204101562</v>
       </c>
       <c r="HY3" t="n">
-        <v>344.0723876953125</v>
+        <v>612.937255859375</v>
       </c>
       <c r="HZ3" t="n">
-        <v>344.0965270996094</v>
+        <v>595.6997680664062</v>
       </c>
       <c r="IA3" t="n">
-        <v>344.2982788085938</v>
+        <v>579.9041748046875</v>
       </c>
       <c r="IB3" t="n">
-        <v>344.4383239746094</v>
+        <v>569.7603149414062</v>
       </c>
       <c r="IC3" t="n">
-        <v>344.9072265625</v>
+        <v>561.164794921875</v>
       </c>
       <c r="ID3" t="n">
-        <v>345.8799743652344</v>
+        <v>557.023681640625</v>
       </c>
       <c r="IE3" t="n">
-        <v>347.412841796875</v>
+        <v>552.1160888671875</v>
       </c>
       <c r="IF3" t="n">
-        <v>348.1309204101562</v>
+        <v>551.260009765625</v>
       </c>
       <c r="IG3" t="n">
-        <v>347.509521484375</v>
+        <v>550.0865478515625</v>
       </c>
       <c r="IH3" t="n">
-        <v>347.1072998046875</v>
+        <v>548.9070434570312</v>
       </c>
       <c r="II3" t="n">
-        <v>346.8003540039062</v>
+        <v>552.18701171875</v>
       </c>
       <c r="IJ3" t="n">
-        <v>346.6292114257812</v>
+        <v>557.7051391601562</v>
       </c>
       <c r="IK3" t="n">
-        <v>345.9004516601562</v>
+        <v>566.435546875</v>
       </c>
       <c r="IL3" t="n">
-        <v>346.2200927734375</v>
+        <v>573.5501708984375</v>
       </c>
       <c r="IM3" t="n">
-        <v>346.9036865234375</v>
+        <v>589.9989624023438</v>
       </c>
       <c r="IN3" t="n">
-        <v>347.5494384765625</v>
+        <v>614.9598388671875</v>
       </c>
       <c r="IO3" t="n">
-        <v>347.3326721191406</v>
+        <v>633.2505493164062</v>
       </c>
       <c r="IP3" t="n">
-        <v>347.1636657714844</v>
+        <v>644.5056762695312</v>
       </c>
       <c r="IQ3" t="n">
-        <v>345.3694152832031</v>
+        <v>653.1754760742188</v>
       </c>
       <c r="IR3" t="n">
-        <v>343.6871643066406</v>
+        <v>657.359130859375</v>
       </c>
       <c r="IS3" t="n">
-        <v>343.0314025878906</v>
+        <v>674.5569458007812</v>
       </c>
       <c r="IT3" t="n">
-        <v>342.8286437988281</v>
+        <v>689.1798706054688</v>
       </c>
       <c r="IU3" t="n">
-        <v>342.9139709472656</v>
+        <v>692.20751953125</v>
       </c>
       <c r="IV3" t="n">
-        <v>343.2137756347656</v>
+        <v>685.4843139648438</v>
       </c>
       <c r="IW3" t="n">
-        <v>343.3273315429688</v>
+        <v>679.79833984375</v>
       </c>
       <c r="IX3" t="n">
-        <v>343.6492919921875</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>343.8074340820312</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>344.5607604980469</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>345.8903198242188</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>346.4023742675781</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>347.8195190429688</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>347.5217895507812</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>347.4930725097656</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>346.6669311523438</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>346.1632995605469</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>345.7592468261719</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>345.6064453125</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>345.5086059570312</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>345.2110900878906</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>345.499755859375</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>345.5561828613281</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>345.2742614746094</v>
-      </c>
-      <c r="JO3" t="n">
-        <v>345.1015625</v>
-      </c>
-      <c r="JP3" t="n">
-        <v>345.2951354980469</v>
-      </c>
-      <c r="JQ3" t="n">
-        <v>345.4807434082031</v>
-      </c>
-      <c r="JR3" t="n">
-        <v>345.5155334472656</v>
-      </c>
-      <c r="JS3" t="n">
-        <v>345.6802978515625</v>
-      </c>
-      <c r="JT3" t="n">
-        <v>345.7980346679688</v>
-      </c>
-      <c r="JU3" t="n">
-        <v>345.8955078125</v>
-      </c>
-      <c r="JV3" t="n">
-        <v>345.9296569824219</v>
-      </c>
-      <c r="JW3" t="n">
-        <v>346.0325622558594</v>
-      </c>
-      <c r="JX3" t="n">
-        <v>346.1138916015625</v>
-      </c>
-      <c r="JY3" t="n">
-        <v>346.4331359863281</v>
-      </c>
-      <c r="JZ3" t="n">
-        <v>346.6463928222656</v>
-      </c>
-      <c r="KA3" t="n">
-        <v>346.8709411621094</v>
-      </c>
-      <c r="KB3" t="n">
-        <v>347.028564453125</v>
-      </c>
-      <c r="KC3" t="n">
-        <v>346.9933166503906</v>
-      </c>
-      <c r="KD3" t="n">
-        <v>347.4826354980469</v>
-      </c>
-      <c r="KE3" t="n">
-        <v>346.5862426757812</v>
-      </c>
-      <c r="KF3" t="n">
-        <v>345.1771850585938</v>
-      </c>
-      <c r="KG3" t="n">
-        <v>343.9349060058594</v>
-      </c>
-      <c r="KH3" t="n">
-        <v>343.5508422851562</v>
-      </c>
-      <c r="KI3" t="n">
-        <v>343.4840698242188</v>
-      </c>
-      <c r="KJ3" t="n">
-        <v>343.851318359375</v>
-      </c>
-      <c r="KK3" t="n">
-        <v>344.2296447753906</v>
-      </c>
-      <c r="KL3" t="n">
-        <v>344.5047607421875</v>
-      </c>
-      <c r="KM3" t="n">
-        <v>344.7254638671875</v>
-      </c>
-      <c r="KN3" t="n">
-        <v>344.8621826171875</v>
-      </c>
-      <c r="KO3" t="n">
-        <v>344.8370666503906</v>
-      </c>
-      <c r="KP3" t="n">
-        <v>344.9482116699219</v>
-      </c>
-      <c r="KQ3" t="n">
-        <v>344.9371948242188</v>
-      </c>
-      <c r="KR3" t="n">
-        <v>344.7472839355469</v>
-      </c>
-      <c r="KS3" t="n">
-        <v>344.416015625</v>
-      </c>
-      <c r="KT3" t="n">
-        <v>344.6883239746094</v>
-      </c>
-      <c r="KU3" t="n">
-        <v>345.1414794921875</v>
-      </c>
-      <c r="KV3" t="n">
-        <v>345.5218200683594</v>
-      </c>
-      <c r="KW3" t="n">
-        <v>345.7142944335938</v>
-      </c>
-      <c r="KX3" t="n">
-        <v>345.8525390625</v>
-      </c>
-      <c r="KY3" t="n">
-        <v>346.0071716308594</v>
-      </c>
-      <c r="KZ3" t="n">
-        <v>345.982421875</v>
-      </c>
-      <c r="LA3" t="n">
-        <v>346.5493774414062</v>
-      </c>
-      <c r="LB3" t="n">
-        <v>347.4988708496094</v>
-      </c>
-      <c r="LC3" t="n">
-        <v>348.4780578613281</v>
-      </c>
-      <c r="LD3" t="n">
-        <v>349.4286193847656</v>
-      </c>
-      <c r="LE3" t="n">
-        <v>350.2817687988281</v>
-      </c>
-      <c r="LF3" t="n">
-        <v>349.5750427246094</v>
-      </c>
-      <c r="LG3" t="n">
-        <v>351.3089904785156</v>
-      </c>
-      <c r="LH3" t="n">
-        <v>353.943359375</v>
-      </c>
-      <c r="LI3" t="n">
-        <v>356.0880126953125</v>
-      </c>
-      <c r="LJ3" t="n">
-        <v>356.5623779296875</v>
-      </c>
-      <c r="LK3" t="n">
-        <v>353.9833679199219</v>
-      </c>
-      <c r="LL3" t="n">
-        <v>353.300048828125</v>
-      </c>
-      <c r="LM3" t="n">
-        <v>355.06591796875</v>
-      </c>
-      <c r="LN3" t="n">
-        <v>354.3550415039062</v>
-      </c>
-      <c r="LO3" t="n">
-        <v>354.1902160644531</v>
-      </c>
-      <c r="LP3" t="n">
-        <v>354.5136108398438</v>
-      </c>
-      <c r="LQ3" t="n">
-        <v>359.2728881835938</v>
-      </c>
-      <c r="LR3" t="n">
-        <v>362.6203308105469</v>
-      </c>
-      <c r="LS3" t="n">
-        <v>365.6996154785156</v>
-      </c>
-      <c r="LT3" t="n">
-        <v>367.2383422851562</v>
-      </c>
-      <c r="LU3" t="n">
-        <v>363.6759643554688</v>
-      </c>
-      <c r="LV3" t="n">
-        <v>354.9391479492188</v>
-      </c>
-      <c r="LW3" t="n">
-        <v>354.5253601074219</v>
-      </c>
-      <c r="LX3" t="n">
-        <v>357.4491882324219</v>
-      </c>
-      <c r="LY3" t="n">
-        <v>361.4789428710938</v>
-      </c>
-      <c r="LZ3" t="n">
-        <v>367.2143859863281</v>
-      </c>
-      <c r="MA3" t="n">
-        <v>376.0322265625</v>
-      </c>
-      <c r="MB3" t="n">
-        <v>386.0396118164062</v>
-      </c>
-      <c r="MC3" t="n">
-        <v>391.3194580078125</v>
-      </c>
-      <c r="MD3" t="n">
-        <v>378.6980590820312</v>
-      </c>
-      <c r="ME3" t="n">
-        <v>360.4124145507812</v>
-      </c>
-      <c r="MF3" t="n">
-        <v>357.6056518554688</v>
-      </c>
-      <c r="MG3" t="n">
-        <v>364.2416381835938</v>
-      </c>
-      <c r="MH3" t="n">
-        <v>377.02734375</v>
-      </c>
-      <c r="MI3" t="n">
-        <v>389.89990234375</v>
-      </c>
-      <c r="MJ3" t="n">
-        <v>427.1506042480469</v>
-      </c>
-      <c r="MK3" t="n">
-        <v>467.5696411132812</v>
-      </c>
-      <c r="ML3" t="n">
-        <v>486.4217529296875</v>
-      </c>
-      <c r="MM3" t="n">
-        <v>515.2838745117188</v>
-      </c>
-      <c r="MN3" t="n">
-        <v>509.9391784667969</v>
-      </c>
-      <c r="MO3" t="n">
-        <v>507.7694396972656</v>
-      </c>
-      <c r="MP3" t="n">
-        <v>509.0979309082031</v>
-      </c>
-      <c r="MQ3" t="n">
-        <v>513.4534301757812</v>
-      </c>
-      <c r="MR3" t="n">
-        <v>533.5802001953125</v>
-      </c>
-      <c r="MS3" t="n">
-        <v>547.9739990234375</v>
-      </c>
-      <c r="MT3" t="n">
-        <v>584.4615478515625</v>
-      </c>
-      <c r="MU3" t="n">
-        <v>577.5603637695312</v>
-      </c>
-      <c r="MV3" t="n">
-        <v>591.5453491210938</v>
-      </c>
-      <c r="MW3" t="n">
-        <v>571.667236328125</v>
-      </c>
-      <c r="MX3" t="n">
-        <v>575.1862182617188</v>
-      </c>
-      <c r="MY3" t="n">
-        <v>579.3591918945312</v>
-      </c>
-      <c r="MZ3" t="n">
-        <v>582.552001953125</v>
-      </c>
-      <c r="NA3" t="n">
-        <v>591.5624389648438</v>
-      </c>
-      <c r="NB3" t="n">
-        <v>593.1471557617188</v>
-      </c>
-      <c r="NC3" t="n">
-        <v>590.4310913085938</v>
-      </c>
-      <c r="ND3" t="n">
-        <v>590.534912109375</v>
-      </c>
-      <c r="NE3" t="n">
-        <v>595.6588134765625</v>
-      </c>
-      <c r="NF3" t="n">
-        <v>606.1257934570312</v>
-      </c>
-      <c r="NG3" t="n">
-        <v>616.531005859375</v>
-      </c>
-      <c r="NH3" t="n">
-        <v>616.9649047851562</v>
-      </c>
-      <c r="NI3" t="n">
-        <v>611.0579833984375</v>
-      </c>
-      <c r="NJ3" t="n">
-        <v>606.640625</v>
-      </c>
-      <c r="NK3" t="n">
-        <v>606.3259887695312</v>
-      </c>
-      <c r="NL3" t="n">
-        <v>606.8905639648438</v>
-      </c>
-      <c r="NM3" t="n">
-        <v>614.8212280273438</v>
+        <v>677.7731323242188</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1030.408447265625</v>
+        <v>984.6224365234375</v>
       </c>
       <c r="B4" t="n">
-        <v>1034.825073242188</v>
+        <v>996.542236328125</v>
       </c>
       <c r="C4" t="n">
-        <v>1037.362915039062</v>
+        <v>1007.85205078125</v>
       </c>
       <c r="D4" t="n">
-        <v>1040.755737304688</v>
+        <v>1017.199890136719</v>
       </c>
       <c r="E4" t="n">
-        <v>1044.321899414062</v>
+        <v>1025.572021484375</v>
       </c>
       <c r="F4" t="n">
-        <v>1048.232543945312</v>
+        <v>1037.414916992188</v>
       </c>
       <c r="G4" t="n">
-        <v>1053.277709960938</v>
+        <v>1053.48876953125</v>
       </c>
       <c r="H4" t="n">
-        <v>1059.807861328125</v>
+        <v>1073.047485351562</v>
       </c>
       <c r="I4" t="n">
-        <v>1069.773681640625</v>
+        <v>1092.705688476562</v>
       </c>
       <c r="J4" t="n">
-        <v>1084.762939453125</v>
+        <v>1111.552368164062</v>
       </c>
       <c r="K4" t="n">
-        <v>1104.05810546875</v>
+        <v>1128.887817382812</v>
       </c>
       <c r="L4" t="n">
-        <v>1120.0625</v>
+        <v>1151.150024414062</v>
       </c>
       <c r="M4" t="n">
-        <v>1166.251831054688</v>
+        <v>1178.79443359375</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.597045898438</v>
+        <v>1213.998168945312</v>
       </c>
       <c r="O4" t="n">
-        <v>1210.432739257812</v>
+        <v>1436.671875</v>
       </c>
       <c r="P4" t="n">
-        <v>1220.801391601562</v>
+        <v>1457.4716796875</v>
       </c>
       <c r="Q4" t="n">
-        <v>1226.984741210938</v>
+        <v>1476.080078125</v>
       </c>
       <c r="R4" t="n">
-        <v>1234.075561523438</v>
+        <v>1490.765502929688</v>
       </c>
       <c r="S4" t="n">
-        <v>1240.896728515625</v>
+        <v>1508.814575195312</v>
       </c>
       <c r="T4" t="n">
-        <v>1254.063232421875</v>
+        <v>1530.01025390625</v>
       </c>
       <c r="U4" t="n">
-        <v>1267.449096679688</v>
+        <v>1554.041870117188</v>
       </c>
       <c r="V4" t="n">
-        <v>1276.104614257812</v>
+        <v>1574.472412109375</v>
       </c>
       <c r="W4" t="n">
-        <v>1284.07275390625</v>
+        <v>1594.266235351562</v>
       </c>
       <c r="X4" t="n">
-        <v>1291.098999023438</v>
+        <v>1612.62646484375</v>
       </c>
       <c r="Y4" t="n">
-        <v>1293.17822265625</v>
+        <v>1636.407836914062</v>
       </c>
       <c r="Z4" t="n">
-        <v>1296.198608398438</v>
+        <v>1664.214965820312</v>
       </c>
       <c r="AA4" t="n">
-        <v>1298.381713867188</v>
+        <v>1690.988037109375</v>
       </c>
       <c r="AB4" t="n">
-        <v>1303.130615234375</v>
+        <v>1718.393798828125</v>
       </c>
       <c r="AC4" t="n">
-        <v>1317.328125</v>
+        <v>1745.488159179688</v>
       </c>
       <c r="AD4" t="n">
-        <v>1334.341552734375</v>
+        <v>1772.058349609375</v>
       </c>
       <c r="AE4" t="n">
-        <v>1345.368286132812</v>
+        <v>1791.793334960938</v>
       </c>
       <c r="AF4" t="n">
-        <v>1356.922729492188</v>
+        <v>1811.287475585938</v>
       </c>
       <c r="AG4" t="n">
-        <v>1363.691772460938</v>
+        <v>1828.019653320312</v>
       </c>
       <c r="AH4" t="n">
-        <v>1372.315307617188</v>
+        <v>1842.607299804688</v>
       </c>
       <c r="AI4" t="n">
-        <v>1378.352905273438</v>
+        <v>1859.23388671875</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1381.855224609375</v>
+        <v>1872.626953125</v>
       </c>
       <c r="AK4" t="n">
-        <v>1384.068481445312</v>
+        <v>1885.141967773438</v>
       </c>
       <c r="AL4" t="n">
-        <v>1385.540893554688</v>
+        <v>1895.017211914062</v>
       </c>
       <c r="AM4" t="n">
-        <v>1385.261474609375</v>
+        <v>1903.173461914062</v>
       </c>
       <c r="AN4" t="n">
-        <v>1382.971313476562</v>
+        <v>1910.286499023438</v>
       </c>
       <c r="AO4" t="n">
-        <v>1378.203369140625</v>
+        <v>1914.669311523438</v>
       </c>
       <c r="AP4" t="n">
-        <v>1370.784057617188</v>
+        <v>1918.391357421875</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1361.877319335938</v>
+        <v>1922.426513671875</v>
       </c>
       <c r="AR4" t="n">
-        <v>1355.465209960938</v>
+        <v>1928.198852539062</v>
       </c>
       <c r="AS4" t="n">
-        <v>1349.525268554688</v>
+        <v>1932.505859375</v>
       </c>
       <c r="AT4" t="n">
-        <v>1342.21826171875</v>
+        <v>1937.26318359375</v>
       </c>
       <c r="AU4" t="n">
-        <v>1335.982666015625</v>
+        <v>1941.525268554688</v>
       </c>
       <c r="AV4" t="n">
-        <v>1329.528442382812</v>
+        <v>1943.830810546875</v>
       </c>
       <c r="AW4" t="n">
-        <v>1324.542846679688</v>
+        <v>1945.148315429688</v>
       </c>
       <c r="AX4" t="n">
-        <v>1318.8466796875</v>
+        <v>1946.232543945312</v>
       </c>
       <c r="AY4" t="n">
-        <v>1311.919189453125</v>
+        <v>1946.874633789062</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1302.203247070312</v>
+        <v>1946.460693359375</v>
       </c>
       <c r="BA4" t="n">
-        <v>1289.199584960938</v>
+        <v>1946.549682617188</v>
       </c>
       <c r="BB4" t="n">
-        <v>1279.014404296875</v>
+        <v>1946.219360351562</v>
       </c>
       <c r="BC4" t="n">
-        <v>1268.429443359375</v>
+        <v>1944.61474609375</v>
       </c>
       <c r="BD4" t="n">
-        <v>1261.889038085938</v>
+        <v>1943.26611328125</v>
       </c>
       <c r="BE4" t="n">
-        <v>1258.429077148438</v>
+        <v>1942.259643554688</v>
       </c>
       <c r="BF4" t="n">
-        <v>1256.66650390625</v>
+        <v>1942.195434570312</v>
       </c>
       <c r="BG4" t="n">
-        <v>1255.7841796875</v>
+        <v>1942.73291015625</v>
       </c>
       <c r="BH4" t="n">
-        <v>1255.044799804688</v>
+        <v>1944.761352539062</v>
       </c>
       <c r="BI4" t="n">
-        <v>1253.160888671875</v>
+        <v>1949.098754882812</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1247.471313476562</v>
+        <v>1955.1806640625</v>
       </c>
       <c r="BK4" t="n">
-        <v>1239.513793945312</v>
+        <v>1959.789184570312</v>
       </c>
       <c r="BL4" t="n">
-        <v>1230.1044921875</v>
+        <v>1962.006103515625</v>
       </c>
       <c r="BM4" t="n">
-        <v>1220.490600585938</v>
+        <v>1963.176147460938</v>
       </c>
       <c r="BN4" t="n">
-        <v>1212.81201171875</v>
+        <v>1963.809448242188</v>
       </c>
       <c r="BO4" t="n">
-        <v>1203.17822265625</v>
+        <v>1964.552978515625</v>
       </c>
       <c r="BP4" t="n">
-        <v>1201.33642578125</v>
+        <v>1964.843383789062</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1199.904174804688</v>
+        <v>1965.029541015625</v>
       </c>
       <c r="BR4" t="n">
-        <v>1198.318359375</v>
+        <v>1965.103149414062</v>
       </c>
       <c r="BS4" t="n">
-        <v>1196.918701171875</v>
+        <v>1965.140625</v>
       </c>
       <c r="BT4" t="n">
-        <v>1194.804077148438</v>
+        <v>1965.1689453125</v>
       </c>
       <c r="BU4" t="n">
-        <v>1191.546630859375</v>
+        <v>1965.172973632812</v>
       </c>
       <c r="BV4" t="n">
-        <v>1187.390625</v>
+        <v>1965.168090820312</v>
       </c>
       <c r="BW4" t="n">
-        <v>1183.652099609375</v>
+        <v>1964.547485351562</v>
       </c>
       <c r="BX4" t="n">
-        <v>1178.70751953125</v>
+        <v>1963.809326171875</v>
       </c>
       <c r="BY4" t="n">
-        <v>1165.981201171875</v>
+        <v>1963.032470703125</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1157.957397460938</v>
+        <v>1962.205078125</v>
       </c>
       <c r="CA4" t="n">
-        <v>1152.320678710938</v>
+        <v>1961.309814453125</v>
       </c>
       <c r="CB4" t="n">
-        <v>1148.038452148438</v>
+        <v>1960.313720703125</v>
       </c>
       <c r="CC4" t="n">
-        <v>1144.356079101562</v>
+        <v>1959.139526367188</v>
       </c>
       <c r="CD4" t="n">
-        <v>1140.808227539062</v>
+        <v>1957.955688476562</v>
       </c>
       <c r="CE4" t="n">
-        <v>1136.282348632812</v>
+        <v>1956.836181640625</v>
       </c>
       <c r="CF4" t="n">
-        <v>1134.913940429688</v>
+        <v>1957.228271484375</v>
       </c>
       <c r="CG4" t="n">
-        <v>1133.439575195312</v>
+        <v>1957.303100585938</v>
       </c>
       <c r="CH4" t="n">
-        <v>1131.287963867188</v>
+        <v>1957.24853515625</v>
       </c>
       <c r="CI4" t="n">
-        <v>1130.215209960938</v>
+        <v>1956.612182617188</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1129.8193359375</v>
+        <v>1955.990966796875</v>
       </c>
       <c r="CK4" t="n">
-        <v>1129.397094726562</v>
+        <v>1955.256469726562</v>
       </c>
       <c r="CL4" t="n">
-        <v>1128.703125</v>
+        <v>1954.514038085938</v>
       </c>
       <c r="CM4" t="n">
-        <v>1128.130615234375</v>
+        <v>1954.099975585938</v>
       </c>
       <c r="CN4" t="n">
-        <v>1127.317138671875</v>
+        <v>1953.756469726562</v>
       </c>
       <c r="CO4" t="n">
-        <v>1126.752319335938</v>
+        <v>1953.3896484375</v>
       </c>
       <c r="CP4" t="n">
-        <v>1126.216552734375</v>
+        <v>1953.174560546875</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1125.648559570312</v>
+        <v>1953.030639648438</v>
       </c>
       <c r="CR4" t="n">
-        <v>1125.1494140625</v>
+        <v>1952.931030273438</v>
       </c>
       <c r="CS4" t="n">
-        <v>1123.61083984375</v>
+        <v>1952.798461914062</v>
       </c>
       <c r="CT4" t="n">
-        <v>1121.870971679688</v>
+        <v>1952.703002929688</v>
       </c>
       <c r="CU4" t="n">
-        <v>1121.0498046875</v>
+        <v>1952.610107421875</v>
       </c>
       <c r="CV4" t="n">
-        <v>1120.560791015625</v>
+        <v>1952.531616210938</v>
       </c>
       <c r="CW4" t="n">
-        <v>1120.71044921875</v>
+        <v>1952.451171875</v>
       </c>
       <c r="CX4" t="n">
-        <v>1122.756103515625</v>
+        <v>1952.412109375</v>
       </c>
       <c r="CY4" t="n">
-        <v>1125.268798828125</v>
+        <v>1952.34326171875</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1136.639038085938</v>
+        <v>1952.310424804688</v>
       </c>
       <c r="DA4" t="n">
-        <v>1140.975708007812</v>
+        <v>1952.280639648438</v>
       </c>
       <c r="DB4" t="n">
-        <v>1143.56591796875</v>
+        <v>1952.245361328125</v>
       </c>
       <c r="DC4" t="n">
-        <v>1145.1259765625</v>
+        <v>1952.205932617188</v>
       </c>
       <c r="DD4" t="n">
-        <v>1145.983764648438</v>
+        <v>1952.162475585938</v>
       </c>
       <c r="DE4" t="n">
-        <v>1147.439819335938</v>
+        <v>1952.017456054688</v>
       </c>
       <c r="DF4" t="n">
-        <v>1149.8427734375</v>
+        <v>1951.1708984375</v>
       </c>
       <c r="DG4" t="n">
-        <v>1152.484497070312</v>
+        <v>1950.6767578125</v>
       </c>
       <c r="DH4" t="n">
-        <v>1158.518432617188</v>
+        <v>1949.237060546875</v>
       </c>
       <c r="DI4" t="n">
-        <v>1162.29931640625</v>
+        <v>1948.3701171875</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1170.466430664062</v>
+        <v>1947.518920898438</v>
       </c>
       <c r="DK4" t="n">
-        <v>1174.36572265625</v>
+        <v>1947.608276367188</v>
       </c>
       <c r="DL4" t="n">
-        <v>1176.65087890625</v>
+        <v>1948.140991210938</v>
       </c>
       <c r="DM4" t="n">
-        <v>1179.125244140625</v>
+        <v>1948.619384765625</v>
       </c>
       <c r="DN4" t="n">
-        <v>1180.43359375</v>
+        <v>1950.460205078125</v>
       </c>
       <c r="DO4" t="n">
-        <v>1180.870971679688</v>
+        <v>1953.441162109375</v>
       </c>
       <c r="DP4" t="n">
-        <v>1180.883666992188</v>
+        <v>1955.235961914062</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1180.740234375</v>
+        <v>1957.18701171875</v>
       </c>
       <c r="DR4" t="n">
-        <v>1180.718627929688</v>
+        <v>1957.6201171875</v>
       </c>
       <c r="DS4" t="n">
-        <v>1180.72216796875</v>
+        <v>1957.883666992188</v>
       </c>
       <c r="DT4" t="n">
-        <v>1182.514770507812</v>
+        <v>1957.658081054688</v>
       </c>
       <c r="DU4" t="n">
-        <v>1192.318725585938</v>
+        <v>1957.6943359375</v>
       </c>
       <c r="DV4" t="n">
-        <v>1196.238403320312</v>
+        <v>1958.14306640625</v>
       </c>
       <c r="DW4" t="n">
-        <v>1203.06201171875</v>
+        <v>1958.44287109375</v>
       </c>
       <c r="DX4" t="n">
-        <v>1207.47314453125</v>
+        <v>1958.767822265625</v>
       </c>
       <c r="DY4" t="n">
-        <v>1211.465209960938</v>
+        <v>1959.160034179688</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1220.518798828125</v>
+        <v>1959.34423828125</v>
       </c>
       <c r="EA4" t="n">
-        <v>1226.26904296875</v>
+        <v>1959.41259765625</v>
       </c>
       <c r="EB4" t="n">
-        <v>1240.109741210938</v>
+        <v>1959.379638671875</v>
       </c>
       <c r="EC4" t="n">
-        <v>1246.073364257812</v>
+        <v>1959.292846679688</v>
       </c>
       <c r="ED4" t="n">
-        <v>1251.811279296875</v>
+        <v>1959.090576171875</v>
       </c>
       <c r="EE4" t="n">
-        <v>1262.089233398438</v>
+        <v>1959.021240234375</v>
       </c>
       <c r="EF4" t="n">
-        <v>1279.988403320312</v>
+        <v>1957.921508789062</v>
       </c>
       <c r="EG4" t="n">
-        <v>1316.360229492188</v>
+        <v>1956.198364257812</v>
       </c>
       <c r="EH4" t="n">
-        <v>1337.391723632812</v>
+        <v>1951.3447265625</v>
       </c>
       <c r="EI4" t="n">
-        <v>1364.77001953125</v>
+        <v>1949.603515625</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1373.394287109375</v>
+        <v>1948.433959960938</v>
       </c>
       <c r="EK4" t="n">
-        <v>1396.60888671875</v>
+        <v>1947.8369140625</v>
       </c>
       <c r="EL4" t="n">
-        <v>1407.40087890625</v>
+        <v>1945.618774414062</v>
       </c>
       <c r="EM4" t="n">
-        <v>1425.31982421875</v>
+        <v>1944.491577148438</v>
       </c>
       <c r="EN4" t="n">
-        <v>1435.067626953125</v>
+        <v>1944.398315429688</v>
       </c>
       <c r="EO4" t="n">
-        <v>1451.713989257812</v>
+        <v>1942.729614257812</v>
       </c>
       <c r="EP4" t="n">
-        <v>1459.510131835938</v>
+        <v>1943.004272460938</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1481.607299804688</v>
+        <v>1941.96728515625</v>
       </c>
       <c r="ER4" t="n">
-        <v>1500.1298828125</v>
+        <v>1942.743896484375</v>
       </c>
       <c r="ES4" t="n">
-        <v>1535.537475585938</v>
+        <v>1943.066284179688</v>
       </c>
       <c r="ET4" t="n">
-        <v>1565.994140625</v>
+        <v>1943.355102539062</v>
       </c>
       <c r="EU4" t="n">
-        <v>1585.164794921875</v>
+        <v>1943.006225585938</v>
       </c>
       <c r="EV4" t="n">
-        <v>1610.475219726562</v>
+        <v>1934.569213867188</v>
       </c>
       <c r="EW4" t="n">
-        <v>1673.021118164062</v>
+        <v>1924.6025390625</v>
       </c>
       <c r="EX4" t="n">
-        <v>1716.583129882812</v>
+        <v>1909.639404296875</v>
       </c>
       <c r="EY4" t="n">
-        <v>1743.649291992188</v>
+        <v>1901.704345703125</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1773.700439453125</v>
+        <v>1875.185913085938</v>
       </c>
       <c r="FA4" t="n">
-        <v>1816.910400390625</v>
+        <v>1857.3388671875</v>
       </c>
       <c r="FB4" t="n">
-        <v>1828.5927734375</v>
+        <v>1842.417236328125</v>
       </c>
       <c r="FC4" t="n">
-        <v>1859.212646484375</v>
+        <v>1817.680419921875</v>
       </c>
       <c r="FD4" t="n">
-        <v>1901.517700195312</v>
+        <v>1785.038452148438</v>
       </c>
       <c r="FE4" t="n">
-        <v>1919.93212890625</v>
+        <v>1766.015869140625</v>
       </c>
       <c r="FF4" t="n">
-        <v>1938.822998046875</v>
+        <v>1732.105102539062</v>
       </c>
       <c r="FG4" t="n">
-        <v>1972.595458984375</v>
+        <v>1716.51611328125</v>
       </c>
       <c r="FH4" t="n">
-        <v>1990.035888671875</v>
+        <v>1685.590942382812</v>
       </c>
       <c r="FI4" t="n">
-        <v>2034.160888671875</v>
+        <v>1668.300659179688</v>
       </c>
       <c r="FJ4" t="n">
-        <v>2057.767578125</v>
+        <v>1630.15380859375</v>
       </c>
       <c r="FK4" t="n">
-        <v>2096.281982421875</v>
+        <v>1603.279296875</v>
       </c>
       <c r="FL4" t="n">
-        <v>2118.18603515625</v>
+        <v>1593.9990234375</v>
       </c>
       <c r="FM4" t="n">
-        <v>2169.97705078125</v>
+        <v>1577.118530273438</v>
       </c>
       <c r="FN4" t="n">
-        <v>2191.122802734375</v>
+        <v>1567.836669921875</v>
       </c>
       <c r="FO4" t="n">
-        <v>2209.3291015625</v>
+        <v>1542.831176757812</v>
       </c>
       <c r="FP4" t="n">
-        <v>2230.75927734375</v>
+        <v>1513.339111328125</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2248.875</v>
+        <v>1502.211669921875</v>
       </c>
       <c r="FR4" t="n">
-        <v>2266.97509765625</v>
+        <v>1482.944580078125</v>
       </c>
       <c r="FS4" t="n">
-        <v>2286.34619140625</v>
+        <v>1470.095703125</v>
       </c>
       <c r="FT4" t="n">
-        <v>2302.557861328125</v>
+        <v>1430.69921875</v>
       </c>
       <c r="FU4" t="n">
-        <v>2306.2177734375</v>
+        <v>1394.006103515625</v>
       </c>
       <c r="FV4" t="n">
-        <v>2309.37939453125</v>
+        <v>1353.787109375</v>
       </c>
       <c r="FW4" t="n">
-        <v>2299.14453125</v>
+        <v>1308.862915039062</v>
       </c>
       <c r="FX4" t="n">
-        <v>2293.990478515625</v>
+        <v>1296.427368164062</v>
       </c>
       <c r="FY4" t="n">
-        <v>2288.07373046875</v>
+        <v>1263.719116210938</v>
       </c>
       <c r="FZ4" t="n">
-        <v>2291.803955078125</v>
+        <v>1244.679565429688</v>
       </c>
       <c r="GA4" t="n">
-        <v>2296.18359375</v>
+        <v>1208.49365234375</v>
       </c>
       <c r="GB4" t="n">
-        <v>2310.2041015625</v>
+        <v>1193.45263671875</v>
       </c>
       <c r="GC4" t="n">
-        <v>2316.424072265625</v>
+        <v>1171.411376953125</v>
       </c>
       <c r="GD4" t="n">
-        <v>2326.40771484375</v>
+        <v>1157.995483398438</v>
       </c>
       <c r="GE4" t="n">
-        <v>2326.774169921875</v>
+        <v>1137.716918945312</v>
       </c>
       <c r="GF4" t="n">
-        <v>2327.885498046875</v>
+        <v>1117.451416015625</v>
       </c>
       <c r="GG4" t="n">
-        <v>2327.550048828125</v>
+        <v>1111.42431640625</v>
       </c>
       <c r="GH4" t="n">
-        <v>2327.49169921875</v>
+        <v>1093.378784179688</v>
       </c>
       <c r="GI4" t="n">
-        <v>2327.7265625</v>
+        <v>1060.117309570312</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2327.765380859375</v>
+        <v>1046.460327148438</v>
       </c>
       <c r="GK4" t="n">
-        <v>2327.87890625</v>
+        <v>1018.416748046875</v>
       </c>
       <c r="GL4" t="n">
-        <v>2328.47509765625</v>
+        <v>981.076171875</v>
       </c>
       <c r="GM4" t="n">
-        <v>2328.126220703125</v>
+        <v>945.9478149414062</v>
       </c>
       <c r="GN4" t="n">
-        <v>2327.601806640625</v>
+        <v>929.0794677734375</v>
       </c>
       <c r="GO4" t="n">
-        <v>2315.5673828125</v>
+        <v>898.0369873046875</v>
       </c>
       <c r="GP4" t="n">
-        <v>2299.95703125</v>
+        <v>871.455078125</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2292.185791015625</v>
+        <v>861.6258544921875</v>
       </c>
       <c r="GR4" t="n">
-        <v>2285.949951171875</v>
+        <v>844.6324462890625</v>
       </c>
       <c r="GS4" t="n">
-        <v>2283.132080078125</v>
+        <v>836.045654296875</v>
       </c>
       <c r="GT4" t="n">
-        <v>2282.677978515625</v>
+        <v>827.8682861328125</v>
       </c>
       <c r="GU4" t="n">
-        <v>2273.3759765625</v>
+        <v>820.2959594726562</v>
       </c>
       <c r="GV4" t="n">
-        <v>2264.719482421875</v>
+        <v>819.885009765625</v>
       </c>
       <c r="GW4" t="n">
-        <v>2259.94384765625</v>
+        <v>820.4197387695312</v>
       </c>
       <c r="GX4" t="n">
-        <v>2261.587158203125</v>
+        <v>821.7676391601562</v>
       </c>
       <c r="GY4" t="n">
-        <v>2262.054443359375</v>
+        <v>822.9652099609375</v>
       </c>
       <c r="GZ4" t="n">
-        <v>2262.200927734375</v>
+        <v>823.67138671875</v>
       </c>
       <c r="HA4" t="n">
-        <v>2262.2216796875</v>
+        <v>806.4354248046875</v>
       </c>
       <c r="HB4" t="n">
-        <v>2261.06640625</v>
+        <v>793.6117553710938</v>
       </c>
       <c r="HC4" t="n">
-        <v>2259.108154296875</v>
+        <v>789.6603393554688</v>
       </c>
       <c r="HD4" t="n">
-        <v>2258.496337890625</v>
+        <v>788.016845703125</v>
       </c>
       <c r="HE4" t="n">
-        <v>2255.8857421875</v>
+        <v>781.7291870117188</v>
       </c>
       <c r="HF4" t="n">
-        <v>2251.729248046875</v>
+        <v>773.5014038085938</v>
       </c>
       <c r="HG4" t="n">
-        <v>2249.529541015625</v>
+        <v>763.7803955078125</v>
       </c>
       <c r="HH4" t="n">
-        <v>2251.864013671875</v>
+        <v>764.8023681640625</v>
       </c>
       <c r="HI4" t="n">
-        <v>2253.415771484375</v>
+        <v>779.4603271484375</v>
       </c>
       <c r="HJ4" t="n">
-        <v>2253.933837890625</v>
+        <v>779.4735717773438</v>
       </c>
       <c r="HK4" t="n">
-        <v>2252.426513671875</v>
+        <v>762.9576416015625</v>
       </c>
       <c r="HL4" t="n">
-        <v>2238.763427734375</v>
+        <v>743.71826171875</v>
       </c>
       <c r="HM4" t="n">
-        <v>2219.526611328125</v>
+        <v>739.7667236328125</v>
       </c>
       <c r="HN4" t="n">
-        <v>2204.9951171875</v>
+        <v>733.0828247070312</v>
       </c>
       <c r="HO4" t="n">
-        <v>2186.149658203125</v>
+        <v>710.7716064453125</v>
       </c>
       <c r="HP4" t="n">
-        <v>2183.023681640625</v>
+        <v>678.3601684570312</v>
       </c>
       <c r="HQ4" t="n">
-        <v>2181.66455078125</v>
+        <v>658.8435668945312</v>
       </c>
       <c r="HR4" t="n">
-        <v>2178.52392578125</v>
+        <v>642.2561645507812</v>
       </c>
       <c r="HS4" t="n">
-        <v>2175.634033203125</v>
+        <v>633.2197265625</v>
       </c>
       <c r="HT4" t="n">
-        <v>2165.943359375</v>
+        <v>616.524169921875</v>
       </c>
       <c r="HU4" t="n">
-        <v>2155.14794921875</v>
+        <v>586.3558959960938</v>
       </c>
       <c r="HV4" t="n">
-        <v>2152.5185546875</v>
+        <v>586.1748046875</v>
       </c>
       <c r="HW4" t="n">
-        <v>2152.66796875</v>
+        <v>582.8831787109375</v>
       </c>
       <c r="HX4" t="n">
-        <v>2152.81982421875</v>
+        <v>608.5496826171875</v>
       </c>
       <c r="HY4" t="n">
-        <v>2152.7958984375</v>
+        <v>650.4002685546875</v>
       </c>
       <c r="HZ4" t="n">
-        <v>2152.693603515625</v>
+        <v>694.5939331054688</v>
       </c>
       <c r="IA4" t="n">
-        <v>2152.35546875</v>
+        <v>735.3541259765625</v>
       </c>
       <c r="IB4" t="n">
-        <v>2152.218017578125</v>
+        <v>763.593994140625</v>
       </c>
       <c r="IC4" t="n">
-        <v>2151.9150390625</v>
+        <v>794.5087890625</v>
       </c>
       <c r="ID4" t="n">
-        <v>2150.809814453125</v>
+        <v>810.739990234375</v>
       </c>
       <c r="IE4" t="n">
-        <v>2148.5517578125</v>
+        <v>820.753662109375</v>
       </c>
       <c r="IF4" t="n">
-        <v>2147.30322265625</v>
+        <v>836.4844360351562</v>
       </c>
       <c r="IG4" t="n">
-        <v>2148.175048828125</v>
+        <v>845.546630859375</v>
       </c>
       <c r="IH4" t="n">
-        <v>2148.702392578125</v>
+        <v>846.54443359375</v>
       </c>
       <c r="II4" t="n">
-        <v>2150.7490234375</v>
+        <v>836.0841674804688</v>
       </c>
       <c r="IJ4" t="n">
-        <v>2161.970458984375</v>
+        <v>818.510498046875</v>
       </c>
       <c r="IK4" t="n">
-        <v>2178.466552734375</v>
+        <v>789.249267578125</v>
       </c>
       <c r="IL4" t="n">
-        <v>2180.223876953125</v>
+        <v>766.2020874023438</v>
       </c>
       <c r="IM4" t="n">
-        <v>2181.921630859375</v>
+        <v>722.5949096679688</v>
       </c>
       <c r="IN4" t="n">
-        <v>2183.40087890625</v>
+        <v>642.6661987304688</v>
       </c>
       <c r="IO4" t="n">
-        <v>2184.2509765625</v>
+        <v>596.5303955078125</v>
       </c>
       <c r="IP4" t="n">
-        <v>2188.00634765625</v>
+        <v>586.4094848632812</v>
       </c>
       <c r="IQ4" t="n">
-        <v>2206.7353515625</v>
+        <v>587.7498779296875</v>
       </c>
       <c r="IR4" t="n">
-        <v>2207.531982421875</v>
+        <v>582.30810546875</v>
       </c>
       <c r="IS4" t="n">
-        <v>2205.468994140625</v>
+        <v>555.9292602539062</v>
       </c>
       <c r="IT4" t="n">
-        <v>2201.3017578125</v>
+        <v>530.4788818359375</v>
       </c>
       <c r="IU4" t="n">
-        <v>2197.56689453125</v>
+        <v>519.4042358398438</v>
       </c>
       <c r="IV4" t="n">
-        <v>2196.824951171875</v>
+        <v>521.4542236328125</v>
       </c>
       <c r="IW4" t="n">
-        <v>2196.38916015625</v>
+        <v>521.3221435546875</v>
       </c>
       <c r="IX4" t="n">
-        <v>2195.4306640625</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>2194.962158203125</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>2193.039306640625</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>2190.1455078125</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>2189.247802734375</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>2186.38916015625</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>2186.099853515625</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>2184.337890625</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>2185.427001953125</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>2184.349609375</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>2180.8115234375</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>2175.629150390625</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>2173.08935546875</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>2171.387451171875</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>2163.093017578125</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>2156.068115234375</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>2152.843505859375</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>2149.145751953125</v>
-      </c>
-      <c r="JP4" t="n">
-        <v>2141.778076171875</v>
-      </c>
-      <c r="JQ4" t="n">
-        <v>2138.369384765625</v>
-      </c>
-      <c r="JR4" t="n">
-        <v>2137.83056640625</v>
-      </c>
-      <c r="JS4" t="n">
-        <v>2136.927734375</v>
-      </c>
-      <c r="JT4" t="n">
-        <v>2135.825927734375</v>
-      </c>
-      <c r="JU4" t="n">
-        <v>2134.385986328125</v>
-      </c>
-      <c r="JV4" t="n">
-        <v>2132.77685546875</v>
-      </c>
-      <c r="JW4" t="n">
-        <v>2129.656982421875</v>
-      </c>
-      <c r="JX4" t="n">
-        <v>2124.7177734375</v>
-      </c>
-      <c r="JY4" t="n">
-        <v>2118.87109375</v>
-      </c>
-      <c r="JZ4" t="n">
-        <v>2117.919189453125</v>
-      </c>
-      <c r="KA4" t="n">
-        <v>2117.684326171875</v>
-      </c>
-      <c r="KB4" t="n">
-        <v>2117.43701171875</v>
-      </c>
-      <c r="KC4" t="n">
-        <v>2114.115478515625</v>
-      </c>
-      <c r="KD4" t="n">
-        <v>2096.996337890625</v>
-      </c>
-      <c r="KE4" t="n">
-        <v>2094.096435546875</v>
-      </c>
-      <c r="KF4" t="n">
-        <v>2095.128662109375</v>
-      </c>
-      <c r="KG4" t="n">
-        <v>2107.813720703125</v>
-      </c>
-      <c r="KH4" t="n">
-        <v>2111.290283203125</v>
-      </c>
-      <c r="KI4" t="n">
-        <v>2111.96484375</v>
-      </c>
-      <c r="KJ4" t="n">
-        <v>2112.007080078125</v>
-      </c>
-      <c r="KK4" t="n">
-        <v>2111.73583984375</v>
-      </c>
-      <c r="KL4" t="n">
-        <v>2111.642822265625</v>
-      </c>
-      <c r="KM4" t="n">
-        <v>2111.66748046875</v>
-      </c>
-      <c r="KN4" t="n">
-        <v>2111.81591796875</v>
-      </c>
-      <c r="KO4" t="n">
-        <v>2117.888916015625</v>
-      </c>
-      <c r="KP4" t="n">
-        <v>2119.3232421875</v>
-      </c>
-      <c r="KQ4" t="n">
-        <v>2120.86328125</v>
-      </c>
-      <c r="KR4" t="n">
-        <v>2122.706298828125</v>
-      </c>
-      <c r="KS4" t="n">
-        <v>2134.810302734375</v>
-      </c>
-      <c r="KT4" t="n">
-        <v>2140.734375</v>
-      </c>
-      <c r="KU4" t="n">
-        <v>2141.55419921875</v>
-      </c>
-      <c r="KV4" t="n">
-        <v>2141.396240234375</v>
-      </c>
-      <c r="KW4" t="n">
-        <v>2141.188232421875</v>
-      </c>
-      <c r="KX4" t="n">
-        <v>2140.99560546875</v>
-      </c>
-      <c r="KY4" t="n">
-        <v>2140.2568359375</v>
-      </c>
-      <c r="KZ4" t="n">
-        <v>2133.611328125</v>
-      </c>
-      <c r="LA4" t="n">
-        <v>2105.947509765625</v>
-      </c>
-      <c r="LB4" t="n">
-        <v>2088.064453125</v>
-      </c>
-      <c r="LC4" t="n">
-        <v>2072.390869140625</v>
-      </c>
-      <c r="LD4" t="n">
-        <v>2060.92919921875</v>
-      </c>
-      <c r="LE4" t="n">
-        <v>2049.727294921875</v>
-      </c>
-      <c r="LF4" t="n">
-        <v>2015.580932617188</v>
-      </c>
-      <c r="LG4" t="n">
-        <v>1972.64892578125</v>
-      </c>
-      <c r="LH4" t="n">
-        <v>1921.374145507812</v>
-      </c>
-      <c r="LI4" t="n">
-        <v>1842.53076171875</v>
-      </c>
-      <c r="LJ4" t="n">
-        <v>1753.02197265625</v>
-      </c>
-      <c r="LK4" t="n">
-        <v>1671.177734375</v>
-      </c>
-      <c r="LL4" t="n">
-        <v>1623.045776367188</v>
-      </c>
-      <c r="LM4" t="n">
-        <v>1572.478881835938</v>
-      </c>
-      <c r="LN4" t="n">
-        <v>1505.255126953125</v>
-      </c>
-      <c r="LO4" t="n">
-        <v>1465.53662109375</v>
-      </c>
-      <c r="LP4" t="n">
-        <v>1392.993774414062</v>
-      </c>
-      <c r="LQ4" t="n">
-        <v>1281.897827148438</v>
-      </c>
-      <c r="LR4" t="n">
-        <v>1213.480834960938</v>
-      </c>
-      <c r="LS4" t="n">
-        <v>1141.722290039062</v>
-      </c>
-      <c r="LT4" t="n">
-        <v>1009.820373535156</v>
-      </c>
-      <c r="LU4" t="n">
-        <v>941.7353515625</v>
-      </c>
-      <c r="LV4" t="n">
-        <v>880.16845703125</v>
-      </c>
-      <c r="LW4" t="n">
-        <v>819.879150390625</v>
-      </c>
-      <c r="LX4" t="n">
-        <v>787.2202758789062</v>
-      </c>
-      <c r="LY4" t="n">
-        <v>747.8737182617188</v>
-      </c>
-      <c r="LZ4" t="n">
-        <v>709.2427978515625</v>
-      </c>
-      <c r="MA4" t="n">
-        <v>701.4786376953125</v>
-      </c>
-      <c r="MB4" t="n">
-        <v>695.911865234375</v>
-      </c>
-      <c r="MC4" t="n">
-        <v>696.151123046875</v>
-      </c>
-      <c r="MD4" t="n">
-        <v>753.92919921875</v>
-      </c>
-      <c r="ME4" t="n">
-        <v>815.7576904296875</v>
-      </c>
-      <c r="MF4" t="n">
-        <v>836.5431518554688</v>
-      </c>
-      <c r="MG4" t="n">
-        <v>869.9453125</v>
-      </c>
-      <c r="MH4" t="n">
-        <v>882.1398315429688</v>
-      </c>
-      <c r="MI4" t="n">
-        <v>894.7350463867188</v>
-      </c>
-      <c r="MJ4" t="n">
-        <v>916.3480224609375</v>
-      </c>
-      <c r="MK4" t="n">
-        <v>927.1378784179688</v>
-      </c>
-      <c r="ML4" t="n">
-        <v>928.9815063476562</v>
-      </c>
-      <c r="MM4" t="n">
-        <v>932.032958984375</v>
-      </c>
-      <c r="MN4" t="n">
-        <v>970.5084228515625</v>
-      </c>
-      <c r="MO4" t="n">
-        <v>979.5323486328125</v>
-      </c>
-      <c r="MP4" t="n">
-        <v>978.9445190429688</v>
-      </c>
-      <c r="MQ4" t="n">
-        <v>970.5262451171875</v>
-      </c>
-      <c r="MR4" t="n">
-        <v>914.8677978515625</v>
-      </c>
-      <c r="MS4" t="n">
-        <v>862.4976196289062</v>
-      </c>
-      <c r="MT4" t="n">
-        <v>689.3690795898438</v>
-      </c>
-      <c r="MU4" t="n">
-        <v>611.6585083007812</v>
-      </c>
-      <c r="MV4" t="n">
-        <v>661.14111328125</v>
-      </c>
-      <c r="MW4" t="n">
-        <v>743.0433349609375</v>
-      </c>
-      <c r="MX4" t="n">
-        <v>719.5223999023438</v>
-      </c>
-      <c r="MY4" t="n">
-        <v>700.9208984375</v>
-      </c>
-      <c r="MZ4" t="n">
-        <v>668.5037841796875</v>
-      </c>
-      <c r="NA4" t="n">
-        <v>633.5882568359375</v>
-      </c>
-      <c r="NB4" t="n">
-        <v>619.42578125</v>
-      </c>
-      <c r="NC4" t="n">
-        <v>615.2066650390625</v>
-      </c>
-      <c r="ND4" t="n">
-        <v>611.1318359375</v>
-      </c>
-      <c r="NE4" t="n">
-        <v>605.6348876953125</v>
-      </c>
-      <c r="NF4" t="n">
-        <v>598.7251586914062</v>
-      </c>
-      <c r="NG4" t="n">
-        <v>593.4955444335938</v>
-      </c>
-      <c r="NH4" t="n">
-        <v>596.021240234375</v>
-      </c>
-      <c r="NI4" t="n">
-        <v>616.7203369140625</v>
-      </c>
-      <c r="NJ4" t="n">
-        <v>632.381591796875</v>
-      </c>
-      <c r="NK4" t="n">
-        <v>634.8385620117188</v>
-      </c>
-      <c r="NL4" t="n">
-        <v>634.2805786132812</v>
-      </c>
-      <c r="NM4" t="n">
-        <v>619.3942260742188</v>
+        <v>513.535888671875</v>
       </c>
     </row>
   </sheetData>
